--- a/Översikt ÅRE.xlsx
+++ b/Översikt ÅRE.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>44116</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
         <v>44984</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44244</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>44301</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44998</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43543</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44162</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>44278</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43794</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>44761</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>44984</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44515</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>44887</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>44002</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>44278</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>44487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43783</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>44316</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>44049</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>44259</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44750</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>43391</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43469</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44316</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>44510</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>44984</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>44122</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44231</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>44306</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>44370</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>44977</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44034</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>44165</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>44278</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>44733</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>44894</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44946</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43605</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>44077</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>44145</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44271</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>44278</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>44487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>44495</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>44700</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>44882</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>44977</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>43643</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43657</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43844</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43916</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>44090</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>44193</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>44231</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>44309</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>44316</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44575</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44637</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>44002</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44127</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>44130</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>44155</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>44259</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>44278</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>44334</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>44547</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>44637</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>44862</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>44889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>44900</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44904</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>44977</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44977</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>44984</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>45055</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>45072</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>45072</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>45082</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>43522</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>43661</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>43718</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44018</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>44046</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44119</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>44229</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>44334</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>44446</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>44512</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>44512</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>44701</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>44712</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44716</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>44716</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>44781</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>44893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>44946</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>44957</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>44964</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>44964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>44970</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>45072</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>45091</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43314</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>43431</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>43749</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>43774</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44002</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>44090</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44116</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44117</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>44124</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44173</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44173</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>44265</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>44265</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44271</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44306</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44334</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44395</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44477</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11769,7 +11769,7 @@
         <v>44487</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>44487</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>44487</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>44502</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>44509</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44559</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>44637</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44680</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44690</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44781</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         <v>44888</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>44893</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>44904</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>44904</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44911</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13059,7 +13059,7 @@
         <v>44957</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>44984</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>45006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>43328</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>43353</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43355</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>43355</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>43357</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43368</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43369</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43375</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>43383</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>43384</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43388</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43389</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>43391</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>43396</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>43397</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>43402</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>43423</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>43423</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>43423</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>43423</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>43423</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>43423</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>43424</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>43424</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>43425</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>43425</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>43428</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>43428</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>43428</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>43428</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>43428</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>43431</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>43432</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>43432</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         <v>43439</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         <v>43444</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>43444</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15438,7 +15438,7 @@
         <v>43444</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>43446</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>43467</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>43467</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>43468</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>43469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15780,7 +15780,7 @@
         <v>43475</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15837,7 +15837,7 @@
         <v>43490</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15894,7 +15894,7 @@
         <v>43490</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>43490</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16008,7 +16008,7 @@
         <v>43496</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16065,7 +16065,7 @@
         <v>43501</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16122,7 +16122,7 @@
         <v>43501</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16179,7 +16179,7 @@
         <v>43503</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16236,7 +16236,7 @@
         <v>43503</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>43510</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16350,7 +16350,7 @@
         <v>43510</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16407,7 +16407,7 @@
         <v>43521</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16464,7 +16464,7 @@
         <v>43536</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>43552</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16578,7 +16578,7 @@
         <v>43580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>43584</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>43587</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>43598</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>43605</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>43612</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>43612</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>43620</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>43627</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>43629</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>43632</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>43633</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>43634</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         <v>43652</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>43661</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>43661</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>43676</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>43698</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>43699</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43707</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>43707</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>43710</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>43717</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>43717</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>43721</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>43726</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>43733</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>43733</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>43733</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>43733</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>43734</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>43734</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>43756</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>43768</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>43774</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>43777</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>43788</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>43788</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>43788</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>43801</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>43808</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18930,7 +18930,7 @@
         <v>43810</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>43810</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>43811</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19101,7 +19101,7 @@
         <v>43816</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         <v>43817</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19215,7 +19215,7 @@
         <v>43818</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>43832</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>43832</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>43832</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>43833</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>43851</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>43854</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>43902</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>43902</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>43909</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>43948</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>43956</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>43968</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>43976</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>43983</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>43983</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>43992</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20184,7 +20184,7 @@
         <v>43992</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>43998</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>43998</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44000</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20417,7 +20417,7 @@
         <v>44002</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44002</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44022</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44025</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44028</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>44029</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>44033</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20816,7 +20816,7 @@
         <v>44034</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>44047</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>44050</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20987,7 +20987,7 @@
         <v>44050</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21044,7 +21044,7 @@
         <v>44060</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21101,7 +21101,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21158,7 +21158,7 @@
         <v>44068</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21215,7 +21215,7 @@
         <v>44076</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21272,7 +21272,7 @@
         <v>44077</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21329,7 +21329,7 @@
         <v>44077</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44077</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21443,7 +21443,7 @@
         <v>44077</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21500,7 +21500,7 @@
         <v>44096</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>44102</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44105</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44106</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44106</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44106</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44116</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>44120</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>44125</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>44129</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>44129</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44135</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>44140</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44140</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44140</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44146</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44155</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44158</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>44161</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22660,7 +22660,7 @@
         <v>44162</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
         <v>44168</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>44172</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>44173</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
         <v>44173</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>44173</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>44179</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         <v>44179</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23116,7 +23116,7 @@
         <v>44179</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23173,7 +23173,7 @@
         <v>44182</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44186</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44186</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44186</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44208</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44214</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>44225</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>44225</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>44225</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>44229</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>44230</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>44231</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23914,7 +23914,7 @@
         <v>44231</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23971,7 +23971,7 @@
         <v>44243</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24028,7 +24028,7 @@
         <v>44244</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24085,7 +24085,7 @@
         <v>44246</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24142,7 +24142,7 @@
         <v>44251</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>44252</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>44256</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>44257</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24370,7 +24370,7 @@
         <v>44257</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         <v>44267</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44270</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         <v>44271</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24603,7 +24603,7 @@
         <v>44278</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>44278</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24717,7 +24717,7 @@
         <v>44280</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24774,7 +24774,7 @@
         <v>44284</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24831,7 +24831,7 @@
         <v>44294</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>44301</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44305</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44306</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44307</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44309</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>44322</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>44322</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>44323</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>44326</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>44334</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>44337</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>44349</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25582,7 +25582,7 @@
         <v>44351</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25639,7 +25639,7 @@
         <v>44351</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25696,7 +25696,7 @@
         <v>44354</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25753,7 +25753,7 @@
         <v>44357</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25810,7 +25810,7 @@
         <v>44357</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>44369</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>44371</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25981,7 +25981,7 @@
         <v>44379</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         <v>44393</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>44395</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26152,7 +26152,7 @@
         <v>44396</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26209,7 +26209,7 @@
         <v>44398</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26266,7 +26266,7 @@
         <v>44406</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26323,7 +26323,7 @@
         <v>44406</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26380,7 +26380,7 @@
         <v>44419</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26437,7 +26437,7 @@
         <v>44419</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26494,7 +26494,7 @@
         <v>44419</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26551,7 +26551,7 @@
         <v>44456</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26608,7 +26608,7 @@
         <v>44461</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26665,7 +26665,7 @@
         <v>44461</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26722,7 +26722,7 @@
         <v>44477</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44482</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44482</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44484</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44487</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44487</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44487</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>44489</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>44490</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>44491</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>44495</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>44495</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27416,7 +27416,7 @@
         <v>44496</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27478,7 +27478,7 @@
         <v>44496</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27540,7 +27540,7 @@
         <v>44498</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27597,7 +27597,7 @@
         <v>44498</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27654,7 +27654,7 @@
         <v>44498</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27711,7 +27711,7 @@
         <v>44498</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27768,7 +27768,7 @@
         <v>44499</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27825,7 +27825,7 @@
         <v>44502</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>44502</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27944,7 +27944,7 @@
         <v>44504</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28001,7 +28001,7 @@
         <v>44510</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28058,7 +28058,7 @@
         <v>44510</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28115,7 +28115,7 @@
         <v>44510</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>44510</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28229,7 +28229,7 @@
         <v>44515</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28286,7 +28286,7 @@
         <v>44515</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28343,7 +28343,7 @@
         <v>44516</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28400,7 +28400,7 @@
         <v>44524</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>44529</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28514,7 +28514,7 @@
         <v>44531</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28571,7 +28571,7 @@
         <v>44531</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28628,7 +28628,7 @@
         <v>44532</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28685,7 +28685,7 @@
         <v>44538</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28742,7 +28742,7 @@
         <v>44540</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28799,7 +28799,7 @@
         <v>44543</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28856,7 +28856,7 @@
         <v>44544</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28913,7 +28913,7 @@
         <v>44550</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28970,7 +28970,7 @@
         <v>44551</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29027,7 +29027,7 @@
         <v>44552</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29084,7 +29084,7 @@
         <v>44552</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29141,7 +29141,7 @@
         <v>44552</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>44553</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29255,7 +29255,7 @@
         <v>44570</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29312,7 +29312,7 @@
         <v>44578</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29369,7 +29369,7 @@
         <v>44580</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>44593</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>44594</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29540,7 +29540,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>44631</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29711,7 +29711,7 @@
         <v>44637</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>44644</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29830,7 +29830,7 @@
         <v>44690</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>44698</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29944,7 +29944,7 @@
         <v>44700</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30001,7 +30001,7 @@
         <v>44700</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30058,7 +30058,7 @@
         <v>44706</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         <v>44713</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30177,7 +30177,7 @@
         <v>44727</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30234,7 +30234,7 @@
         <v>44729</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30291,7 +30291,7 @@
         <v>44729</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30348,7 +30348,7 @@
         <v>44743</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30405,7 +30405,7 @@
         <v>44753</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30467,7 +30467,7 @@
         <v>44753</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30529,7 +30529,7 @@
         <v>44781</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30586,7 +30586,7 @@
         <v>44781</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30643,7 +30643,7 @@
         <v>44783</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30700,7 +30700,7 @@
         <v>44784</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30757,7 +30757,7 @@
         <v>44784</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30814,7 +30814,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30871,7 +30871,7 @@
         <v>44788</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         <v>44788</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30995,7 +30995,7 @@
         <v>44789</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31052,7 +31052,7 @@
         <v>44789</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>44790</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31166,7 +31166,7 @@
         <v>44796</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31223,7 +31223,7 @@
         <v>44803</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31280,7 +31280,7 @@
         <v>44810</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31337,7 +31337,7 @@
         <v>44812</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31394,7 +31394,7 @@
         <v>44818</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31451,7 +31451,7 @@
         <v>44818</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31508,7 +31508,7 @@
         <v>44820</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31570,7 +31570,7 @@
         <v>44825</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         <v>44827</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31684,7 +31684,7 @@
         <v>44827</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31741,7 +31741,7 @@
         <v>44830</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31803,7 +31803,7 @@
         <v>44830</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31865,7 +31865,7 @@
         <v>44833</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31922,7 +31922,7 @@
         <v>44834</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31984,7 +31984,7 @@
         <v>44834</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32041,7 +32041,7 @@
         <v>44834</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32098,7 +32098,7 @@
         <v>44835</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32155,7 +32155,7 @@
         <v>44840</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32212,7 +32212,7 @@
         <v>44841</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32269,7 +32269,7 @@
         <v>44845</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32331,7 +32331,7 @@
         <v>44848</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32388,7 +32388,7 @@
         <v>44851</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32450,7 +32450,7 @@
         <v>44851</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32507,7 +32507,7 @@
         <v>44852</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32569,7 +32569,7 @@
         <v>44855</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         <v>44859</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32683,7 +32683,7 @@
         <v>44859</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32745,7 +32745,7 @@
         <v>44859</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32802,7 +32802,7 @@
         <v>44862</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32859,7 +32859,7 @@
         <v>44874</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32921,7 +32921,7 @@
         <v>44874</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32978,7 +32978,7 @@
         <v>44883</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33040,7 +33040,7 @@
         <v>44886</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>44886</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33164,7 +33164,7 @@
         <v>44889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33221,7 +33221,7 @@
         <v>44889</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33278,7 +33278,7 @@
         <v>44893</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33340,7 +33340,7 @@
         <v>44893</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33397,7 +33397,7 @@
         <v>44894</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33459,7 +33459,7 @@
         <v>44896</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33516,7 +33516,7 @@
         <v>44896</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33573,7 +33573,7 @@
         <v>44896</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33630,7 +33630,7 @@
         <v>44902</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33687,7 +33687,7 @@
         <v>44902</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33744,7 +33744,7 @@
         <v>44903</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33806,7 +33806,7 @@
         <v>44903</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33868,7 +33868,7 @@
         <v>44903</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>44904</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33987,7 +33987,7 @@
         <v>44904</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34044,7 +34044,7 @@
         <v>44904</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         <v>44904</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34158,7 +34158,7 @@
         <v>44904</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34215,7 +34215,7 @@
         <v>44905</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34272,7 +34272,7 @@
         <v>44908</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34329,7 +34329,7 @@
         <v>44908</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         <v>44908</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34443,7 +34443,7 @@
         <v>44908</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34500,7 +34500,7 @@
         <v>44908</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34557,7 +34557,7 @@
         <v>44909</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34614,7 +34614,7 @@
         <v>44910</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34671,7 +34671,7 @@
         <v>44917</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34728,7 +34728,7 @@
         <v>44917</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34785,7 +34785,7 @@
         <v>44917</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34842,7 +34842,7 @@
         <v>44917</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34899,7 +34899,7 @@
         <v>44924</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34956,7 +34956,7 @@
         <v>44924</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35018,7 +35018,7 @@
         <v>44924</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35075,7 +35075,7 @@
         <v>44928</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35132,7 +35132,7 @@
         <v>44930</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35189,7 +35189,7 @@
         <v>44931</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35251,7 +35251,7 @@
         <v>44936</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35308,7 +35308,7 @@
         <v>44938</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35365,7 +35365,7 @@
         <v>44942</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35422,7 +35422,7 @@
         <v>44946</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35479,7 +35479,7 @@
         <v>44946</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35536,7 +35536,7 @@
         <v>44946</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35593,7 +35593,7 @@
         <v>44946</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35650,7 +35650,7 @@
         <v>44958</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35707,7 +35707,7 @@
         <v>44958</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35764,7 +35764,7 @@
         <v>44958</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35821,7 +35821,7 @@
         <v>44960</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35878,7 +35878,7 @@
         <v>44966</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35935,7 +35935,7 @@
         <v>44967</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35992,7 +35992,7 @@
         <v>44967</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36049,7 +36049,7 @@
         <v>44970</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36106,7 +36106,7 @@
         <v>44970</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         <v>44977</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36225,7 +36225,7 @@
         <v>44980</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36282,7 +36282,7 @@
         <v>44994</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>44998</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>44998</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>44998</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36515,7 +36515,7 @@
         <v>44998</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36572,7 +36572,7 @@
         <v>44998</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36629,7 +36629,7 @@
         <v>44998</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36686,7 +36686,7 @@
         <v>44998</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36743,7 +36743,7 @@
         <v>45000</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36805,7 +36805,7 @@
         <v>45000</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36862,7 +36862,7 @@
         <v>45000</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36924,7 +36924,7 @@
         <v>45006</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>45006</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>45006</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>45013</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>45022</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>45022</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37271,7 +37271,7 @@
         <v>45034</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37328,7 +37328,7 @@
         <v>45037</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37385,7 +37385,7 @@
         <v>45040</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37442,7 +37442,7 @@
         <v>45041</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37499,7 +37499,7 @@
         <v>45051</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37556,7 +37556,7 @@
         <v>45051</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37613,7 +37613,7 @@
         <v>45056</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37670,7 +37670,7 @@
         <v>45075</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>45085</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37784,7 +37784,7 @@
         <v>45086</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37841,7 +37841,7 @@
         <v>45086</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37898,7 +37898,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>45098</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38012,7 +38012,7 @@
         <v>45098</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38069,7 +38069,7 @@
         <v>45098</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38126,7 +38126,7 @@
         <v>45098</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38183,7 +38183,7 @@
         <v>45098</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>45098</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38297,7 +38297,7 @@
         <v>45099</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38354,7 +38354,7 @@
         <v>45120</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38411,7 +38411,7 @@
         <v>45126</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38473,7 +38473,7 @@
         <v>45126</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38535,7 +38535,7 @@
         <v>45126</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>45127</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38654,7 +38654,7 @@
         <v>45150</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38711,7 +38711,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38768,7 +38768,7 @@
         <v>45159</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38825,7 +38825,7 @@
         <v>45159</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38882,7 +38882,7 @@
         <v>45159</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38939,7 +38939,7 @@
         <v>45169</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>

--- a/Översikt ÅRE.xlsx
+++ b/Översikt ÅRE.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>44116</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
         <v>44984</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44244</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>44301</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44998</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43543</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44162</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>44278</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>43794</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>44761</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>44984</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44515</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>44887</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>44002</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>44278</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>44487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43783</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>44316</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>44049</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>44259</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44750</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>43391</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43469</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44316</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>44510</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>44984</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>44122</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44231</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>44306</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>44370</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>44977</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44034</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>44165</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>44278</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>44733</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>44894</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44946</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43605</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>44077</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>44145</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44271</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>44278</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>44487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>44495</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>44700</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>44882</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>44977</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>43643</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43657</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43844</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43916</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>44090</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>44193</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>44231</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>44309</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>44316</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44575</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>44637</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>44002</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44127</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>44130</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>44155</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>44259</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>44278</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>44334</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>44547</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>44637</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>44862</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>44889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>44900</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44904</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>44977</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>44977</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>44984</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>45055</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>45072</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7796,7 +7796,7 @@
         <v>45072</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>45082</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>43522</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>43661</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>43718</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44018</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>44046</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44119</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>44229</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>44334</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>44446</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>44512</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>44512</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>44701</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>44712</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44716</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>44716</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>44781</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>44893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>44946</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>44957</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>44964</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>44964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>44970</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>45072</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>45091</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43314</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>43431</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>43749</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>43774</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44002</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>44090</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44116</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44117</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>44124</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44173</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44173</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>44265</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>44265</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44271</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44306</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44334</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44395</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44477</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11769,7 +11769,7 @@
         <v>44487</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>44487</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>44487</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>44502</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>44509</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44559</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>44637</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44680</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44690</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44781</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         <v>44888</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>44893</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>44904</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>44904</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>44911</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13059,7 +13059,7 @@
         <v>44957</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>44984</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>45006</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>43328</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>43353</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>43355</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>43355</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>43357</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>43368</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>43369</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>43375</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>43383</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>43384</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43388</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43389</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>43391</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>43396</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>43397</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>43402</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>43423</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>43423</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>43423</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>43423</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>43423</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>43423</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>43424</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>43424</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>43425</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>43425</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>43428</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>43428</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>43428</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>43428</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>43428</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>43431</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>43432</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>43432</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         <v>43439</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         <v>43444</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>43444</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15438,7 +15438,7 @@
         <v>43444</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>43446</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>43467</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>43467</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>43468</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>43469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15780,7 +15780,7 @@
         <v>43475</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15837,7 +15837,7 @@
         <v>43490</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15894,7 +15894,7 @@
         <v>43490</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>43490</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16008,7 +16008,7 @@
         <v>43496</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16065,7 +16065,7 @@
         <v>43501</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16122,7 +16122,7 @@
         <v>43501</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16179,7 +16179,7 @@
         <v>43503</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16236,7 +16236,7 @@
         <v>43503</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>43510</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16350,7 +16350,7 @@
         <v>43510</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16407,7 +16407,7 @@
         <v>43521</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16464,7 +16464,7 @@
         <v>43536</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>43552</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16578,7 +16578,7 @@
         <v>43580</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>43584</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>43587</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>43598</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>43605</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>43612</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>43612</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>43620</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>43627</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>43629</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>43632</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>43633</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>43634</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         <v>43652</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>43661</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>43661</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>43676</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>43698</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>43699</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>43707</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>43707</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>43710</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>43717</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>43717</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>43721</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>43726</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>43733</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>43733</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>43733</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>43733</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>43734</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>43734</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>43756</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>43768</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>43774</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>43777</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>43788</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>43788</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>43788</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>43801</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>43808</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18930,7 +18930,7 @@
         <v>43810</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>43810</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>43811</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19101,7 +19101,7 @@
         <v>43816</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         <v>43817</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19215,7 +19215,7 @@
         <v>43818</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>43832</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>43832</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>43832</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>43833</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>43851</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>43854</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>43902</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>43902</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>43909</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>43948</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>43956</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>43968</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>43976</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>43983</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>43983</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>43992</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20184,7 +20184,7 @@
         <v>43992</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>43998</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>43998</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44000</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20417,7 +20417,7 @@
         <v>44002</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44002</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44022</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44025</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44028</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>44029</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>44033</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20816,7 +20816,7 @@
         <v>44034</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>44047</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>44050</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20987,7 +20987,7 @@
         <v>44050</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21044,7 +21044,7 @@
         <v>44060</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21101,7 +21101,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21158,7 +21158,7 @@
         <v>44068</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21215,7 +21215,7 @@
         <v>44076</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21272,7 +21272,7 @@
         <v>44077</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21329,7 +21329,7 @@
         <v>44077</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44077</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21443,7 +21443,7 @@
         <v>44077</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21500,7 +21500,7 @@
         <v>44096</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>44102</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44105</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44106</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44106</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44106</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44116</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>44120</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>44125</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>44129</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>44129</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44135</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>44140</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44140</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44140</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44146</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44151</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44155</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44158</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>44161</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22660,7 +22660,7 @@
         <v>44162</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
         <v>44168</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>44172</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>44173</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
         <v>44173</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>44173</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>44179</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         <v>44179</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23116,7 +23116,7 @@
         <v>44179</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23173,7 +23173,7 @@
         <v>44182</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44186</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44186</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44186</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44208</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44214</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>44225</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>44225</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>44225</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>44229</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>44230</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>44231</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23914,7 +23914,7 @@
         <v>44231</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23971,7 +23971,7 @@
         <v>44243</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24028,7 +24028,7 @@
         <v>44244</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24085,7 +24085,7 @@
         <v>44246</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24142,7 +24142,7 @@
         <v>44251</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>44252</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>44256</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>44257</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24370,7 +24370,7 @@
         <v>44257</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         <v>44267</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44270</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         <v>44271</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24603,7 +24603,7 @@
         <v>44278</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>44278</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24717,7 +24717,7 @@
         <v>44280</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24774,7 +24774,7 @@
         <v>44284</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24831,7 +24831,7 @@
         <v>44294</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>44301</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44305</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44306</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44307</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44309</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>44322</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>44322</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>44323</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>44326</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>44334</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>44337</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>44349</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25582,7 +25582,7 @@
         <v>44351</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25639,7 +25639,7 @@
         <v>44351</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25696,7 +25696,7 @@
         <v>44354</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25753,7 +25753,7 @@
         <v>44357</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25810,7 +25810,7 @@
         <v>44357</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>44369</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>44371</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25981,7 +25981,7 @@
         <v>44379</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         <v>44393</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26095,7 +26095,7 @@
         <v>44395</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26152,7 +26152,7 @@
         <v>44396</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26209,7 +26209,7 @@
         <v>44398</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26266,7 +26266,7 @@
         <v>44406</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26323,7 +26323,7 @@
         <v>44406</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26380,7 +26380,7 @@
         <v>44419</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26437,7 +26437,7 @@
         <v>44419</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26494,7 +26494,7 @@
         <v>44419</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26551,7 +26551,7 @@
         <v>44456</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26608,7 +26608,7 @@
         <v>44461</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26665,7 +26665,7 @@
         <v>44461</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26722,7 +26722,7 @@
         <v>44477</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44482</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44482</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44484</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44487</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44487</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44487</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>44489</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>44490</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>44491</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>44495</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>44495</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27416,7 +27416,7 @@
         <v>44496</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27478,7 +27478,7 @@
         <v>44496</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27540,7 +27540,7 @@
         <v>44498</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27597,7 +27597,7 @@
         <v>44498</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27654,7 +27654,7 @@
         <v>44498</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27711,7 +27711,7 @@
         <v>44498</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27768,7 +27768,7 @@
         <v>44499</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27825,7 +27825,7 @@
         <v>44502</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>44502</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27944,7 +27944,7 @@
         <v>44504</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28001,7 +28001,7 @@
         <v>44510</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28058,7 +28058,7 @@
         <v>44510</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28115,7 +28115,7 @@
         <v>44510</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>44510</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28229,7 +28229,7 @@
         <v>44515</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28286,7 +28286,7 @@
         <v>44515</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28343,7 +28343,7 @@
         <v>44516</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28400,7 +28400,7 @@
         <v>44524</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>44529</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28514,7 +28514,7 @@
         <v>44531</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28571,7 +28571,7 @@
         <v>44531</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28628,7 +28628,7 @@
         <v>44532</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28685,7 +28685,7 @@
         <v>44538</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28742,7 +28742,7 @@
         <v>44540</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28799,7 +28799,7 @@
         <v>44543</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28856,7 +28856,7 @@
         <v>44544</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28913,7 +28913,7 @@
         <v>44550</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28970,7 +28970,7 @@
         <v>44551</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29027,7 +29027,7 @@
         <v>44552</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29084,7 +29084,7 @@
         <v>44552</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29141,7 +29141,7 @@
         <v>44552</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>44553</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29255,7 +29255,7 @@
         <v>44570</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29312,7 +29312,7 @@
         <v>44578</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29369,7 +29369,7 @@
         <v>44580</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>44593</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>44594</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29540,7 +29540,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>44631</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29711,7 +29711,7 @@
         <v>44637</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>44644</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29830,7 +29830,7 @@
         <v>44690</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>44698</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29944,7 +29944,7 @@
         <v>44700</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30001,7 +30001,7 @@
         <v>44700</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30058,7 +30058,7 @@
         <v>44706</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         <v>44713</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30177,7 +30177,7 @@
         <v>44727</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30234,7 +30234,7 @@
         <v>44729</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30291,7 +30291,7 @@
         <v>44729</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30348,7 +30348,7 @@
         <v>44743</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30405,7 +30405,7 @@
         <v>44753</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30467,7 +30467,7 @@
         <v>44753</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30529,7 +30529,7 @@
         <v>44781</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30586,7 +30586,7 @@
         <v>44781</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30643,7 +30643,7 @@
         <v>44783</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30700,7 +30700,7 @@
         <v>44784</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30757,7 +30757,7 @@
         <v>44784</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30814,7 +30814,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30871,7 +30871,7 @@
         <v>44788</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         <v>44788</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30995,7 +30995,7 @@
         <v>44789</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31052,7 +31052,7 @@
         <v>44789</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>44790</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31166,7 +31166,7 @@
         <v>44796</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31223,7 +31223,7 @@
         <v>44803</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31280,7 +31280,7 @@
         <v>44810</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31337,7 +31337,7 @@
         <v>44812</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31394,7 +31394,7 @@
         <v>44818</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31451,7 +31451,7 @@
         <v>44818</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31508,7 +31508,7 @@
         <v>44820</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31570,7 +31570,7 @@
         <v>44825</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         <v>44827</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31684,7 +31684,7 @@
         <v>44827</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31741,7 +31741,7 @@
         <v>44830</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31803,7 +31803,7 @@
         <v>44830</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31865,7 +31865,7 @@
         <v>44833</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31922,7 +31922,7 @@
         <v>44834</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31984,7 +31984,7 @@
         <v>44834</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32041,7 +32041,7 @@
         <v>44834</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32098,7 +32098,7 @@
         <v>44835</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32155,7 +32155,7 @@
         <v>44840</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32212,7 +32212,7 @@
         <v>44841</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32269,7 +32269,7 @@
         <v>44845</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32331,7 +32331,7 @@
         <v>44848</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32388,7 +32388,7 @@
         <v>44851</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32450,7 +32450,7 @@
         <v>44851</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32507,7 +32507,7 @@
         <v>44852</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32569,7 +32569,7 @@
         <v>44855</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         <v>44859</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32683,7 +32683,7 @@
         <v>44859</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32745,7 +32745,7 @@
         <v>44859</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32802,7 +32802,7 @@
         <v>44862</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32859,7 +32859,7 @@
         <v>44874</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32921,7 +32921,7 @@
         <v>44874</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32978,7 +32978,7 @@
         <v>44883</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33040,7 +33040,7 @@
         <v>44886</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>44886</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33164,7 +33164,7 @@
         <v>44889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33221,7 +33221,7 @@
         <v>44889</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33278,7 +33278,7 @@
         <v>44893</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33340,7 +33340,7 @@
         <v>44893</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33397,7 +33397,7 @@
         <v>44894</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33459,7 +33459,7 @@
         <v>44896</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33516,7 +33516,7 @@
         <v>44896</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33573,7 +33573,7 @@
         <v>44896</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33630,7 +33630,7 @@
         <v>44902</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33687,7 +33687,7 @@
         <v>44902</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33744,7 +33744,7 @@
         <v>44903</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33806,7 +33806,7 @@
         <v>44903</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33868,7 +33868,7 @@
         <v>44903</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>44904</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33987,7 +33987,7 @@
         <v>44904</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34044,7 +34044,7 @@
         <v>44904</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         <v>44904</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34158,7 +34158,7 @@
         <v>44904</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34215,7 +34215,7 @@
         <v>44905</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34272,7 +34272,7 @@
         <v>44908</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34329,7 +34329,7 @@
         <v>44908</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         <v>44908</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34443,7 +34443,7 @@
         <v>44908</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34500,7 +34500,7 @@
         <v>44908</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34557,7 +34557,7 @@
         <v>44909</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34614,7 +34614,7 @@
         <v>44910</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34671,7 +34671,7 @@
         <v>44917</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34728,7 +34728,7 @@
         <v>44917</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34785,7 +34785,7 @@
         <v>44917</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34842,7 +34842,7 @@
         <v>44917</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34899,7 +34899,7 @@
         <v>44924</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34956,7 +34956,7 @@
         <v>44924</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35018,7 +35018,7 @@
         <v>44924</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35075,7 +35075,7 @@
         <v>44928</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35132,7 +35132,7 @@
         <v>44930</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35189,7 +35189,7 @@
         <v>44931</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35251,7 +35251,7 @@
         <v>44936</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35308,7 +35308,7 @@
         <v>44938</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35365,7 +35365,7 @@
         <v>44942</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35422,7 +35422,7 @@
         <v>44946</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35479,7 +35479,7 @@
         <v>44946</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35536,7 +35536,7 @@
         <v>44946</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35593,7 +35593,7 @@
         <v>44946</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35650,7 +35650,7 @@
         <v>44958</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35707,7 +35707,7 @@
         <v>44958</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35764,7 +35764,7 @@
         <v>44958</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35821,7 +35821,7 @@
         <v>44960</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35878,7 +35878,7 @@
         <v>44966</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35935,7 +35935,7 @@
         <v>44967</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35992,7 +35992,7 @@
         <v>44967</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36049,7 +36049,7 @@
         <v>44970</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36106,7 +36106,7 @@
         <v>44970</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         <v>44977</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36225,7 +36225,7 @@
         <v>44980</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36282,7 +36282,7 @@
         <v>44994</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>44998</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>44998</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>44998</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36515,7 +36515,7 @@
         <v>44998</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36572,7 +36572,7 @@
         <v>44998</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36629,7 +36629,7 @@
         <v>44998</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36686,7 +36686,7 @@
         <v>44998</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36743,7 +36743,7 @@
         <v>45000</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36805,7 +36805,7 @@
         <v>45000</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36862,7 +36862,7 @@
         <v>45000</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36924,7 +36924,7 @@
         <v>45006</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>45006</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>45006</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>45013</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>45022</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>45022</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37271,7 +37271,7 @@
         <v>45034</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37328,7 +37328,7 @@
         <v>45037</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37385,7 +37385,7 @@
         <v>45040</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37442,7 +37442,7 @@
         <v>45041</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37499,7 +37499,7 @@
         <v>45051</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37556,7 +37556,7 @@
         <v>45051</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37613,7 +37613,7 @@
         <v>45056</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37670,7 +37670,7 @@
         <v>45075</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>45085</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37784,7 +37784,7 @@
         <v>45086</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37841,7 +37841,7 @@
         <v>45086</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37898,7 +37898,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>45098</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38012,7 +38012,7 @@
         <v>45098</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38069,7 +38069,7 @@
         <v>45098</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38126,7 +38126,7 @@
         <v>45098</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38183,7 +38183,7 @@
         <v>45098</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>45098</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38297,7 +38297,7 @@
         <v>45099</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38354,7 +38354,7 @@
         <v>45120</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38411,7 +38411,7 @@
         <v>45126</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38473,7 +38473,7 @@
         <v>45126</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38535,7 +38535,7 @@
         <v>45126</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38597,7 +38597,7 @@
         <v>45127</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38654,7 +38654,7 @@
         <v>45150</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38711,7 +38711,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38768,7 +38768,7 @@
         <v>45159</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38825,7 +38825,7 @@
         <v>45159</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38882,7 +38882,7 @@
         <v>45159</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38939,7 +38939,7 @@
         <v>45169</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>

--- a/Översikt ÅRE.xlsx
+++ b/Översikt ÅRE.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>44162</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>44116</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>44984</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44301</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44998</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44162</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44278</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43794</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44761</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>44984</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44515</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44887</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44002</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>44278</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>44487</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44316</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>44049</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44259</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>44750</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43391</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44316</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44510</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>44984</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>44122</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>44231</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44306</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44370</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>44977</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>44034</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44165</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>44278</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>44733</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>44894</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>44946</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43605</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44077</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>44271</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44278</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>44495</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>44700</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>44882</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44977</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43643</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43657</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43844</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43916</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>44090</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>44193</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44231</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>44309</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>44316</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>44575</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44637</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>44002</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>44127</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44130</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>44155</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>44259</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44278</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44334</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>44547</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44637</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>44862</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>44900</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>44904</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>44977</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>44977</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44984</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>45055</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>45072</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>45072</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>45082</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43522</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8163,7 +8163,7 @@
         <v>43661</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43718</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>44018</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44046</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>44119</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44229</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44334</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44446</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44512</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>44701</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44712</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>44716</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>44716</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>44781</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>44893</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44946</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>44957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44957</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>44964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>44964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>44970</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>45072</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>45091</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43314</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>43431</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43749</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43774</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44002</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44090</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44116</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44117</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44124</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         <v>44173</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44173</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44265</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44265</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44271</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>44306</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>44334</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44395</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44477</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44487</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44487</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44487</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44502</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>44509</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44559</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>44637</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>44680</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>44690</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44781</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44888</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>44893</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44904</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12991,7 +12991,7 @@
         <v>44904</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44911</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44957</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>44984</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>45006</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13421,7 +13421,7 @@
         <v>43328</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>43353</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43355</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>43355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>43357</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         <v>43368</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         <v>43369</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>43375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>43383</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>43384</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>43388</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         <v>43389</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>43391</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>43396</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>43397</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43402</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43423</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>43423</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>43423</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>43423</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>43423</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14633,7 +14633,7 @@
         <v>43423</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>43424</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>43424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>43425</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>43425</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>43428</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>43428</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>43428</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>43428</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>43428</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>43431</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>43432</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>43432</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>43439</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>43444</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>43444</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>43444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>43446</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>43467</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>43467</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>43468</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>43469</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>43475</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>43490</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>43490</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>43490</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>43496</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>43501</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>43501</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>43503</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>43503</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>43510</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>43510</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>43521</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>43536</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>43552</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>43580</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>43584</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>43587</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>43598</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>43605</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>43612</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>43612</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>43620</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>43627</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>43629</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>43632</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>43633</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17369,7 +17369,7 @@
         <v>43634</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         <v>43652</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17483,7 +17483,7 @@
         <v>43661</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17540,7 +17540,7 @@
         <v>43661</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>43676</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>43698</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>43699</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>43707</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>43707</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>43710</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>43717</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>43717</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>43721</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>43726</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>43733</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>43733</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>43733</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>43733</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>43734</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>43734</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>43756</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>43768</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>43774</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>43777</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>43788</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>43788</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>43788</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>43801</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>43808</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>43810</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>43810</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>43811</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43816</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>43817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>43832</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>43832</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>43832</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>43833</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>43851</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>43854</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>43902</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>43902</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>43909</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>43948</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>43956</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>43968</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>43976</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>43983</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>43983</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>43992</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>43992</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>43998</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>43998</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>44000</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>44002</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>44002</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44022</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>44025</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         <v>44028</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44029</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44033</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44034</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44047</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44050</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44050</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44077</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44077</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>44077</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44077</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44096</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44102</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>44106</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>44106</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>44106</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>44116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>44120</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22068,7 +22068,7 @@
         <v>44125</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22130,7 +22130,7 @@
         <v>44129</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22187,7 +22187,7 @@
         <v>44129</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22244,7 +22244,7 @@
         <v>44135</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22301,7 +22301,7 @@
         <v>44140</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>44140</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>44140</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44155</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44158</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44161</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
         <v>44168</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         <v>44172</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22881,7 +22881,7 @@
         <v>44173</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
         <v>44173</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>44173</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>44179</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>44179</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44179</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44182</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44186</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>44186</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23394,7 +23394,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>44186</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23508,7 +23508,7 @@
         <v>44208</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23565,7 +23565,7 @@
         <v>44214</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23622,7 +23622,7 @@
         <v>44225</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23679,7 +23679,7 @@
         <v>44225</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44225</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23793,7 +23793,7 @@
         <v>44229</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23850,7 +23850,7 @@
         <v>44230</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23907,7 +23907,7 @@
         <v>44231</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>44231</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44243</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>44244</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>44246</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>44251</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24249,7 +24249,7 @@
         <v>44252</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         <v>44256</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>44257</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24420,7 +24420,7 @@
         <v>44257</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24477,7 +24477,7 @@
         <v>44267</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24534,7 +24534,7 @@
         <v>44270</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24596,7 +24596,7 @@
         <v>44271</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>44278</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>44278</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>44280</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44284</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44294</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44301</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>44305</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25062,7 +25062,7 @@
         <v>44306</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25119,7 +25119,7 @@
         <v>44307</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25176,7 +25176,7 @@
         <v>44309</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25233,7 +25233,7 @@
         <v>44322</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25290,7 +25290,7 @@
         <v>44322</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25347,7 +25347,7 @@
         <v>44323</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25404,7 +25404,7 @@
         <v>44326</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         <v>44334</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25518,7 +25518,7 @@
         <v>44337</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25575,7 +25575,7 @@
         <v>44349</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44351</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44351</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         <v>44354</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25803,7 +25803,7 @@
         <v>44357</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25860,7 +25860,7 @@
         <v>44357</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>44369</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44371</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>44379</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>44393</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26145,7 +26145,7 @@
         <v>44395</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26202,7 +26202,7 @@
         <v>44396</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>44398</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26316,7 +26316,7 @@
         <v>44406</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26373,7 +26373,7 @@
         <v>44406</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26430,7 +26430,7 @@
         <v>44419</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26487,7 +26487,7 @@
         <v>44419</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26544,7 +26544,7 @@
         <v>44419</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26601,7 +26601,7 @@
         <v>44456</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26658,7 +26658,7 @@
         <v>44461</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26715,7 +26715,7 @@
         <v>44461</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26772,7 +26772,7 @@
         <v>44477</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26834,7 +26834,7 @@
         <v>44482</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26891,7 +26891,7 @@
         <v>44482</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26948,7 +26948,7 @@
         <v>44484</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27005,7 +27005,7 @@
         <v>44487</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27062,7 +27062,7 @@
         <v>44487</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27119,7 +27119,7 @@
         <v>44487</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>44489</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44490</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>44491</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27352,7 +27352,7 @@
         <v>44495</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27409,7 +27409,7 @@
         <v>44495</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27466,7 +27466,7 @@
         <v>44496</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27528,7 +27528,7 @@
         <v>44496</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27590,7 +27590,7 @@
         <v>44498</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27647,7 +27647,7 @@
         <v>44498</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27704,7 +27704,7 @@
         <v>44498</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27761,7 +27761,7 @@
         <v>44498</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27818,7 +27818,7 @@
         <v>44499</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27875,7 +27875,7 @@
         <v>44502</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27932,7 +27932,7 @@
         <v>44502</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27994,7 +27994,7 @@
         <v>44504</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28051,7 +28051,7 @@
         <v>44510</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>44510</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44510</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
         <v>44510</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28279,7 +28279,7 @@
         <v>44515</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28336,7 +28336,7 @@
         <v>44515</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28393,7 +28393,7 @@
         <v>44516</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28450,7 +28450,7 @@
         <v>44524</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28507,7 +28507,7 @@
         <v>44529</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28564,7 +28564,7 @@
         <v>44531</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>44531</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>44532</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>44538</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28792,7 +28792,7 @@
         <v>44540</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28849,7 +28849,7 @@
         <v>44543</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44544</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         <v>44550</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29020,7 +29020,7 @@
         <v>44551</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29077,7 +29077,7 @@
         <v>44552</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>44552</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>44552</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>44553</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29305,7 +29305,7 @@
         <v>44570</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29362,7 +29362,7 @@
         <v>44578</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29419,7 +29419,7 @@
         <v>44580</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29476,7 +29476,7 @@
         <v>44593</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29533,7 +29533,7 @@
         <v>44594</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29647,7 +29647,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29704,7 +29704,7 @@
         <v>44631</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29761,7 +29761,7 @@
         <v>44637</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29818,7 +29818,7 @@
         <v>44644</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29880,7 +29880,7 @@
         <v>44690</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29937,7 +29937,7 @@
         <v>44698</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29994,7 +29994,7 @@
         <v>44700</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30051,7 +30051,7 @@
         <v>44700</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30108,7 +30108,7 @@
         <v>44706</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30165,7 +30165,7 @@
         <v>44713</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30227,7 +30227,7 @@
         <v>44727</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30284,7 +30284,7 @@
         <v>44729</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30341,7 +30341,7 @@
         <v>44729</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30398,7 +30398,7 @@
         <v>44743</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44753</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>44753</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30579,7 +30579,7 @@
         <v>44781</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30636,7 +30636,7 @@
         <v>44781</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30693,7 +30693,7 @@
         <v>44783</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30750,7 +30750,7 @@
         <v>44784</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30807,7 +30807,7 @@
         <v>44784</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30864,7 +30864,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30921,7 +30921,7 @@
         <v>44788</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30983,7 +30983,7 @@
         <v>44788</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31045,7 +31045,7 @@
         <v>44789</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31102,7 +31102,7 @@
         <v>44789</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31159,7 +31159,7 @@
         <v>44790</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31216,7 +31216,7 @@
         <v>44796</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31273,7 +31273,7 @@
         <v>44803</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31330,7 +31330,7 @@
         <v>44810</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31387,7 +31387,7 @@
         <v>44812</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31444,7 +31444,7 @@
         <v>44818</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31501,7 +31501,7 @@
         <v>44818</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31558,7 +31558,7 @@
         <v>44820</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>44825</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>44827</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>44827</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>44830</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31853,7 +31853,7 @@
         <v>44830</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>44833</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31972,7 +31972,7 @@
         <v>44834</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44834</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44834</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44835</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44840</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44841</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44845</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>44848</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44851</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32500,7 +32500,7 @@
         <v>44851</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32557,7 +32557,7 @@
         <v>44852</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44855</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>44859</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         <v>44859</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32795,7 +32795,7 @@
         <v>44859</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>44862</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>44874</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>44874</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33028,7 +33028,7 @@
         <v>44883</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33090,7 +33090,7 @@
         <v>44886</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>44886</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33214,7 +33214,7 @@
         <v>44889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33271,7 +33271,7 @@
         <v>44889</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33328,7 +33328,7 @@
         <v>44893</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33390,7 +33390,7 @@
         <v>44893</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33447,7 +33447,7 @@
         <v>44894</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33509,7 +33509,7 @@
         <v>44896</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         <v>44896</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>44896</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         <v>44902</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>44902</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>44903</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33856,7 +33856,7 @@
         <v>44903</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33918,7 +33918,7 @@
         <v>44903</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33980,7 +33980,7 @@
         <v>44904</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34037,7 +34037,7 @@
         <v>44904</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34094,7 +34094,7 @@
         <v>44904</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34151,7 +34151,7 @@
         <v>44904</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34208,7 +34208,7 @@
         <v>44904</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>44905</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>44908</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>44908</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>44908</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>44908</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>44908</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34607,7 +34607,7 @@
         <v>44909</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34664,7 +34664,7 @@
         <v>44910</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34721,7 +34721,7 @@
         <v>44917</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34778,7 +34778,7 @@
         <v>44917</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34835,7 +34835,7 @@
         <v>44917</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34892,7 +34892,7 @@
         <v>44917</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34949,7 +34949,7 @@
         <v>44924</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35006,7 +35006,7 @@
         <v>44924</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>44924</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
         <v>44928</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>44930</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35239,7 +35239,7 @@
         <v>44931</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35301,7 +35301,7 @@
         <v>44936</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>44938</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35415,7 +35415,7 @@
         <v>44942</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>44946</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>44946</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>44946</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>44946</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>44958</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>44958</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35814,7 +35814,7 @@
         <v>44958</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35871,7 +35871,7 @@
         <v>44960</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35928,7 +35928,7 @@
         <v>44966</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35985,7 +35985,7 @@
         <v>44967</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>44967</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>44970</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>44970</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36213,7 +36213,7 @@
         <v>44977</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36275,7 +36275,7 @@
         <v>44980</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36332,7 +36332,7 @@
         <v>44994</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36394,7 +36394,7 @@
         <v>44998</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         <v>44998</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36508,7 +36508,7 @@
         <v>44998</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36565,7 +36565,7 @@
         <v>44998</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36622,7 +36622,7 @@
         <v>44998</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36679,7 +36679,7 @@
         <v>44998</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>44998</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36793,7 +36793,7 @@
         <v>45000</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36855,7 +36855,7 @@
         <v>45000</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36912,7 +36912,7 @@
         <v>45000</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36974,7 +36974,7 @@
         <v>45006</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37036,7 +37036,7 @@
         <v>45006</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37093,7 +37093,7 @@
         <v>45006</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37150,7 +37150,7 @@
         <v>45013</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37207,7 +37207,7 @@
         <v>45022</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37264,7 +37264,7 @@
         <v>45022</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37321,7 +37321,7 @@
         <v>45034</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37378,7 +37378,7 @@
         <v>45037</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37435,7 +37435,7 @@
         <v>45040</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37492,7 +37492,7 @@
         <v>45041</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37549,7 +37549,7 @@
         <v>45051</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37606,7 +37606,7 @@
         <v>45051</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37663,7 +37663,7 @@
         <v>45056</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37720,7 +37720,7 @@
         <v>45075</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37777,7 +37777,7 @@
         <v>45085</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37834,7 +37834,7 @@
         <v>45086</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         <v>45086</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37948,7 +37948,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38005,7 +38005,7 @@
         <v>45098</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38062,7 +38062,7 @@
         <v>45098</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38119,7 +38119,7 @@
         <v>45098</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38176,7 +38176,7 @@
         <v>45098</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38233,7 +38233,7 @@
         <v>45098</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38290,7 +38290,7 @@
         <v>45098</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38347,7 +38347,7 @@
         <v>45099</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38404,7 +38404,7 @@
         <v>45120</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38461,7 +38461,7 @@
         <v>45126</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38523,7 +38523,7 @@
         <v>45126</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38585,7 +38585,7 @@
         <v>45126</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>45127</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>45150</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38761,7 +38761,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38818,7 +38818,7 @@
         <v>45159</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38875,7 +38875,7 @@
         <v>45159</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38932,7 +38932,7 @@
         <v>45159</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38989,7 +38989,7 @@
         <v>45169</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>

--- a/Översikt ÅRE.xlsx
+++ b/Översikt ÅRE.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>44162</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>44116</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>44984</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44301</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44998</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44162</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44278</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43794</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44761</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>44984</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44515</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44887</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44002</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>44278</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>44487</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44316</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>44049</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44259</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>44750</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43391</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44316</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44510</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>44984</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>44122</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>44231</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44306</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44370</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>44977</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>44034</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44165</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>44278</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>44733</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>44894</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>44946</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43605</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44077</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>44271</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44278</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>44495</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>44700</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>44882</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44977</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43643</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43657</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43844</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43916</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>44090</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>44193</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44231</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>44309</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>44316</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>44575</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44637</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>44002</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>44127</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44130</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>44155</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>44259</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44278</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44334</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>44547</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44637</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>44862</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>44900</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>44904</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>44977</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>44977</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44984</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>45055</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>45072</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>45072</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>45082</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43522</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8163,7 +8163,7 @@
         <v>43661</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43718</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>44018</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44046</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>44119</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44229</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44334</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44446</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44512</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>44701</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44712</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>44716</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>44716</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>44781</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>44893</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44946</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>44957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44957</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>44964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>44964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>44970</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>45072</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>45091</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43314</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>43431</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43749</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43774</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44002</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44090</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44116</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44117</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44124</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         <v>44173</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44173</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44265</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44265</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44271</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>44306</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>44334</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44395</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44477</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44487</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44487</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44487</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44502</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>44509</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44559</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>44637</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>44680</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>44690</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44781</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44888</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>44893</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44904</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12991,7 +12991,7 @@
         <v>44904</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44911</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44957</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>44984</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>45006</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13421,7 +13421,7 @@
         <v>43328</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>43353</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43355</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>43355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>43357</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         <v>43368</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         <v>43369</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>43375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>43383</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>43384</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>43388</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         <v>43389</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>43391</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>43396</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>43397</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43402</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43423</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>43423</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>43423</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>43423</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>43423</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14633,7 +14633,7 @@
         <v>43423</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>43424</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>43424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>43425</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>43425</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>43428</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>43428</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>43428</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>43428</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>43428</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>43431</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>43432</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>43432</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>43439</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>43444</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>43444</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>43444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>43446</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>43467</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>43467</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>43468</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>43469</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>43475</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>43490</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>43490</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>43490</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>43496</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>43501</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>43501</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>43503</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>43503</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>43510</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>43510</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>43521</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>43536</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>43552</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>43580</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>43584</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>43587</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>43598</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>43605</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>43612</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>43612</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>43620</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>43627</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>43629</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>43632</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>43633</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17369,7 +17369,7 @@
         <v>43634</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         <v>43652</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17483,7 +17483,7 @@
         <v>43661</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17540,7 +17540,7 @@
         <v>43661</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>43676</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>43698</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>43699</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>43707</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>43707</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>43710</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>43717</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>43717</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>43721</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>43726</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>43733</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>43733</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>43733</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>43733</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>43734</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>43734</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>43756</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>43768</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>43774</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>43777</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>43788</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>43788</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>43788</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>43801</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>43808</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>43810</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>43810</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>43811</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43816</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>43817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>43832</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>43832</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>43832</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>43833</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>43851</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>43854</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>43902</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>43902</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>43909</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>43948</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>43956</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>43968</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>43976</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>43983</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>43983</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>43992</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>43992</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>43998</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>43998</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>44000</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>44002</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>44002</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44022</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>44025</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         <v>44028</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44029</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44033</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44034</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44047</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44050</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44050</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44077</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44077</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>44077</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44077</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44096</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44102</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>44106</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>44106</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>44106</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>44116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>44120</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22068,7 +22068,7 @@
         <v>44125</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22130,7 +22130,7 @@
         <v>44129</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22187,7 +22187,7 @@
         <v>44129</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22244,7 +22244,7 @@
         <v>44135</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22301,7 +22301,7 @@
         <v>44140</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>44140</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>44140</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44155</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44158</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44161</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
         <v>44168</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         <v>44172</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22881,7 +22881,7 @@
         <v>44173</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
         <v>44173</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>44173</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>44179</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>44179</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44179</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44182</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44186</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>44186</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23394,7 +23394,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>44186</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23508,7 +23508,7 @@
         <v>44208</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23565,7 +23565,7 @@
         <v>44214</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23622,7 +23622,7 @@
         <v>44225</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23679,7 +23679,7 @@
         <v>44225</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44225</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23793,7 +23793,7 @@
         <v>44229</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23850,7 +23850,7 @@
         <v>44230</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23907,7 +23907,7 @@
         <v>44231</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>44231</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44243</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>44244</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>44246</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>44251</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24249,7 +24249,7 @@
         <v>44252</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         <v>44256</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>44257</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24420,7 +24420,7 @@
         <v>44257</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24477,7 +24477,7 @@
         <v>44267</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24534,7 +24534,7 @@
         <v>44270</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24596,7 +24596,7 @@
         <v>44271</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>44278</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>44278</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>44280</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44284</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44294</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44301</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>44305</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25062,7 +25062,7 @@
         <v>44306</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25119,7 +25119,7 @@
         <v>44307</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25176,7 +25176,7 @@
         <v>44309</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25233,7 +25233,7 @@
         <v>44322</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25290,7 +25290,7 @@
         <v>44322</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25347,7 +25347,7 @@
         <v>44323</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25404,7 +25404,7 @@
         <v>44326</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         <v>44334</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25518,7 +25518,7 @@
         <v>44337</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25575,7 +25575,7 @@
         <v>44349</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44351</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44351</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         <v>44354</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25803,7 +25803,7 @@
         <v>44357</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25860,7 +25860,7 @@
         <v>44357</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>44369</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44371</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>44379</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>44393</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26145,7 +26145,7 @@
         <v>44395</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26202,7 +26202,7 @@
         <v>44396</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>44398</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26316,7 +26316,7 @@
         <v>44406</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26373,7 +26373,7 @@
         <v>44406</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26430,7 +26430,7 @@
         <v>44419</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26487,7 +26487,7 @@
         <v>44419</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26544,7 +26544,7 @@
         <v>44419</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26601,7 +26601,7 @@
         <v>44456</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26658,7 +26658,7 @@
         <v>44461</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26715,7 +26715,7 @@
         <v>44461</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26772,7 +26772,7 @@
         <v>44477</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26834,7 +26834,7 @@
         <v>44482</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26891,7 +26891,7 @@
         <v>44482</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26948,7 +26948,7 @@
         <v>44484</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27005,7 +27005,7 @@
         <v>44487</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27062,7 +27062,7 @@
         <v>44487</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27119,7 +27119,7 @@
         <v>44487</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>44489</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44490</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>44491</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27352,7 +27352,7 @@
         <v>44495</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27409,7 +27409,7 @@
         <v>44495</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27466,7 +27466,7 @@
         <v>44496</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27528,7 +27528,7 @@
         <v>44496</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27590,7 +27590,7 @@
         <v>44498</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27647,7 +27647,7 @@
         <v>44498</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27704,7 +27704,7 @@
         <v>44498</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27761,7 +27761,7 @@
         <v>44498</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27818,7 +27818,7 @@
         <v>44499</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27875,7 +27875,7 @@
         <v>44502</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27932,7 +27932,7 @@
         <v>44502</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27994,7 +27994,7 @@
         <v>44504</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28051,7 +28051,7 @@
         <v>44510</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>44510</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44510</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
         <v>44510</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28279,7 +28279,7 @@
         <v>44515</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28336,7 +28336,7 @@
         <v>44515</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28393,7 +28393,7 @@
         <v>44516</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28450,7 +28450,7 @@
         <v>44524</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28507,7 +28507,7 @@
         <v>44529</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28564,7 +28564,7 @@
         <v>44531</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>44531</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>44532</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>44538</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28792,7 +28792,7 @@
         <v>44540</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28849,7 +28849,7 @@
         <v>44543</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44544</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         <v>44550</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29020,7 +29020,7 @@
         <v>44551</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29077,7 +29077,7 @@
         <v>44552</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>44552</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>44552</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>44553</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29305,7 +29305,7 @@
         <v>44570</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29362,7 +29362,7 @@
         <v>44578</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29419,7 +29419,7 @@
         <v>44580</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29476,7 +29476,7 @@
         <v>44593</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29533,7 +29533,7 @@
         <v>44594</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29647,7 +29647,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29704,7 +29704,7 @@
         <v>44631</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29761,7 +29761,7 @@
         <v>44637</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29818,7 +29818,7 @@
         <v>44644</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29880,7 +29880,7 @@
         <v>44690</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29937,7 +29937,7 @@
         <v>44698</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29994,7 +29994,7 @@
         <v>44700</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30051,7 +30051,7 @@
         <v>44700</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30108,7 +30108,7 @@
         <v>44706</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30165,7 +30165,7 @@
         <v>44713</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30227,7 +30227,7 @@
         <v>44727</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30284,7 +30284,7 @@
         <v>44729</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30341,7 +30341,7 @@
         <v>44729</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30398,7 +30398,7 @@
         <v>44743</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44753</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>44753</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30579,7 +30579,7 @@
         <v>44781</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30636,7 +30636,7 @@
         <v>44781</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30693,7 +30693,7 @@
         <v>44783</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30750,7 +30750,7 @@
         <v>44784</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30807,7 +30807,7 @@
         <v>44784</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30864,7 +30864,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30921,7 +30921,7 @@
         <v>44788</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30983,7 +30983,7 @@
         <v>44788</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31045,7 +31045,7 @@
         <v>44789</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31102,7 +31102,7 @@
         <v>44789</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31159,7 +31159,7 @@
         <v>44790</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31216,7 +31216,7 @@
         <v>44796</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31273,7 +31273,7 @@
         <v>44803</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31330,7 +31330,7 @@
         <v>44810</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31387,7 +31387,7 @@
         <v>44812</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31444,7 +31444,7 @@
         <v>44818</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31501,7 +31501,7 @@
         <v>44818</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31558,7 +31558,7 @@
         <v>44820</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>44825</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>44827</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>44827</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>44830</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31853,7 +31853,7 @@
         <v>44830</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>44833</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31972,7 +31972,7 @@
         <v>44834</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44834</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44834</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44835</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44840</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44841</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44845</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>44848</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44851</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32500,7 +32500,7 @@
         <v>44851</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32557,7 +32557,7 @@
         <v>44852</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44855</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>44859</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         <v>44859</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32795,7 +32795,7 @@
         <v>44859</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>44862</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>44874</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>44874</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33028,7 +33028,7 @@
         <v>44883</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33090,7 +33090,7 @@
         <v>44886</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>44886</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33214,7 +33214,7 @@
         <v>44889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33271,7 +33271,7 @@
         <v>44889</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33328,7 +33328,7 @@
         <v>44893</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33390,7 +33390,7 @@
         <v>44893</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33447,7 +33447,7 @@
         <v>44894</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33509,7 +33509,7 @@
         <v>44896</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         <v>44896</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>44896</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         <v>44902</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>44902</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>44903</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33856,7 +33856,7 @@
         <v>44903</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33918,7 +33918,7 @@
         <v>44903</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33980,7 +33980,7 @@
         <v>44904</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34037,7 +34037,7 @@
         <v>44904</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34094,7 +34094,7 @@
         <v>44904</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34151,7 +34151,7 @@
         <v>44904</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34208,7 +34208,7 @@
         <v>44904</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>44905</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>44908</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>44908</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>44908</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>44908</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>44908</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34607,7 +34607,7 @@
         <v>44909</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34664,7 +34664,7 @@
         <v>44910</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34721,7 +34721,7 @@
         <v>44917</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34778,7 +34778,7 @@
         <v>44917</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34835,7 +34835,7 @@
         <v>44917</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34892,7 +34892,7 @@
         <v>44917</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34949,7 +34949,7 @@
         <v>44924</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35006,7 +35006,7 @@
         <v>44924</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>44924</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
         <v>44928</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>44930</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35239,7 +35239,7 @@
         <v>44931</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35301,7 +35301,7 @@
         <v>44936</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>44938</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35415,7 +35415,7 @@
         <v>44942</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>44946</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>44946</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>44946</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>44946</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>44958</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>44958</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35814,7 +35814,7 @@
         <v>44958</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35871,7 +35871,7 @@
         <v>44960</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35928,7 +35928,7 @@
         <v>44966</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35985,7 +35985,7 @@
         <v>44967</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>44967</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>44970</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>44970</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36213,7 +36213,7 @@
         <v>44977</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36275,7 +36275,7 @@
         <v>44980</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36332,7 +36332,7 @@
         <v>44994</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36394,7 +36394,7 @@
         <v>44998</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         <v>44998</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36508,7 +36508,7 @@
         <v>44998</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36565,7 +36565,7 @@
         <v>44998</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36622,7 +36622,7 @@
         <v>44998</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36679,7 +36679,7 @@
         <v>44998</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>44998</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36793,7 +36793,7 @@
         <v>45000</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36855,7 +36855,7 @@
         <v>45000</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36912,7 +36912,7 @@
         <v>45000</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36974,7 +36974,7 @@
         <v>45006</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37036,7 +37036,7 @@
         <v>45006</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37093,7 +37093,7 @@
         <v>45006</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37150,7 +37150,7 @@
         <v>45013</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37207,7 +37207,7 @@
         <v>45022</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37264,7 +37264,7 @@
         <v>45022</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37321,7 +37321,7 @@
         <v>45034</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37378,7 +37378,7 @@
         <v>45037</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37435,7 +37435,7 @@
         <v>45040</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37492,7 +37492,7 @@
         <v>45041</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37549,7 +37549,7 @@
         <v>45051</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37606,7 +37606,7 @@
         <v>45051</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37663,7 +37663,7 @@
         <v>45056</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37720,7 +37720,7 @@
         <v>45075</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37777,7 +37777,7 @@
         <v>45085</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37834,7 +37834,7 @@
         <v>45086</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         <v>45086</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37948,7 +37948,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38005,7 +38005,7 @@
         <v>45098</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38062,7 +38062,7 @@
         <v>45098</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38119,7 +38119,7 @@
         <v>45098</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38176,7 +38176,7 @@
         <v>45098</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38233,7 +38233,7 @@
         <v>45098</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38290,7 +38290,7 @@
         <v>45098</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38347,7 +38347,7 @@
         <v>45099</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38404,7 +38404,7 @@
         <v>45120</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38461,7 +38461,7 @@
         <v>45126</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38523,7 +38523,7 @@
         <v>45126</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38585,7 +38585,7 @@
         <v>45126</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>45127</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>45150</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38761,7 +38761,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38818,7 +38818,7 @@
         <v>45159</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38875,7 +38875,7 @@
         <v>45159</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38932,7 +38932,7 @@
         <v>45159</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38989,7 +38989,7 @@
         <v>45169</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>

--- a/Översikt ÅRE.xlsx
+++ b/Översikt ÅRE.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>44162</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>44116</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>44984</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44301</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44998</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44162</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44278</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43794</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44761</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>44984</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44515</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44887</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44002</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>44278</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>44487</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44316</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>44049</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44259</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>44750</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43391</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44316</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44510</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>44984</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>44122</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>44231</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44306</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44370</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>44977</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>44034</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44165</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>44278</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>44733</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>44894</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>44946</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43605</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44077</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>44271</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44278</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>44495</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>44700</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>44882</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44977</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43643</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43657</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43844</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43916</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>44090</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>44193</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44231</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>44309</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>44316</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>44575</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44637</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>44002</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>44127</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44130</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>44155</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>44259</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44278</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44334</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>44547</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44637</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>44862</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>44900</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>44904</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>44977</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>44977</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44984</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>45055</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>45072</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>45072</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>45082</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43522</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8163,7 +8163,7 @@
         <v>43661</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43718</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>44018</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44046</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>44119</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44229</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44334</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44446</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44512</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>44701</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44712</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>44716</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>44716</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>44781</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>44893</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44946</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>44957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44957</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>44964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>44964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>44970</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>45072</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>45091</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43314</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>43431</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43749</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43774</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44002</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44090</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44116</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44117</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44124</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         <v>44173</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44173</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44265</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44265</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44271</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>44306</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>44334</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44395</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44477</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44487</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44487</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44487</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44502</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>44509</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44559</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>44637</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>44680</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>44690</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44781</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44888</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>44893</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44904</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12991,7 +12991,7 @@
         <v>44904</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44911</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44957</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>44984</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>45006</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13421,7 +13421,7 @@
         <v>43328</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>43353</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43355</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>43355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>43357</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         <v>43368</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         <v>43369</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>43375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>43383</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>43384</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>43388</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         <v>43389</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>43391</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>43396</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>43397</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43402</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43423</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>43423</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>43423</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>43423</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>43423</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14633,7 +14633,7 @@
         <v>43423</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>43424</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>43424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>43425</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>43425</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>43428</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>43428</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>43428</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>43428</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>43428</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>43431</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>43432</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>43432</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>43439</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>43444</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>43444</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>43444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>43446</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>43467</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>43467</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>43468</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>43469</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>43475</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>43490</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>43490</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>43490</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>43496</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>43501</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>43501</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>43503</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>43503</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>43510</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>43510</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>43521</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>43536</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>43552</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>43580</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>43584</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>43587</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>43598</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>43605</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>43612</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>43612</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>43620</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>43627</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>43629</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>43632</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>43633</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17369,7 +17369,7 @@
         <v>43634</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         <v>43652</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17483,7 +17483,7 @@
         <v>43661</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17540,7 +17540,7 @@
         <v>43661</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>43676</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>43698</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>43699</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>43707</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>43707</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>43710</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>43717</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>43717</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>43721</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>43726</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>43733</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>43733</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>43733</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>43733</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>43734</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>43734</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>43756</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>43768</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>43774</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>43777</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>43788</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>43788</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>43788</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>43801</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>43808</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>43810</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>43810</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>43811</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43816</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>43817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>43832</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>43832</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>43832</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>43833</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>43851</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>43854</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>43902</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>43902</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>43909</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>43948</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>43956</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>43968</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>43976</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>43983</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>43983</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>43992</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>43992</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>43998</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>43998</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>44000</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>44002</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>44002</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44022</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>44025</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         <v>44028</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44029</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44033</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44034</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44047</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44050</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44050</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44077</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44077</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>44077</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44077</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44096</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44102</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>44106</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>44106</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>44106</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>44116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>44120</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22068,7 +22068,7 @@
         <v>44125</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22130,7 +22130,7 @@
         <v>44129</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22187,7 +22187,7 @@
         <v>44129</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22244,7 +22244,7 @@
         <v>44135</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22301,7 +22301,7 @@
         <v>44140</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>44140</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>44140</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44155</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44158</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44161</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
         <v>44168</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         <v>44172</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22881,7 +22881,7 @@
         <v>44173</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
         <v>44173</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>44173</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>44179</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>44179</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44179</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44182</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44186</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>44186</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23394,7 +23394,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>44186</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23508,7 +23508,7 @@
         <v>44208</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23565,7 +23565,7 @@
         <v>44214</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23622,7 +23622,7 @@
         <v>44225</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23679,7 +23679,7 @@
         <v>44225</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44225</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23793,7 +23793,7 @@
         <v>44229</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23850,7 +23850,7 @@
         <v>44230</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23907,7 +23907,7 @@
         <v>44231</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>44231</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44243</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>44244</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>44246</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>44251</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24249,7 +24249,7 @@
         <v>44252</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         <v>44256</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>44257</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24420,7 +24420,7 @@
         <v>44257</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24477,7 +24477,7 @@
         <v>44267</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24534,7 +24534,7 @@
         <v>44270</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24596,7 +24596,7 @@
         <v>44271</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>44278</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>44278</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>44280</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44284</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44294</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44301</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>44305</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25062,7 +25062,7 @@
         <v>44306</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25119,7 +25119,7 @@
         <v>44307</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25176,7 +25176,7 @@
         <v>44309</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25233,7 +25233,7 @@
         <v>44322</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25290,7 +25290,7 @@
         <v>44322</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25347,7 +25347,7 @@
         <v>44323</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25404,7 +25404,7 @@
         <v>44326</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         <v>44334</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25518,7 +25518,7 @@
         <v>44337</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25575,7 +25575,7 @@
         <v>44349</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44351</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44351</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         <v>44354</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25803,7 +25803,7 @@
         <v>44357</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25860,7 +25860,7 @@
         <v>44357</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>44369</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44371</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>44379</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>44393</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26145,7 +26145,7 @@
         <v>44395</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26202,7 +26202,7 @@
         <v>44396</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>44398</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26316,7 +26316,7 @@
         <v>44406</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26373,7 +26373,7 @@
         <v>44406</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26430,7 +26430,7 @@
         <v>44419</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26487,7 +26487,7 @@
         <v>44419</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26544,7 +26544,7 @@
         <v>44419</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26601,7 +26601,7 @@
         <v>44456</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26658,7 +26658,7 @@
         <v>44461</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26715,7 +26715,7 @@
         <v>44461</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26772,7 +26772,7 @@
         <v>44477</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26834,7 +26834,7 @@
         <v>44482</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26891,7 +26891,7 @@
         <v>44482</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26948,7 +26948,7 @@
         <v>44484</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27005,7 +27005,7 @@
         <v>44487</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27062,7 +27062,7 @@
         <v>44487</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27119,7 +27119,7 @@
         <v>44487</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>44489</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44490</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>44491</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27352,7 +27352,7 @@
         <v>44495</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27409,7 +27409,7 @@
         <v>44495</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27466,7 +27466,7 @@
         <v>44496</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27528,7 +27528,7 @@
         <v>44496</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27590,7 +27590,7 @@
         <v>44498</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27647,7 +27647,7 @@
         <v>44498</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27704,7 +27704,7 @@
         <v>44498</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27761,7 +27761,7 @@
         <v>44498</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27818,7 +27818,7 @@
         <v>44499</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27875,7 +27875,7 @@
         <v>44502</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27932,7 +27932,7 @@
         <v>44502</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27994,7 +27994,7 @@
         <v>44504</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28051,7 +28051,7 @@
         <v>44510</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>44510</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44510</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
         <v>44510</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28279,7 +28279,7 @@
         <v>44515</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28336,7 +28336,7 @@
         <v>44515</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28393,7 +28393,7 @@
         <v>44516</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28450,7 +28450,7 @@
         <v>44524</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28507,7 +28507,7 @@
         <v>44529</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28564,7 +28564,7 @@
         <v>44531</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>44531</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>44532</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>44538</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28792,7 +28792,7 @@
         <v>44540</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28849,7 +28849,7 @@
         <v>44543</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44544</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         <v>44550</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29020,7 +29020,7 @@
         <v>44551</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29077,7 +29077,7 @@
         <v>44552</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>44552</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>44552</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>44553</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29305,7 +29305,7 @@
         <v>44570</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29362,7 +29362,7 @@
         <v>44578</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29419,7 +29419,7 @@
         <v>44580</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29476,7 +29476,7 @@
         <v>44593</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29533,7 +29533,7 @@
         <v>44594</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29647,7 +29647,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29704,7 +29704,7 @@
         <v>44631</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29761,7 +29761,7 @@
         <v>44637</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29818,7 +29818,7 @@
         <v>44644</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29880,7 +29880,7 @@
         <v>44690</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29937,7 +29937,7 @@
         <v>44698</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29994,7 +29994,7 @@
         <v>44700</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30051,7 +30051,7 @@
         <v>44700</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30108,7 +30108,7 @@
         <v>44706</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30165,7 +30165,7 @@
         <v>44713</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30227,7 +30227,7 @@
         <v>44727</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30284,7 +30284,7 @@
         <v>44729</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30341,7 +30341,7 @@
         <v>44729</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30398,7 +30398,7 @@
         <v>44743</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44753</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>44753</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30579,7 +30579,7 @@
         <v>44781</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30636,7 +30636,7 @@
         <v>44781</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30693,7 +30693,7 @@
         <v>44783</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30750,7 +30750,7 @@
         <v>44784</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30807,7 +30807,7 @@
         <v>44784</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30864,7 +30864,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30921,7 +30921,7 @@
         <v>44788</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30983,7 +30983,7 @@
         <v>44788</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31045,7 +31045,7 @@
         <v>44789</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31102,7 +31102,7 @@
         <v>44789</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31159,7 +31159,7 @@
         <v>44790</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31216,7 +31216,7 @@
         <v>44796</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31273,7 +31273,7 @@
         <v>44803</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31330,7 +31330,7 @@
         <v>44810</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31387,7 +31387,7 @@
         <v>44812</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31444,7 +31444,7 @@
         <v>44818</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31501,7 +31501,7 @@
         <v>44818</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31558,7 +31558,7 @@
         <v>44820</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>44825</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>44827</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>44827</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>44830</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31853,7 +31853,7 @@
         <v>44830</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>44833</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31972,7 +31972,7 @@
         <v>44834</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44834</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44834</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44835</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44840</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44841</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44845</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>44848</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44851</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32500,7 +32500,7 @@
         <v>44851</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32557,7 +32557,7 @@
         <v>44852</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44855</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>44859</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         <v>44859</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32795,7 +32795,7 @@
         <v>44859</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>44862</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>44874</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>44874</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33028,7 +33028,7 @@
         <v>44883</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33090,7 +33090,7 @@
         <v>44886</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>44886</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33214,7 +33214,7 @@
         <v>44889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33271,7 +33271,7 @@
         <v>44889</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33328,7 +33328,7 @@
         <v>44893</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33390,7 +33390,7 @@
         <v>44893</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33447,7 +33447,7 @@
         <v>44894</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33509,7 +33509,7 @@
         <v>44896</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         <v>44896</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>44896</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         <v>44902</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>44902</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>44903</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33856,7 +33856,7 @@
         <v>44903</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33918,7 +33918,7 @@
         <v>44903</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33980,7 +33980,7 @@
         <v>44904</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34037,7 +34037,7 @@
         <v>44904</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34094,7 +34094,7 @@
         <v>44904</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34151,7 +34151,7 @@
         <v>44904</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34208,7 +34208,7 @@
         <v>44904</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>44905</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>44908</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>44908</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>44908</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>44908</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>44908</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34607,7 +34607,7 @@
         <v>44909</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34664,7 +34664,7 @@
         <v>44910</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34721,7 +34721,7 @@
         <v>44917</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34778,7 +34778,7 @@
         <v>44917</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34835,7 +34835,7 @@
         <v>44917</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34892,7 +34892,7 @@
         <v>44917</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34949,7 +34949,7 @@
         <v>44924</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35006,7 +35006,7 @@
         <v>44924</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>44924</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
         <v>44928</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>44930</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35239,7 +35239,7 @@
         <v>44931</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35301,7 +35301,7 @@
         <v>44936</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>44938</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35415,7 +35415,7 @@
         <v>44942</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>44946</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>44946</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>44946</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>44946</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>44958</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>44958</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35814,7 +35814,7 @@
         <v>44958</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35871,7 +35871,7 @@
         <v>44960</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35928,7 +35928,7 @@
         <v>44966</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35985,7 +35985,7 @@
         <v>44967</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>44967</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>44970</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>44970</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36213,7 +36213,7 @@
         <v>44977</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36275,7 +36275,7 @@
         <v>44980</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36332,7 +36332,7 @@
         <v>44994</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36394,7 +36394,7 @@
         <v>44998</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         <v>44998</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36508,7 +36508,7 @@
         <v>44998</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36565,7 +36565,7 @@
         <v>44998</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36622,7 +36622,7 @@
         <v>44998</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36679,7 +36679,7 @@
         <v>44998</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>44998</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36793,7 +36793,7 @@
         <v>45000</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36855,7 +36855,7 @@
         <v>45000</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36912,7 +36912,7 @@
         <v>45000</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36974,7 +36974,7 @@
         <v>45006</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37036,7 +37036,7 @@
         <v>45006</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37093,7 +37093,7 @@
         <v>45006</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37150,7 +37150,7 @@
         <v>45013</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37207,7 +37207,7 @@
         <v>45022</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37264,7 +37264,7 @@
         <v>45022</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37321,7 +37321,7 @@
         <v>45034</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37378,7 +37378,7 @@
         <v>45037</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37435,7 +37435,7 @@
         <v>45040</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37492,7 +37492,7 @@
         <v>45041</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37549,7 +37549,7 @@
         <v>45051</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37606,7 +37606,7 @@
         <v>45051</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37663,7 +37663,7 @@
         <v>45056</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37720,7 +37720,7 @@
         <v>45075</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37777,7 +37777,7 @@
         <v>45085</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37834,7 +37834,7 @@
         <v>45086</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         <v>45086</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37948,7 +37948,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38005,7 +38005,7 @@
         <v>45098</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38062,7 +38062,7 @@
         <v>45098</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38119,7 +38119,7 @@
         <v>45098</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38176,7 +38176,7 @@
         <v>45098</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38233,7 +38233,7 @@
         <v>45098</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38290,7 +38290,7 @@
         <v>45098</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38347,7 +38347,7 @@
         <v>45099</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38404,7 +38404,7 @@
         <v>45120</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38461,7 +38461,7 @@
         <v>45126</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38523,7 +38523,7 @@
         <v>45126</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38585,7 +38585,7 @@
         <v>45126</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>45127</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>45150</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38761,7 +38761,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38818,7 +38818,7 @@
         <v>45159</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38875,7 +38875,7 @@
         <v>45159</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38932,7 +38932,7 @@
         <v>45159</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38989,7 +38989,7 @@
         <v>45169</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>

--- a/Översikt ÅRE.xlsx
+++ b/Översikt ÅRE.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>44162</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>44116</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>44984</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44301</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44998</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44162</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44278</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43794</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44761</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>44984</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44515</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44887</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44002</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>44278</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>44487</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44316</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>44049</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44259</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>44750</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43391</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44316</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44510</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>44984</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>44122</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>44231</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44306</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44370</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>44977</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>44034</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44165</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>44278</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>44733</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>44894</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>44946</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43605</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44077</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>44271</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44278</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>44495</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>44700</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>44882</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44977</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43643</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43657</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43844</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43916</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>44090</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>44193</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44231</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>44309</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>44316</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>44575</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44637</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>44002</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>44127</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44130</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>44155</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>44259</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44278</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44334</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>44547</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44637</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>44862</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>44900</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>44904</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>44977</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>44977</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44984</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>45055</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>45072</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>45072</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>45082</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43522</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8163,7 +8163,7 @@
         <v>43661</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43718</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>44018</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44046</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>44119</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44229</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44334</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44446</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44512</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>44701</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44712</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>44716</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>44716</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>44781</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>44893</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44946</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>44957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44957</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>44964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>44964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>44970</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>45072</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>45091</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43314</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>43431</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43749</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43774</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44002</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44090</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44116</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44117</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44124</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         <v>44173</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44173</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44265</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44265</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44271</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>44306</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>44334</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44395</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44477</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44487</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44487</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44487</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44502</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>44509</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44559</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>44637</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>44680</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>44690</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44781</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44888</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>44893</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44904</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12991,7 +12991,7 @@
         <v>44904</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44911</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44957</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>44984</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>45006</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13421,7 +13421,7 @@
         <v>43328</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>43353</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43355</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>43355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>43357</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         <v>43368</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         <v>43369</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>43375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>43383</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>43384</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>43388</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         <v>43389</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>43391</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>43396</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>43397</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43402</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43423</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>43423</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>43423</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>43423</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>43423</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14633,7 +14633,7 @@
         <v>43423</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>43424</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>43424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>43425</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>43425</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>43428</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>43428</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>43428</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>43428</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>43428</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>43431</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>43432</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>43432</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>43439</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>43444</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>43444</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>43444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>43446</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>43467</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>43467</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>43468</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>43469</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>43475</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>43490</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>43490</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>43490</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>43496</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>43501</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>43501</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>43503</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>43503</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>43510</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>43510</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>43521</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>43536</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>43552</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>43580</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>43584</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>43587</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>43598</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>43605</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>43612</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>43612</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>43620</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>43627</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>43629</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>43632</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>43633</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17369,7 +17369,7 @@
         <v>43634</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         <v>43652</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17483,7 +17483,7 @@
         <v>43661</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17540,7 +17540,7 @@
         <v>43661</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>43676</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>43698</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>43699</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>43707</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>43707</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>43710</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>43717</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>43717</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>43721</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>43726</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>43733</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>43733</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>43733</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>43733</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>43734</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>43734</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>43756</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>43768</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>43774</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>43777</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>43788</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>43788</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>43788</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>43801</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>43808</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>43810</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>43810</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>43811</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43816</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>43817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>43832</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>43832</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>43832</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>43833</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>43851</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>43854</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>43902</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>43902</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>43909</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>43948</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>43956</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>43968</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>43976</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>43983</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>43983</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>43992</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>43992</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>43998</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>43998</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>44000</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>44002</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>44002</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44022</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>44025</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         <v>44028</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44029</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44033</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44034</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44047</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44050</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44050</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44077</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44077</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>44077</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44077</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44096</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44102</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>44106</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>44106</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>44106</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>44116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>44120</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22068,7 +22068,7 @@
         <v>44125</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22130,7 +22130,7 @@
         <v>44129</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22187,7 +22187,7 @@
         <v>44129</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22244,7 +22244,7 @@
         <v>44135</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22301,7 +22301,7 @@
         <v>44140</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>44140</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>44140</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44155</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44158</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44161</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
         <v>44168</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         <v>44172</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22881,7 +22881,7 @@
         <v>44173</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
         <v>44173</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>44173</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>44179</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>44179</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44179</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44182</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44186</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>44186</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23394,7 +23394,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>44186</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23508,7 +23508,7 @@
         <v>44208</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23565,7 +23565,7 @@
         <v>44214</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23622,7 +23622,7 @@
         <v>44225</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23679,7 +23679,7 @@
         <v>44225</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44225</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23793,7 +23793,7 @@
         <v>44229</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23850,7 +23850,7 @@
         <v>44230</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23907,7 +23907,7 @@
         <v>44231</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>44231</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44243</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>44244</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>44246</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>44251</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24249,7 +24249,7 @@
         <v>44252</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         <v>44256</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>44257</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24420,7 +24420,7 @@
         <v>44257</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24477,7 +24477,7 @@
         <v>44267</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24534,7 +24534,7 @@
         <v>44270</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24596,7 +24596,7 @@
         <v>44271</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>44278</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>44278</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>44280</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44284</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44294</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44301</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>44305</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25062,7 +25062,7 @@
         <v>44306</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25119,7 +25119,7 @@
         <v>44307</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25176,7 +25176,7 @@
         <v>44309</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25233,7 +25233,7 @@
         <v>44322</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25290,7 +25290,7 @@
         <v>44322</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25347,7 +25347,7 @@
         <v>44323</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25404,7 +25404,7 @@
         <v>44326</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         <v>44334</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25518,7 +25518,7 @@
         <v>44337</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25575,7 +25575,7 @@
         <v>44349</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44351</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44351</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         <v>44354</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25803,7 +25803,7 @@
         <v>44357</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25860,7 +25860,7 @@
         <v>44357</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>44369</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44371</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>44379</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>44393</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26145,7 +26145,7 @@
         <v>44395</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26202,7 +26202,7 @@
         <v>44396</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>44398</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26316,7 +26316,7 @@
         <v>44406</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26373,7 +26373,7 @@
         <v>44406</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26430,7 +26430,7 @@
         <v>44419</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26487,7 +26487,7 @@
         <v>44419</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26544,7 +26544,7 @@
         <v>44419</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26601,7 +26601,7 @@
         <v>44456</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26658,7 +26658,7 @@
         <v>44461</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26715,7 +26715,7 @@
         <v>44461</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26772,7 +26772,7 @@
         <v>44477</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26834,7 +26834,7 @@
         <v>44482</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26891,7 +26891,7 @@
         <v>44482</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26948,7 +26948,7 @@
         <v>44484</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27005,7 +27005,7 @@
         <v>44487</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27062,7 +27062,7 @@
         <v>44487</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27119,7 +27119,7 @@
         <v>44487</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>44489</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44490</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>44491</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27352,7 +27352,7 @@
         <v>44495</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27409,7 +27409,7 @@
         <v>44495</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27466,7 +27466,7 @@
         <v>44496</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27528,7 +27528,7 @@
         <v>44496</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27590,7 +27590,7 @@
         <v>44498</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27647,7 +27647,7 @@
         <v>44498</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27704,7 +27704,7 @@
         <v>44498</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27761,7 +27761,7 @@
         <v>44498</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27818,7 +27818,7 @@
         <v>44499</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27875,7 +27875,7 @@
         <v>44502</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27932,7 +27932,7 @@
         <v>44502</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27994,7 +27994,7 @@
         <v>44504</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28051,7 +28051,7 @@
         <v>44510</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>44510</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44510</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
         <v>44510</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28279,7 +28279,7 @@
         <v>44515</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28336,7 +28336,7 @@
         <v>44515</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28393,7 +28393,7 @@
         <v>44516</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28450,7 +28450,7 @@
         <v>44524</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28507,7 +28507,7 @@
         <v>44529</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28564,7 +28564,7 @@
         <v>44531</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>44531</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>44532</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>44538</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28792,7 +28792,7 @@
         <v>44540</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28849,7 +28849,7 @@
         <v>44543</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44544</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         <v>44550</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29020,7 +29020,7 @@
         <v>44551</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29077,7 +29077,7 @@
         <v>44552</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>44552</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>44552</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>44553</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29305,7 +29305,7 @@
         <v>44570</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29362,7 +29362,7 @@
         <v>44578</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29419,7 +29419,7 @@
         <v>44580</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29476,7 +29476,7 @@
         <v>44593</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29533,7 +29533,7 @@
         <v>44594</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29647,7 +29647,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29704,7 +29704,7 @@
         <v>44631</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29761,7 +29761,7 @@
         <v>44637</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29818,7 +29818,7 @@
         <v>44644</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29880,7 +29880,7 @@
         <v>44690</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29937,7 +29937,7 @@
         <v>44698</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29994,7 +29994,7 @@
         <v>44700</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30051,7 +30051,7 @@
         <v>44700</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30108,7 +30108,7 @@
         <v>44706</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30165,7 +30165,7 @@
         <v>44713</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30227,7 +30227,7 @@
         <v>44727</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30284,7 +30284,7 @@
         <v>44729</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30341,7 +30341,7 @@
         <v>44729</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30398,7 +30398,7 @@
         <v>44743</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44753</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>44753</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30579,7 +30579,7 @@
         <v>44781</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30636,7 +30636,7 @@
         <v>44781</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30693,7 +30693,7 @@
         <v>44783</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30750,7 +30750,7 @@
         <v>44784</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30807,7 +30807,7 @@
         <v>44784</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30864,7 +30864,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30921,7 +30921,7 @@
         <v>44788</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30983,7 +30983,7 @@
         <v>44788</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31045,7 +31045,7 @@
         <v>44789</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31102,7 +31102,7 @@
         <v>44789</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31159,7 +31159,7 @@
         <v>44790</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31216,7 +31216,7 @@
         <v>44796</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31273,7 +31273,7 @@
         <v>44803</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31330,7 +31330,7 @@
         <v>44810</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31387,7 +31387,7 @@
         <v>44812</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31444,7 +31444,7 @@
         <v>44818</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31501,7 +31501,7 @@
         <v>44818</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31558,7 +31558,7 @@
         <v>44820</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>44825</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>44827</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>44827</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>44830</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31853,7 +31853,7 @@
         <v>44830</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>44833</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31972,7 +31972,7 @@
         <v>44834</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44834</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44834</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44835</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44840</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44841</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44845</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>44848</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44851</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32500,7 +32500,7 @@
         <v>44851</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32557,7 +32557,7 @@
         <v>44852</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44855</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>44859</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         <v>44859</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32795,7 +32795,7 @@
         <v>44859</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>44862</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>44874</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>44874</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33028,7 +33028,7 @@
         <v>44883</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33090,7 +33090,7 @@
         <v>44886</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>44886</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33214,7 +33214,7 @@
         <v>44889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33271,7 +33271,7 @@
         <v>44889</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33328,7 +33328,7 @@
         <v>44893</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33390,7 +33390,7 @@
         <v>44893</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33447,7 +33447,7 @@
         <v>44894</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33509,7 +33509,7 @@
         <v>44896</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         <v>44896</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>44896</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         <v>44902</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>44902</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>44903</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33856,7 +33856,7 @@
         <v>44903</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33918,7 +33918,7 @@
         <v>44903</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33980,7 +33980,7 @@
         <v>44904</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34037,7 +34037,7 @@
         <v>44904</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34094,7 +34094,7 @@
         <v>44904</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34151,7 +34151,7 @@
         <v>44904</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34208,7 +34208,7 @@
         <v>44904</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>44905</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>44908</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>44908</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>44908</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>44908</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>44908</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34607,7 +34607,7 @@
         <v>44909</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34664,7 +34664,7 @@
         <v>44910</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34721,7 +34721,7 @@
         <v>44917</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34778,7 +34778,7 @@
         <v>44917</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34835,7 +34835,7 @@
         <v>44917</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34892,7 +34892,7 @@
         <v>44917</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34949,7 +34949,7 @@
         <v>44924</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35006,7 +35006,7 @@
         <v>44924</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>44924</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
         <v>44928</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>44930</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35239,7 +35239,7 @@
         <v>44931</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35301,7 +35301,7 @@
         <v>44936</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>44938</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35415,7 +35415,7 @@
         <v>44942</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>44946</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>44946</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>44946</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>44946</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>44958</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>44958</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35814,7 +35814,7 @@
         <v>44958</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35871,7 +35871,7 @@
         <v>44960</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35928,7 +35928,7 @@
         <v>44966</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35985,7 +35985,7 @@
         <v>44967</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>44967</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>44970</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>44970</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36213,7 +36213,7 @@
         <v>44977</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36275,7 +36275,7 @@
         <v>44980</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36332,7 +36332,7 @@
         <v>44994</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36394,7 +36394,7 @@
         <v>44998</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         <v>44998</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36508,7 +36508,7 @@
         <v>44998</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36565,7 +36565,7 @@
         <v>44998</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36622,7 +36622,7 @@
         <v>44998</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36679,7 +36679,7 @@
         <v>44998</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>44998</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36793,7 +36793,7 @@
         <v>45000</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36855,7 +36855,7 @@
         <v>45000</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36912,7 +36912,7 @@
         <v>45000</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36974,7 +36974,7 @@
         <v>45006</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37036,7 +37036,7 @@
         <v>45006</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37093,7 +37093,7 @@
         <v>45006</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37150,7 +37150,7 @@
         <v>45013</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37207,7 +37207,7 @@
         <v>45022</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37264,7 +37264,7 @@
         <v>45022</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37321,7 +37321,7 @@
         <v>45034</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37378,7 +37378,7 @@
         <v>45037</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37435,7 +37435,7 @@
         <v>45040</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37492,7 +37492,7 @@
         <v>45041</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37549,7 +37549,7 @@
         <v>45051</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37606,7 +37606,7 @@
         <v>45051</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37663,7 +37663,7 @@
         <v>45056</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37720,7 +37720,7 @@
         <v>45075</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37777,7 +37777,7 @@
         <v>45085</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37834,7 +37834,7 @@
         <v>45086</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         <v>45086</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37948,7 +37948,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38005,7 +38005,7 @@
         <v>45098</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38062,7 +38062,7 @@
         <v>45098</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38119,7 +38119,7 @@
         <v>45098</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38176,7 +38176,7 @@
         <v>45098</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38233,7 +38233,7 @@
         <v>45098</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38290,7 +38290,7 @@
         <v>45098</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38347,7 +38347,7 @@
         <v>45099</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38404,7 +38404,7 @@
         <v>45120</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38461,7 +38461,7 @@
         <v>45126</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38523,7 +38523,7 @@
         <v>45126</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38585,7 +38585,7 @@
         <v>45126</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>45127</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>45150</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38761,7 +38761,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38818,7 +38818,7 @@
         <v>45159</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38875,7 +38875,7 @@
         <v>45159</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38932,7 +38932,7 @@
         <v>45159</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38989,7 +38989,7 @@
         <v>45169</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>

--- a/Översikt ÅRE.xlsx
+++ b/Översikt ÅRE.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>44162</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>44116</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>44984</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44301</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44998</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44162</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44278</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43794</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44761</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>44984</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44515</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44887</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44002</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>44278</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>44487</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44316</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>44049</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44259</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>44750</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43391</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44316</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44510</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>44984</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>44122</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>44231</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44306</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44370</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>44977</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>44034</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44165</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>44278</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>44733</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>44894</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>44946</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43605</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44077</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>44271</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44278</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>44495</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>44700</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>44882</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44977</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43643</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43657</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43844</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43916</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>44090</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>44193</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44231</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>44309</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>44316</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>44575</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44637</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>44002</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>44127</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44130</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>44155</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>44259</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44278</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44334</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>44547</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44637</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>44862</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>44900</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>44904</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>44977</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>44977</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44984</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>45055</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>45072</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>45072</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>45082</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43522</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8163,7 +8163,7 @@
         <v>43661</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43718</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>44018</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44046</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>44119</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44229</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44334</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44446</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44512</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>44701</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44712</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>44716</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>44716</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>44781</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>44893</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44946</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>44957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44957</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>44964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>44964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>44970</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>45072</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>45091</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43314</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>43431</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43749</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43774</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44002</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44090</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44116</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44117</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44124</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         <v>44173</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44173</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44265</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44265</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44271</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>44306</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>44334</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44395</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44477</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44487</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44487</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44487</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44502</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>44509</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44559</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>44637</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>44680</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>44690</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44781</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44888</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>44893</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44904</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12991,7 +12991,7 @@
         <v>44904</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44911</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44957</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>44984</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>45006</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13421,7 +13421,7 @@
         <v>43328</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>43353</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43355</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>43355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>43357</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         <v>43368</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         <v>43369</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>43375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>43383</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>43384</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>43388</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         <v>43389</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>43391</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>43396</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>43397</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43402</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43423</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>43423</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>43423</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>43423</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>43423</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14633,7 +14633,7 @@
         <v>43423</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>43424</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>43424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>43425</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>43425</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>43428</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>43428</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>43428</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>43428</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>43428</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>43431</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>43432</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>43432</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>43439</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>43444</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>43444</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>43444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>43446</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>43467</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>43467</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>43468</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>43469</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>43475</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>43490</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>43490</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>43490</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>43496</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>43501</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>43501</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>43503</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>43503</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>43510</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>43510</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>43521</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>43536</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>43552</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>43580</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>43584</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>43587</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>43598</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>43605</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>43612</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>43612</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>43620</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>43627</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>43629</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>43632</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>43633</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17369,7 +17369,7 @@
         <v>43634</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         <v>43652</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17483,7 +17483,7 @@
         <v>43661</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17540,7 +17540,7 @@
         <v>43661</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>43676</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>43698</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>43699</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>43707</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>43707</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>43710</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>43717</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>43717</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>43721</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>43726</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>43733</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>43733</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>43733</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>43733</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>43734</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>43734</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>43756</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>43768</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>43774</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>43777</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>43788</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>43788</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>43788</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>43801</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>43808</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>43810</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>43810</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>43811</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43816</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>43817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>43832</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>43832</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>43832</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>43833</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>43851</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>43854</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>43902</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>43902</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>43909</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>43948</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>43956</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>43968</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>43976</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>43983</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>43983</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>43992</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>43992</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>43998</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>43998</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>44000</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>44002</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>44002</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44022</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>44025</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         <v>44028</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44029</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44033</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44034</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44047</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44050</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44050</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44077</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44077</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>44077</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44077</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44096</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44102</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>44106</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>44106</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>44106</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>44116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>44120</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22068,7 +22068,7 @@
         <v>44125</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22130,7 +22130,7 @@
         <v>44129</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22187,7 +22187,7 @@
         <v>44129</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22244,7 +22244,7 @@
         <v>44135</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22301,7 +22301,7 @@
         <v>44140</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>44140</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>44140</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44155</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44158</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44161</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
         <v>44168</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         <v>44172</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22881,7 +22881,7 @@
         <v>44173</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
         <v>44173</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>44173</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>44179</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>44179</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44179</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44182</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44186</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>44186</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23394,7 +23394,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>44186</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23508,7 +23508,7 @@
         <v>44208</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23565,7 +23565,7 @@
         <v>44214</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23622,7 +23622,7 @@
         <v>44225</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23679,7 +23679,7 @@
         <v>44225</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44225</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23793,7 +23793,7 @@
         <v>44229</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23850,7 +23850,7 @@
         <v>44230</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23907,7 +23907,7 @@
         <v>44231</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>44231</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44243</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>44244</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>44246</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>44251</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24249,7 +24249,7 @@
         <v>44252</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         <v>44256</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>44257</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24420,7 +24420,7 @@
         <v>44257</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24477,7 +24477,7 @@
         <v>44267</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24534,7 +24534,7 @@
         <v>44270</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24596,7 +24596,7 @@
         <v>44271</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>44278</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>44278</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>44280</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44284</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44294</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44301</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>44305</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25062,7 +25062,7 @@
         <v>44306</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25119,7 +25119,7 @@
         <v>44307</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25176,7 +25176,7 @@
         <v>44309</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25233,7 +25233,7 @@
         <v>44322</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25290,7 +25290,7 @@
         <v>44322</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25347,7 +25347,7 @@
         <v>44323</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25404,7 +25404,7 @@
         <v>44326</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         <v>44334</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25518,7 +25518,7 @@
         <v>44337</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25575,7 +25575,7 @@
         <v>44349</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44351</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44351</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         <v>44354</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25803,7 +25803,7 @@
         <v>44357</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25860,7 +25860,7 @@
         <v>44357</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>44369</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44371</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>44379</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>44393</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26145,7 +26145,7 @@
         <v>44395</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26202,7 +26202,7 @@
         <v>44396</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>44398</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26316,7 +26316,7 @@
         <v>44406</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26373,7 +26373,7 @@
         <v>44406</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26430,7 +26430,7 @@
         <v>44419</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26487,7 +26487,7 @@
         <v>44419</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26544,7 +26544,7 @@
         <v>44419</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26601,7 +26601,7 @@
         <v>44456</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26658,7 +26658,7 @@
         <v>44461</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26715,7 +26715,7 @@
         <v>44461</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26772,7 +26772,7 @@
         <v>44477</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26834,7 +26834,7 @@
         <v>44482</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26891,7 +26891,7 @@
         <v>44482</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26948,7 +26948,7 @@
         <v>44484</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27005,7 +27005,7 @@
         <v>44487</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27062,7 +27062,7 @@
         <v>44487</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27119,7 +27119,7 @@
         <v>44487</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>44489</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44490</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>44491</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27352,7 +27352,7 @@
         <v>44495</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27409,7 +27409,7 @@
         <v>44495</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27466,7 +27466,7 @@
         <v>44496</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27528,7 +27528,7 @@
         <v>44496</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27590,7 +27590,7 @@
         <v>44498</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27647,7 +27647,7 @@
         <v>44498</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27704,7 +27704,7 @@
         <v>44498</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27761,7 +27761,7 @@
         <v>44498</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27818,7 +27818,7 @@
         <v>44499</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27875,7 +27875,7 @@
         <v>44502</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27932,7 +27932,7 @@
         <v>44502</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27994,7 +27994,7 @@
         <v>44504</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28051,7 +28051,7 @@
         <v>44510</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>44510</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44510</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
         <v>44510</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28279,7 +28279,7 @@
         <v>44515</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28336,7 +28336,7 @@
         <v>44515</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28393,7 +28393,7 @@
         <v>44516</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28450,7 +28450,7 @@
         <v>44524</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28507,7 +28507,7 @@
         <v>44529</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28564,7 +28564,7 @@
         <v>44531</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>44531</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>44532</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>44538</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28792,7 +28792,7 @@
         <v>44540</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28849,7 +28849,7 @@
         <v>44543</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44544</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         <v>44550</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29020,7 +29020,7 @@
         <v>44551</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29077,7 +29077,7 @@
         <v>44552</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>44552</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>44552</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>44553</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29305,7 +29305,7 @@
         <v>44570</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29362,7 +29362,7 @@
         <v>44578</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29419,7 +29419,7 @@
         <v>44580</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29476,7 +29476,7 @@
         <v>44593</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29533,7 +29533,7 @@
         <v>44594</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29647,7 +29647,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29704,7 +29704,7 @@
         <v>44631</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29761,7 +29761,7 @@
         <v>44637</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29818,7 +29818,7 @@
         <v>44644</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29880,7 +29880,7 @@
         <v>44690</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29937,7 +29937,7 @@
         <v>44698</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29994,7 +29994,7 @@
         <v>44700</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30051,7 +30051,7 @@
         <v>44700</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30108,7 +30108,7 @@
         <v>44706</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30165,7 +30165,7 @@
         <v>44713</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30227,7 +30227,7 @@
         <v>44727</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30284,7 +30284,7 @@
         <v>44729</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30341,7 +30341,7 @@
         <v>44729</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30398,7 +30398,7 @@
         <v>44743</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44753</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>44753</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30579,7 +30579,7 @@
         <v>44781</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30636,7 +30636,7 @@
         <v>44781</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30693,7 +30693,7 @@
         <v>44783</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30750,7 +30750,7 @@
         <v>44784</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30807,7 +30807,7 @@
         <v>44784</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30864,7 +30864,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30921,7 +30921,7 @@
         <v>44788</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30983,7 +30983,7 @@
         <v>44788</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31045,7 +31045,7 @@
         <v>44789</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31102,7 +31102,7 @@
         <v>44789</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31159,7 +31159,7 @@
         <v>44790</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31216,7 +31216,7 @@
         <v>44796</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31273,7 +31273,7 @@
         <v>44803</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31330,7 +31330,7 @@
         <v>44810</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31387,7 +31387,7 @@
         <v>44812</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31444,7 +31444,7 @@
         <v>44818</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31501,7 +31501,7 @@
         <v>44818</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31558,7 +31558,7 @@
         <v>44820</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>44825</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>44827</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>44827</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>44830</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31853,7 +31853,7 @@
         <v>44830</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>44833</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31972,7 +31972,7 @@
         <v>44834</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44834</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44834</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44835</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44840</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44841</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44845</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>44848</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44851</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32500,7 +32500,7 @@
         <v>44851</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32557,7 +32557,7 @@
         <v>44852</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44855</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>44859</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         <v>44859</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32795,7 +32795,7 @@
         <v>44859</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>44862</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>44874</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>44874</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33028,7 +33028,7 @@
         <v>44883</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33090,7 +33090,7 @@
         <v>44886</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>44886</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33214,7 +33214,7 @@
         <v>44889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33271,7 +33271,7 @@
         <v>44889</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33328,7 +33328,7 @@
         <v>44893</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33390,7 +33390,7 @@
         <v>44893</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33447,7 +33447,7 @@
         <v>44894</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33509,7 +33509,7 @@
         <v>44896</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         <v>44896</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>44896</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         <v>44902</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>44902</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>44903</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33856,7 +33856,7 @@
         <v>44903</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33918,7 +33918,7 @@
         <v>44903</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33980,7 +33980,7 @@
         <v>44904</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34037,7 +34037,7 @@
         <v>44904</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34094,7 +34094,7 @@
         <v>44904</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34151,7 +34151,7 @@
         <v>44904</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34208,7 +34208,7 @@
         <v>44904</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>44905</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>44908</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>44908</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>44908</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>44908</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>44908</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34607,7 +34607,7 @@
         <v>44909</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34664,7 +34664,7 @@
         <v>44910</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34721,7 +34721,7 @@
         <v>44917</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34778,7 +34778,7 @@
         <v>44917</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34835,7 +34835,7 @@
         <v>44917</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34892,7 +34892,7 @@
         <v>44917</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34949,7 +34949,7 @@
         <v>44924</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35006,7 +35006,7 @@
         <v>44924</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>44924</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
         <v>44928</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>44930</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35239,7 +35239,7 @@
         <v>44931</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35301,7 +35301,7 @@
         <v>44936</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>44938</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35415,7 +35415,7 @@
         <v>44942</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>44946</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>44946</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>44946</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>44946</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>44958</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>44958</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35814,7 +35814,7 @@
         <v>44958</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35871,7 +35871,7 @@
         <v>44960</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35928,7 +35928,7 @@
         <v>44966</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35985,7 +35985,7 @@
         <v>44967</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>44967</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>44970</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>44970</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36213,7 +36213,7 @@
         <v>44977</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36275,7 +36275,7 @@
         <v>44980</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36332,7 +36332,7 @@
         <v>44994</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36394,7 +36394,7 @@
         <v>44998</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         <v>44998</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36508,7 +36508,7 @@
         <v>44998</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36565,7 +36565,7 @@
         <v>44998</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36622,7 +36622,7 @@
         <v>44998</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36679,7 +36679,7 @@
         <v>44998</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>44998</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36793,7 +36793,7 @@
         <v>45000</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36855,7 +36855,7 @@
         <v>45000</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36912,7 +36912,7 @@
         <v>45000</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36974,7 +36974,7 @@
         <v>45006</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37036,7 +37036,7 @@
         <v>45006</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37093,7 +37093,7 @@
         <v>45006</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37150,7 +37150,7 @@
         <v>45013</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37207,7 +37207,7 @@
         <v>45022</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37264,7 +37264,7 @@
         <v>45022</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37321,7 +37321,7 @@
         <v>45034</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37378,7 +37378,7 @@
         <v>45037</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37435,7 +37435,7 @@
         <v>45040</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37492,7 +37492,7 @@
         <v>45041</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37549,7 +37549,7 @@
         <v>45051</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37606,7 +37606,7 @@
         <v>45051</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37663,7 +37663,7 @@
         <v>45056</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37720,7 +37720,7 @@
         <v>45075</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37777,7 +37777,7 @@
         <v>45085</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37834,7 +37834,7 @@
         <v>45086</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         <v>45086</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37948,7 +37948,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38005,7 +38005,7 @@
         <v>45098</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38062,7 +38062,7 @@
         <v>45098</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38119,7 +38119,7 @@
         <v>45098</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38176,7 +38176,7 @@
         <v>45098</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38233,7 +38233,7 @@
         <v>45098</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38290,7 +38290,7 @@
         <v>45098</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38347,7 +38347,7 @@
         <v>45099</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38404,7 +38404,7 @@
         <v>45120</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38461,7 +38461,7 @@
         <v>45126</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38523,7 +38523,7 @@
         <v>45126</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38585,7 +38585,7 @@
         <v>45126</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>45127</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>45150</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38761,7 +38761,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38818,7 +38818,7 @@
         <v>45159</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38875,7 +38875,7 @@
         <v>45159</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38932,7 +38932,7 @@
         <v>45159</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38989,7 +38989,7 @@
         <v>45169</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>

--- a/Översikt ÅRE.xlsx
+++ b/Översikt ÅRE.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>44162</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>44116</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>44984</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44301</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44998</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44162</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44278</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43794</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44761</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>44984</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44515</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44887</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44002</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>44278</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>44487</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44316</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>44049</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44259</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>44750</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43391</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44316</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44510</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>44984</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>44122</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>44231</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44306</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44370</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>44977</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>44034</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44165</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>44278</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>44733</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>44894</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>44946</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43605</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44077</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>44271</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44278</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>44495</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>44700</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>44882</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44977</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43643</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43657</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43844</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43916</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>44090</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>44193</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44231</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>44309</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>44316</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>44575</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44637</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>44002</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>44127</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44130</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>44155</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>44259</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44278</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44334</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>44547</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44637</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>44862</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>44900</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>44904</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>44977</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>44977</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44984</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>45055</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>45072</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>45072</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>45082</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43522</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8163,7 +8163,7 @@
         <v>43661</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43718</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>44018</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44046</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>44119</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44229</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44334</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44446</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44512</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>44701</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44712</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>44716</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>44716</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>44781</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>44893</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44946</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>44957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44957</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>44964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>44964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>44970</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>45072</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>45091</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43314</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>43431</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43749</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43774</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44002</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44090</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44116</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44117</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44124</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         <v>44173</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44173</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44265</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44265</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44271</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>44306</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>44334</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44395</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44477</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44487</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44487</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44487</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44502</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>44509</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44559</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>44637</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>44680</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>44690</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44781</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44888</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>44893</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44904</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12991,7 +12991,7 @@
         <v>44904</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44911</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44957</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>44984</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>45006</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13421,7 +13421,7 @@
         <v>43328</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>43353</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43355</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>43355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>43357</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         <v>43368</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         <v>43369</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>43375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>43383</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>43384</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>43388</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         <v>43389</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>43391</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>43396</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>43397</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43402</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43423</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>43423</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>43423</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>43423</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>43423</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14633,7 +14633,7 @@
         <v>43423</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>43424</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>43424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>43425</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>43425</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>43428</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>43428</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>43428</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>43428</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>43428</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>43431</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>43432</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>43432</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>43439</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>43444</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>43444</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>43444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>43446</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>43467</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>43467</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>43468</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>43469</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>43475</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>43490</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>43490</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>43490</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>43496</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>43501</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>43501</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>43503</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>43503</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>43510</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>43510</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>43521</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>43536</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>43552</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>43580</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>43584</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>43587</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>43598</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>43605</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>43612</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>43612</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>43620</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>43627</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>43629</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>43632</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>43633</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17369,7 +17369,7 @@
         <v>43634</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         <v>43652</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17483,7 +17483,7 @@
         <v>43661</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17540,7 +17540,7 @@
         <v>43661</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>43676</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>43698</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>43699</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>43707</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>43707</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>43710</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>43717</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>43717</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>43721</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>43726</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>43733</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>43733</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>43733</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>43733</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>43734</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>43734</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>43756</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>43768</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>43774</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>43777</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>43788</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>43788</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>43788</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>43801</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>43808</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>43810</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>43810</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>43811</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43816</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>43817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>43832</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>43832</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>43832</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>43833</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>43851</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>43854</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>43902</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>43902</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>43909</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>43948</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>43956</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>43968</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>43976</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>43983</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>43983</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>43992</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>43992</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>43998</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>43998</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>44000</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>44002</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>44002</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44022</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>44025</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         <v>44028</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44029</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44033</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44034</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44047</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44050</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44050</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44077</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44077</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>44077</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44077</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44096</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44102</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>44106</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>44106</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>44106</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>44116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>44120</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22068,7 +22068,7 @@
         <v>44125</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22130,7 +22130,7 @@
         <v>44129</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22187,7 +22187,7 @@
         <v>44129</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22244,7 +22244,7 @@
         <v>44135</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22301,7 +22301,7 @@
         <v>44140</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>44140</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>44140</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44155</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44158</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44161</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
         <v>44168</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         <v>44172</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22881,7 +22881,7 @@
         <v>44173</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
         <v>44173</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>44173</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>44179</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>44179</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44179</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44182</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44186</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>44186</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23394,7 +23394,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>44186</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23508,7 +23508,7 @@
         <v>44208</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23565,7 +23565,7 @@
         <v>44214</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23622,7 +23622,7 @@
         <v>44225</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23679,7 +23679,7 @@
         <v>44225</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44225</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23793,7 +23793,7 @@
         <v>44229</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23850,7 +23850,7 @@
         <v>44230</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23907,7 +23907,7 @@
         <v>44231</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>44231</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44243</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>44244</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>44246</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>44251</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24249,7 +24249,7 @@
         <v>44252</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         <v>44256</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>44257</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24420,7 +24420,7 @@
         <v>44257</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24477,7 +24477,7 @@
         <v>44267</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24534,7 +24534,7 @@
         <v>44270</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24596,7 +24596,7 @@
         <v>44271</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>44278</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>44278</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>44280</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44284</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44294</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44301</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>44305</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25062,7 +25062,7 @@
         <v>44306</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25119,7 +25119,7 @@
         <v>44307</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25176,7 +25176,7 @@
         <v>44309</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25233,7 +25233,7 @@
         <v>44322</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25290,7 +25290,7 @@
         <v>44322</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25347,7 +25347,7 @@
         <v>44323</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25404,7 +25404,7 @@
         <v>44326</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         <v>44334</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25518,7 +25518,7 @@
         <v>44337</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25575,7 +25575,7 @@
         <v>44349</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44351</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44351</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         <v>44354</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25803,7 +25803,7 @@
         <v>44357</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25860,7 +25860,7 @@
         <v>44357</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>44369</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44371</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>44379</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>44393</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26145,7 +26145,7 @@
         <v>44395</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26202,7 +26202,7 @@
         <v>44396</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>44398</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26316,7 +26316,7 @@
         <v>44406</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26373,7 +26373,7 @@
         <v>44406</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26430,7 +26430,7 @@
         <v>44419</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26487,7 +26487,7 @@
         <v>44419</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26544,7 +26544,7 @@
         <v>44419</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26601,7 +26601,7 @@
         <v>44456</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26658,7 +26658,7 @@
         <v>44461</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26715,7 +26715,7 @@
         <v>44461</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26772,7 +26772,7 @@
         <v>44477</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26834,7 +26834,7 @@
         <v>44482</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26891,7 +26891,7 @@
         <v>44482</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26948,7 +26948,7 @@
         <v>44484</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27005,7 +27005,7 @@
         <v>44487</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27062,7 +27062,7 @@
         <v>44487</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27119,7 +27119,7 @@
         <v>44487</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>44489</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44490</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>44491</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27352,7 +27352,7 @@
         <v>44495</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27409,7 +27409,7 @@
         <v>44495</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27466,7 +27466,7 @@
         <v>44496</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27528,7 +27528,7 @@
         <v>44496</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27590,7 +27590,7 @@
         <v>44498</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27647,7 +27647,7 @@
         <v>44498</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27704,7 +27704,7 @@
         <v>44498</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27761,7 +27761,7 @@
         <v>44498</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27818,7 +27818,7 @@
         <v>44499</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27875,7 +27875,7 @@
         <v>44502</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27932,7 +27932,7 @@
         <v>44502</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27994,7 +27994,7 @@
         <v>44504</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28051,7 +28051,7 @@
         <v>44510</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>44510</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44510</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
         <v>44510</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28279,7 +28279,7 @@
         <v>44515</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28336,7 +28336,7 @@
         <v>44515</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28393,7 +28393,7 @@
         <v>44516</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28450,7 +28450,7 @@
         <v>44524</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28507,7 +28507,7 @@
         <v>44529</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28564,7 +28564,7 @@
         <v>44531</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>44531</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>44532</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>44538</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28792,7 +28792,7 @@
         <v>44540</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28849,7 +28849,7 @@
         <v>44543</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44544</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         <v>44550</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29020,7 +29020,7 @@
         <v>44551</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29077,7 +29077,7 @@
         <v>44552</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>44552</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>44552</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>44553</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29305,7 +29305,7 @@
         <v>44570</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29362,7 +29362,7 @@
         <v>44578</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29419,7 +29419,7 @@
         <v>44580</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29476,7 +29476,7 @@
         <v>44593</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29533,7 +29533,7 @@
         <v>44594</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29647,7 +29647,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29704,7 +29704,7 @@
         <v>44631</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29761,7 +29761,7 @@
         <v>44637</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29818,7 +29818,7 @@
         <v>44644</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29880,7 +29880,7 @@
         <v>44690</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29937,7 +29937,7 @@
         <v>44698</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29994,7 +29994,7 @@
         <v>44700</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30051,7 +30051,7 @@
         <v>44700</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30108,7 +30108,7 @@
         <v>44706</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30165,7 +30165,7 @@
         <v>44713</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30227,7 +30227,7 @@
         <v>44727</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30284,7 +30284,7 @@
         <v>44729</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30341,7 +30341,7 @@
         <v>44729</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30398,7 +30398,7 @@
         <v>44743</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44753</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>44753</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30579,7 +30579,7 @@
         <v>44781</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30636,7 +30636,7 @@
         <v>44781</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30693,7 +30693,7 @@
         <v>44783</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30750,7 +30750,7 @@
         <v>44784</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30807,7 +30807,7 @@
         <v>44784</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30864,7 +30864,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30921,7 +30921,7 @@
         <v>44788</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30983,7 +30983,7 @@
         <v>44788</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31045,7 +31045,7 @@
         <v>44789</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31102,7 +31102,7 @@
         <v>44789</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31159,7 +31159,7 @@
         <v>44790</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31216,7 +31216,7 @@
         <v>44796</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31273,7 +31273,7 @@
         <v>44803</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31330,7 +31330,7 @@
         <v>44810</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31387,7 +31387,7 @@
         <v>44812</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31444,7 +31444,7 @@
         <v>44818</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31501,7 +31501,7 @@
         <v>44818</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31558,7 +31558,7 @@
         <v>44820</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>44825</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>44827</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>44827</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>44830</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31853,7 +31853,7 @@
         <v>44830</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>44833</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31972,7 +31972,7 @@
         <v>44834</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44834</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44834</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44835</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44840</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44841</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44845</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>44848</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44851</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32500,7 +32500,7 @@
         <v>44851</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32557,7 +32557,7 @@
         <v>44852</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44855</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>44859</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         <v>44859</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32795,7 +32795,7 @@
         <v>44859</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>44862</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>44874</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>44874</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33028,7 +33028,7 @@
         <v>44883</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33090,7 +33090,7 @@
         <v>44886</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>44886</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33214,7 +33214,7 @@
         <v>44889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33271,7 +33271,7 @@
         <v>44889</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33328,7 +33328,7 @@
         <v>44893</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33390,7 +33390,7 @@
         <v>44893</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33447,7 +33447,7 @@
         <v>44894</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33509,7 +33509,7 @@
         <v>44896</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         <v>44896</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>44896</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         <v>44902</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>44902</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>44903</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33856,7 +33856,7 @@
         <v>44903</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33918,7 +33918,7 @@
         <v>44903</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33980,7 +33980,7 @@
         <v>44904</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34037,7 +34037,7 @@
         <v>44904</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34094,7 +34094,7 @@
         <v>44904</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34151,7 +34151,7 @@
         <v>44904</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34208,7 +34208,7 @@
         <v>44904</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>44905</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>44908</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>44908</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>44908</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>44908</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>44908</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34607,7 +34607,7 @@
         <v>44909</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34664,7 +34664,7 @@
         <v>44910</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34721,7 +34721,7 @@
         <v>44917</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34778,7 +34778,7 @@
         <v>44917</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34835,7 +34835,7 @@
         <v>44917</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34892,7 +34892,7 @@
         <v>44917</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34949,7 +34949,7 @@
         <v>44924</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35006,7 +35006,7 @@
         <v>44924</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>44924</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
         <v>44928</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>44930</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35239,7 +35239,7 @@
         <v>44931</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35301,7 +35301,7 @@
         <v>44936</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>44938</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35415,7 +35415,7 @@
         <v>44942</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>44946</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>44946</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>44946</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>44946</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>44958</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>44958</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35814,7 +35814,7 @@
         <v>44958</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35871,7 +35871,7 @@
         <v>44960</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35928,7 +35928,7 @@
         <v>44966</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35985,7 +35985,7 @@
         <v>44967</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>44967</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>44970</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>44970</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36213,7 +36213,7 @@
         <v>44977</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36275,7 +36275,7 @@
         <v>44980</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36332,7 +36332,7 @@
         <v>44994</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36394,7 +36394,7 @@
         <v>44998</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         <v>44998</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36508,7 +36508,7 @@
         <v>44998</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36565,7 +36565,7 @@
         <v>44998</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36622,7 +36622,7 @@
         <v>44998</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36679,7 +36679,7 @@
         <v>44998</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>44998</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36793,7 +36793,7 @@
         <v>45000</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36855,7 +36855,7 @@
         <v>45000</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36912,7 +36912,7 @@
         <v>45000</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36974,7 +36974,7 @@
         <v>45006</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37036,7 +37036,7 @@
         <v>45006</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37093,7 +37093,7 @@
         <v>45006</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37150,7 +37150,7 @@
         <v>45013</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37207,7 +37207,7 @@
         <v>45022</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37264,7 +37264,7 @@
         <v>45022</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37321,7 +37321,7 @@
         <v>45034</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37378,7 +37378,7 @@
         <v>45037</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37435,7 +37435,7 @@
         <v>45040</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37492,7 +37492,7 @@
         <v>45041</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37549,7 +37549,7 @@
         <v>45051</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37606,7 +37606,7 @@
         <v>45051</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37663,7 +37663,7 @@
         <v>45056</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37720,7 +37720,7 @@
         <v>45075</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37777,7 +37777,7 @@
         <v>45085</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37834,7 +37834,7 @@
         <v>45086</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         <v>45086</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37948,7 +37948,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38005,7 +38005,7 @@
         <v>45098</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38062,7 +38062,7 @@
         <v>45098</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38119,7 +38119,7 @@
         <v>45098</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38176,7 +38176,7 @@
         <v>45098</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38233,7 +38233,7 @@
         <v>45098</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38290,7 +38290,7 @@
         <v>45098</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38347,7 +38347,7 @@
         <v>45099</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38404,7 +38404,7 @@
         <v>45120</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38461,7 +38461,7 @@
         <v>45126</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38523,7 +38523,7 @@
         <v>45126</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38585,7 +38585,7 @@
         <v>45126</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>45127</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>45150</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38761,7 +38761,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38818,7 +38818,7 @@
         <v>45159</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38875,7 +38875,7 @@
         <v>45159</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38932,7 +38932,7 @@
         <v>45159</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38989,7 +38989,7 @@
         <v>45169</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>

--- a/Översikt ÅRE.xlsx
+++ b/Översikt ÅRE.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>44162</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>44116</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>44984</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44301</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44998</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44162</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44278</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43794</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44761</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>44984</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44515</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44887</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44002</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>44278</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>44487</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44316</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>44049</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44259</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>44750</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43391</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44316</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44510</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>44984</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>44122</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>44231</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44306</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44370</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>44977</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>44034</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44165</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>44278</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>44733</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>44894</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>44946</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43605</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44077</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>44271</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44278</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>44495</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>44700</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>44882</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44977</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43643</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43657</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43844</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43916</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>44090</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>44193</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44231</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>44309</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>44316</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>44575</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44637</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>44002</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>44127</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44130</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>44155</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>44259</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44278</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44334</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>44547</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44637</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>44862</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>44900</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>44904</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>44977</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>44977</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44984</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>45055</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>45072</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>45072</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>45082</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>43522</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8163,7 +8163,7 @@
         <v>43661</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>43718</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>44018</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>44046</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>44119</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44229</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44334</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44446</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44512</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>44701</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44712</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>44716</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>44716</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>44781</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>44893</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44946</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>44957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44957</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>44964</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>44964</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>44970</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>45072</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>45091</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43314</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>43431</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43749</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43774</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44002</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44090</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44090</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44116</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44117</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>44124</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         <v>44173</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44173</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44265</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44265</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44271</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>44306</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>44334</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44395</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44477</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44487</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44487</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44487</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44502</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>44509</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44559</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>44637</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>44680</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>44690</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44781</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44888</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>44893</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44904</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12991,7 +12991,7 @@
         <v>44904</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44911</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44957</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>44984</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>45006</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13421,7 +13421,7 @@
         <v>43328</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>43353</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>43355</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>43355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>43357</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         <v>43368</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         <v>43369</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>43375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>43383</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>43384</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>43388</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         <v>43389</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>43391</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>43396</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>43397</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43402</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43423</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>43423</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>43423</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>43423</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>43423</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14633,7 +14633,7 @@
         <v>43423</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>43424</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>43424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>43425</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>43425</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>43428</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>43428</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>43428</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>43428</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>43428</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>43431</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>43432</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>43432</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>43439</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>43444</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>43444</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>43444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>43446</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>43467</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>43467</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>43468</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>43469</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>43475</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>43490</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>43490</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>43490</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>43496</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>43501</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>43501</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>43503</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>43503</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>43510</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>43510</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>43521</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>43536</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>43552</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>43580</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>43584</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>43587</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>43598</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>43605</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>43612</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>43612</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>43620</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>43627</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>43629</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>43632</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>43633</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17369,7 +17369,7 @@
         <v>43634</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         <v>43652</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17483,7 +17483,7 @@
         <v>43661</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17540,7 +17540,7 @@
         <v>43661</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>43676</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>43698</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>43699</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>43707</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>43707</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>43710</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>43717</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>43717</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>43721</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>43726</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>43733</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>43733</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>43733</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>43733</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>43734</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>43734</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>43756</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>43768</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>43774</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>43777</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>43788</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>43788</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>43788</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>43801</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>43808</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>43810</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>43810</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>43811</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43816</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>43817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>43832</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>43832</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>43832</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>43833</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>43851</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>43854</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>43902</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>43902</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>43909</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>43948</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>43956</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>43968</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>43976</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>43983</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>43983</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>43992</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>43992</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>43998</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>43998</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>44000</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>44002</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>44002</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44022</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>44025</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         <v>44028</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44029</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44033</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44034</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44047</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44050</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44050</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44077</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44077</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>44077</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44077</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44096</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44102</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>44106</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>44106</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>44106</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>44116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>44120</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22068,7 +22068,7 @@
         <v>44125</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22130,7 +22130,7 @@
         <v>44129</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22187,7 +22187,7 @@
         <v>44129</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22244,7 +22244,7 @@
         <v>44135</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22301,7 +22301,7 @@
         <v>44140</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>44140</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>44140</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44155</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44158</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44161</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
         <v>44168</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         <v>44172</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22881,7 +22881,7 @@
         <v>44173</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
         <v>44173</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>44173</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>44179</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>44179</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44179</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44182</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44186</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23337,7 +23337,7 @@
         <v>44186</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23394,7 +23394,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>44186</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23508,7 +23508,7 @@
         <v>44208</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23565,7 +23565,7 @@
         <v>44214</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23622,7 +23622,7 @@
         <v>44225</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23679,7 +23679,7 @@
         <v>44225</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44225</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23793,7 +23793,7 @@
         <v>44229</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23850,7 +23850,7 @@
         <v>44230</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23907,7 +23907,7 @@
         <v>44231</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>44231</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44243</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>44244</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>44246</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>44251</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24249,7 +24249,7 @@
         <v>44252</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         <v>44256</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>44257</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24420,7 +24420,7 @@
         <v>44257</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24477,7 +24477,7 @@
         <v>44267</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24534,7 +24534,7 @@
         <v>44270</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24596,7 +24596,7 @@
         <v>44271</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24653,7 +24653,7 @@
         <v>44278</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24710,7 +24710,7 @@
         <v>44278</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>44280</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44284</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44294</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44301</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>44305</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25062,7 +25062,7 @@
         <v>44306</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25119,7 +25119,7 @@
         <v>44307</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25176,7 +25176,7 @@
         <v>44309</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25233,7 +25233,7 @@
         <v>44322</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25290,7 +25290,7 @@
         <v>44322</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25347,7 +25347,7 @@
         <v>44323</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25404,7 +25404,7 @@
         <v>44326</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         <v>44334</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25518,7 +25518,7 @@
         <v>44337</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25575,7 +25575,7 @@
         <v>44349</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44351</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44351</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         <v>44354</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25803,7 +25803,7 @@
         <v>44357</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25860,7 +25860,7 @@
         <v>44357</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>44369</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25974,7 +25974,7 @@
         <v>44371</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>44379</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26088,7 +26088,7 @@
         <v>44393</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26145,7 +26145,7 @@
         <v>44395</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26202,7 +26202,7 @@
         <v>44396</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>44398</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26316,7 +26316,7 @@
         <v>44406</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26373,7 +26373,7 @@
         <v>44406</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26430,7 +26430,7 @@
         <v>44419</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26487,7 +26487,7 @@
         <v>44419</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26544,7 +26544,7 @@
         <v>44419</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26601,7 +26601,7 @@
         <v>44456</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26658,7 +26658,7 @@
         <v>44461</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26715,7 +26715,7 @@
         <v>44461</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26772,7 +26772,7 @@
         <v>44477</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26834,7 +26834,7 @@
         <v>44482</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26891,7 +26891,7 @@
         <v>44482</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26948,7 +26948,7 @@
         <v>44484</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27005,7 +27005,7 @@
         <v>44487</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27062,7 +27062,7 @@
         <v>44487</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27119,7 +27119,7 @@
         <v>44487</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>44489</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44490</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>44491</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27352,7 +27352,7 @@
         <v>44495</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27409,7 +27409,7 @@
         <v>44495</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27466,7 +27466,7 @@
         <v>44496</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27528,7 +27528,7 @@
         <v>44496</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27590,7 +27590,7 @@
         <v>44498</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27647,7 +27647,7 @@
         <v>44498</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27704,7 +27704,7 @@
         <v>44498</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27761,7 +27761,7 @@
         <v>44498</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27818,7 +27818,7 @@
         <v>44499</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27875,7 +27875,7 @@
         <v>44502</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27932,7 +27932,7 @@
         <v>44502</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27994,7 +27994,7 @@
         <v>44504</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28051,7 +28051,7 @@
         <v>44510</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>44510</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44510</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
         <v>44510</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28279,7 +28279,7 @@
         <v>44515</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28336,7 +28336,7 @@
         <v>44515</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28393,7 +28393,7 @@
         <v>44516</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28450,7 +28450,7 @@
         <v>44524</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28507,7 +28507,7 @@
         <v>44529</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28564,7 +28564,7 @@
         <v>44531</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>44531</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>44532</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
         <v>44538</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28792,7 +28792,7 @@
         <v>44540</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28849,7 +28849,7 @@
         <v>44543</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>44544</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         <v>44550</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29020,7 +29020,7 @@
         <v>44551</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29077,7 +29077,7 @@
         <v>44552</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29134,7 +29134,7 @@
         <v>44552</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>44552</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>44553</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29305,7 +29305,7 @@
         <v>44570</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29362,7 +29362,7 @@
         <v>44578</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29419,7 +29419,7 @@
         <v>44580</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29476,7 +29476,7 @@
         <v>44593</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29533,7 +29533,7 @@
         <v>44594</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29647,7 +29647,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29704,7 +29704,7 @@
         <v>44631</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29761,7 +29761,7 @@
         <v>44637</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29818,7 +29818,7 @@
         <v>44644</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29880,7 +29880,7 @@
         <v>44690</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29937,7 +29937,7 @@
         <v>44698</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29994,7 +29994,7 @@
         <v>44700</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30051,7 +30051,7 @@
         <v>44700</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30108,7 +30108,7 @@
         <v>44706</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30165,7 +30165,7 @@
         <v>44713</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30227,7 +30227,7 @@
         <v>44727</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30284,7 +30284,7 @@
         <v>44729</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30341,7 +30341,7 @@
         <v>44729</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30398,7 +30398,7 @@
         <v>44743</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44753</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>44753</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30579,7 +30579,7 @@
         <v>44781</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30636,7 +30636,7 @@
         <v>44781</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30693,7 +30693,7 @@
         <v>44783</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30750,7 +30750,7 @@
         <v>44784</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30807,7 +30807,7 @@
         <v>44784</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30864,7 +30864,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30921,7 +30921,7 @@
         <v>44788</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30983,7 +30983,7 @@
         <v>44788</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31045,7 +31045,7 @@
         <v>44789</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31102,7 +31102,7 @@
         <v>44789</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31159,7 +31159,7 @@
         <v>44790</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31216,7 +31216,7 @@
         <v>44796</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31273,7 +31273,7 @@
         <v>44803</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31330,7 +31330,7 @@
         <v>44810</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31387,7 +31387,7 @@
         <v>44812</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31444,7 +31444,7 @@
         <v>44818</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31501,7 +31501,7 @@
         <v>44818</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31558,7 +31558,7 @@
         <v>44820</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>44825</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>44827</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>44827</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>44830</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31853,7 +31853,7 @@
         <v>44830</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>44833</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31972,7 +31972,7 @@
         <v>44834</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44834</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44834</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44835</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44840</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44841</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44845</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>44848</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32438,7 +32438,7 @@
         <v>44851</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32500,7 +32500,7 @@
         <v>44851</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32557,7 +32557,7 @@
         <v>44852</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44855</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>44859</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         <v>44859</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32795,7 +32795,7 @@
         <v>44859</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>44862</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>44874</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>44874</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33028,7 +33028,7 @@
         <v>44883</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33090,7 +33090,7 @@
         <v>44886</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>44886</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33214,7 +33214,7 @@
         <v>44889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33271,7 +33271,7 @@
         <v>44889</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33328,7 +33328,7 @@
         <v>44893</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33390,7 +33390,7 @@
         <v>44893</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33447,7 +33447,7 @@
         <v>44894</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33509,7 +33509,7 @@
         <v>44896</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         <v>44896</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>44896</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         <v>44902</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>44902</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>44903</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33856,7 +33856,7 @@
         <v>44903</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33918,7 +33918,7 @@
         <v>44903</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33980,7 +33980,7 @@
         <v>44904</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34037,7 +34037,7 @@
         <v>44904</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34094,7 +34094,7 @@
         <v>44904</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34151,7 +34151,7 @@
         <v>44904</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34208,7 +34208,7 @@
         <v>44904</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34265,7 +34265,7 @@
         <v>44905</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34322,7 +34322,7 @@
         <v>44908</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>44908</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>44908</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>44908</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>44908</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34607,7 +34607,7 @@
         <v>44909</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34664,7 +34664,7 @@
         <v>44910</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34721,7 +34721,7 @@
         <v>44917</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34778,7 +34778,7 @@
         <v>44917</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34835,7 +34835,7 @@
         <v>44917</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34892,7 +34892,7 @@
         <v>44917</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34949,7 +34949,7 @@
         <v>44924</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35006,7 +35006,7 @@
         <v>44924</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>44924</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
         <v>44928</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>44930</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35239,7 +35239,7 @@
         <v>44931</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35301,7 +35301,7 @@
         <v>44936</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35358,7 +35358,7 @@
         <v>44938</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35415,7 +35415,7 @@
         <v>44942</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>44946</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>44946</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>44946</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>44946</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>44958</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>44958</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35814,7 +35814,7 @@
         <v>44958</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35871,7 +35871,7 @@
         <v>44960</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35928,7 +35928,7 @@
         <v>44966</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35985,7 +35985,7 @@
         <v>44967</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>44967</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>44970</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>44970</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36213,7 +36213,7 @@
         <v>44977</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36275,7 +36275,7 @@
         <v>44980</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36332,7 +36332,7 @@
         <v>44994</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36394,7 +36394,7 @@
         <v>44998</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         <v>44998</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36508,7 +36508,7 @@
         <v>44998</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36565,7 +36565,7 @@
         <v>44998</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36622,7 +36622,7 @@
         <v>44998</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36679,7 +36679,7 @@
         <v>44998</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>44998</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36793,7 +36793,7 @@
         <v>45000</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36855,7 +36855,7 @@
         <v>45000</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36912,7 +36912,7 @@
         <v>45000</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36974,7 +36974,7 @@
         <v>45006</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37036,7 +37036,7 @@
         <v>45006</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37093,7 +37093,7 @@
         <v>45006</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37150,7 +37150,7 @@
         <v>45013</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37207,7 +37207,7 @@
         <v>45022</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37264,7 +37264,7 @@
         <v>45022</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37321,7 +37321,7 @@
         <v>45034</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37378,7 +37378,7 @@
         <v>45037</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37435,7 +37435,7 @@
         <v>45040</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37492,7 +37492,7 @@
         <v>45041</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37549,7 +37549,7 @@
         <v>45051</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37606,7 +37606,7 @@
         <v>45051</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37663,7 +37663,7 @@
         <v>45056</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37720,7 +37720,7 @@
         <v>45075</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37777,7 +37777,7 @@
         <v>45085</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37834,7 +37834,7 @@
         <v>45086</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         <v>45086</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37948,7 +37948,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38005,7 +38005,7 @@
         <v>45098</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38062,7 +38062,7 @@
         <v>45098</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38119,7 +38119,7 @@
         <v>45098</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38176,7 +38176,7 @@
         <v>45098</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38233,7 +38233,7 @@
         <v>45098</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38290,7 +38290,7 @@
         <v>45098</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38347,7 +38347,7 @@
         <v>45099</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38404,7 +38404,7 @@
         <v>45120</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38461,7 +38461,7 @@
         <v>45126</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38523,7 +38523,7 @@
         <v>45126</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38585,7 +38585,7 @@
         <v>45126</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>45127</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>45150</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38761,7 +38761,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38818,7 +38818,7 @@
         <v>45159</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38875,7 +38875,7 @@
         <v>45159</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38932,7 +38932,7 @@
         <v>45159</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38989,7 +38989,7 @@
         <v>45169</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>

--- a/Översikt ÅRE.xlsx
+++ b/Översikt ÅRE.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>44162</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>44116</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>44984</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44301</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44998</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44162</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44278</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43794</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44761</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>44984</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44515</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44887</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44002</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>44278</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>44487</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44316</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>44049</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44259</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>44750</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43391</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44316</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44510</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>44984</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>44122</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>44231</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44306</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44370</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>44977</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>44034</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44165</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>44278</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>44733</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>44894</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>44946</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43605</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44077</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>44271</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44278</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>44495</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>44700</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>44882</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44977</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43643</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43657</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43844</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43916</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>44090</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>44193</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44231</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>44309</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>44316</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>44575</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44637</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>43598</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>44002</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44127</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>44130</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>44155</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44278</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>44334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44547</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>44637</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44862</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>44889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>44900</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>44904</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44977</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>44977</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>44984</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>45055</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>45072</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>45072</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45082</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>43661</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43718</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44018</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44046</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44119</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>44229</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>44334</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>44446</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>44512</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>44701</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44712</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44716</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>44716</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44781</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>44893</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9633,14 +9633,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 3152-2023</t>
+          <t>A 60533-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44946</v>
+        <v>44904</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9653,10 +9653,10 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -9687,743 +9687,739 @@
       </c>
       <c r="R101" s="2" t="inlineStr">
         <is>
+          <t>Talltita
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S101">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 60533-2022.xlsx", "A 60533-2022")</f>
+        <v/>
+      </c>
+      <c r="T101">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 60533-2022.png", "A 60533-2022")</f>
+        <v/>
+      </c>
+      <c r="V101">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 60533-2022.docx", "A 60533-2022")</f>
+        <v/>
+      </c>
+      <c r="W101">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 60533-2022.docx", "A 60533-2022")</f>
+        <v/>
+      </c>
+      <c r="X101">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 60533-2022.docx", "A 60533-2022")</f>
+        <v/>
+      </c>
+      <c r="Y101">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 60533-2022.docx", "A 60533-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" ht="15" customHeight="1">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>A 3152-2023</t>
+        </is>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>44946</v>
+      </c>
+      <c r="C102" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>ÅRE</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>2</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>2</v>
+      </c>
+      <c r="R102" s="2" t="inlineStr">
+        <is>
           <t>Lunglav
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S101">
+      <c r="S102">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 3152-2023.xlsx", "A 3152-2023")</f>
         <v/>
       </c>
-      <c r="T101">
+      <c r="T102">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 3152-2023.png", "A 3152-2023")</f>
         <v/>
       </c>
-      <c r="V101">
+      <c r="V102">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 3152-2023.docx", "A 3152-2023")</f>
         <v/>
       </c>
-      <c r="W101">
+      <c r="W102">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 3152-2023.docx", "A 3152-2023")</f>
         <v/>
       </c>
-      <c r="X101">
+      <c r="X102">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 3152-2023.docx", "A 3152-2023")</f>
         <v/>
       </c>
-      <c r="Y101">
+      <c r="Y102">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 3152-2023.docx", "A 3152-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="102" ht="15" customHeight="1">
-      <c r="A102" t="inlineStr">
+    <row r="103" ht="15" customHeight="1">
+      <c r="A103" t="inlineStr">
         <is>
           <t>A 5418-2023</t>
         </is>
       </c>
-      <c r="B102" s="1" t="n">
+      <c r="B103" s="1" t="n">
         <v>44957</v>
       </c>
-      <c r="C102" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>ÅRE</t>
-        </is>
-      </c>
-      <c r="G102" t="n">
+      <c r="C103" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>ÅRE</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
         <v>5</v>
       </c>
-      <c r="H102" t="n">
+      <c r="H103" t="n">
         <v>1</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
         <v>2</v>
       </c>
-      <c r="K102" t="n">
-        <v>0</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0</v>
-      </c>
-      <c r="M102" t="n">
-        <v>0</v>
-      </c>
-      <c r="N102" t="n">
-        <v>0</v>
-      </c>
-      <c r="O102" t="n">
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
         <v>2</v>
       </c>
-      <c r="P102" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q102" t="n">
+      <c r="P103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="n">
         <v>2</v>
       </c>
-      <c r="R102" s="2" t="inlineStr">
+      <c r="R103" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S102">
+      <c r="S103">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 5418-2023.xlsx", "A 5418-2023")</f>
         <v/>
       </c>
-      <c r="T102">
+      <c r="T103">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 5418-2023.png", "A 5418-2023")</f>
         <v/>
       </c>
-      <c r="V102">
+      <c r="V103">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 5418-2023.docx", "A 5418-2023")</f>
         <v/>
       </c>
-      <c r="W102">
+      <c r="W103">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 5418-2023.docx", "A 5418-2023")</f>
         <v/>
       </c>
-      <c r="X102">
+      <c r="X103">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 5418-2023.docx", "A 5418-2023")</f>
         <v/>
       </c>
-      <c r="Y102">
+      <c r="Y103">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 5418-2023.docx", "A 5418-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="103" ht="15" customHeight="1">
-      <c r="A103" t="inlineStr">
+    <row r="104" ht="15" customHeight="1">
+      <c r="A104" t="inlineStr">
         <is>
           <t>A 5531-2023</t>
         </is>
       </c>
-      <c r="B103" s="1" t="n">
+      <c r="B104" s="1" t="n">
         <v>44957</v>
       </c>
-      <c r="C103" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>ÅRE</t>
-        </is>
-      </c>
-      <c r="G103" t="n">
+      <c r="C104" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>ÅRE</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
         <v>3.8</v>
       </c>
-      <c r="H103" t="n">
+      <c r="H104" t="n">
         <v>1</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
         <v>2</v>
       </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>0</v>
-      </c>
-      <c r="M103" t="n">
-        <v>0</v>
-      </c>
-      <c r="N103" t="n">
-        <v>0</v>
-      </c>
-      <c r="O103" t="n">
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
         <v>2</v>
       </c>
-      <c r="P103" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q103" t="n">
+      <c r="P104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="n">
         <v>2</v>
       </c>
-      <c r="R103" s="2" t="inlineStr">
+      <c r="R104" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S103">
+      <c r="S104">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 5531-2023.xlsx", "A 5531-2023")</f>
         <v/>
       </c>
-      <c r="T103">
+      <c r="T104">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 5531-2023.png", "A 5531-2023")</f>
         <v/>
       </c>
-      <c r="V103">
+      <c r="V104">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 5531-2023.docx", "A 5531-2023")</f>
         <v/>
       </c>
-      <c r="W103">
+      <c r="W104">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 5531-2023.docx", "A 5531-2023")</f>
         <v/>
       </c>
-      <c r="X103">
+      <c r="X104">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 5531-2023.docx", "A 5531-2023")</f>
         <v/>
       </c>
-      <c r="Y103">
+      <c r="Y104">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 5531-2023.docx", "A 5531-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="104" ht="15" customHeight="1">
-      <c r="A104" t="inlineStr">
+    <row r="105" ht="15" customHeight="1">
+      <c r="A105" t="inlineStr">
         <is>
           <t>A 6108-2023</t>
         </is>
       </c>
-      <c r="B104" s="1" t="n">
+      <c r="B105" s="1" t="n">
         <v>44964</v>
       </c>
-      <c r="C104" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>ÅRE</t>
-        </is>
-      </c>
-      <c r="G104" t="n">
+      <c r="C105" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>ÅRE</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
         <v>15.4</v>
       </c>
-      <c r="H104" t="n">
+      <c r="H105" t="n">
         <v>1</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
         <v>2</v>
       </c>
-      <c r="K104" t="n">
-        <v>0</v>
-      </c>
-      <c r="L104" t="n">
-        <v>0</v>
-      </c>
-      <c r="M104" t="n">
-        <v>0</v>
-      </c>
-      <c r="N104" t="n">
-        <v>0</v>
-      </c>
-      <c r="O104" t="n">
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
         <v>2</v>
       </c>
-      <c r="P104" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q104" t="n">
+      <c r="P105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="n">
         <v>2</v>
       </c>
-      <c r="R104" s="2" t="inlineStr">
+      <c r="R105" s="2" t="inlineStr">
         <is>
           <t>Skrovellav
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S104">
+      <c r="S105">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 6108-2023.xlsx", "A 6108-2023")</f>
         <v/>
       </c>
-      <c r="T104">
+      <c r="T105">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 6108-2023.png", "A 6108-2023")</f>
         <v/>
       </c>
-      <c r="V104">
+      <c r="V105">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 6108-2023.docx", "A 6108-2023")</f>
         <v/>
       </c>
-      <c r="W104">
+      <c r="W105">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 6108-2023.docx", "A 6108-2023")</f>
         <v/>
       </c>
-      <c r="X104">
+      <c r="X105">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 6108-2023.docx", "A 6108-2023")</f>
         <v/>
       </c>
-      <c r="Y104">
+      <c r="Y105">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 6108-2023.docx", "A 6108-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="105" ht="15" customHeight="1">
-      <c r="A105" t="inlineStr">
+    <row r="106" ht="15" customHeight="1">
+      <c r="A106" t="inlineStr">
         <is>
           <t>A 6107-2023</t>
         </is>
       </c>
-      <c r="B105" s="1" t="n">
+      <c r="B106" s="1" t="n">
         <v>44964</v>
       </c>
-      <c r="C105" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>ÅRE</t>
-        </is>
-      </c>
-      <c r="G105" t="n">
+      <c r="C106" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>ÅRE</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
         <v>1.9</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>1</v>
       </c>
-      <c r="J105" t="n">
+      <c r="J106" t="n">
         <v>1</v>
       </c>
-      <c r="K105" t="n">
-        <v>0</v>
-      </c>
-      <c r="L105" t="n">
-        <v>0</v>
-      </c>
-      <c r="M105" t="n">
-        <v>0</v>
-      </c>
-      <c r="N105" t="n">
-        <v>0</v>
-      </c>
-      <c r="O105" t="n">
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
         <v>1</v>
       </c>
-      <c r="P105" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q105" t="n">
+      <c r="P106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="n">
         <v>2</v>
       </c>
-      <c r="R105" s="2" t="inlineStr">
+      <c r="R106" s="2" t="inlineStr">
         <is>
           <t>Skrovellav
 Stuplav</t>
         </is>
       </c>
-      <c r="S105">
+      <c r="S106">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 6107-2023.xlsx", "A 6107-2023")</f>
         <v/>
       </c>
-      <c r="T105">
+      <c r="T106">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 6107-2023.png", "A 6107-2023")</f>
         <v/>
       </c>
-      <c r="V105">
+      <c r="V106">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 6107-2023.docx", "A 6107-2023")</f>
         <v/>
       </c>
-      <c r="W105">
+      <c r="W106">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 6107-2023.docx", "A 6107-2023")</f>
         <v/>
       </c>
-      <c r="X105">
+      <c r="X106">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 6107-2023.docx", "A 6107-2023")</f>
         <v/>
       </c>
-      <c r="Y105">
+      <c r="Y106">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 6107-2023.docx", "A 6107-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="106" ht="15" customHeight="1">
-      <c r="A106" t="inlineStr">
+    <row r="107" ht="15" customHeight="1">
+      <c r="A107" t="inlineStr">
         <is>
           <t>A 7170-2023</t>
         </is>
       </c>
-      <c r="B106" s="1" t="n">
+      <c r="B107" s="1" t="n">
         <v>44970</v>
       </c>
-      <c r="C106" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>ÅRE</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
+      <c r="C107" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>ÅRE</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
         <is>
           <t>Övriga Aktiebolag</t>
         </is>
       </c>
-      <c r="G106" t="n">
+      <c r="G107" t="n">
         <v>37.3</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
         <v>2</v>
       </c>
-      <c r="K106" t="n">
-        <v>0</v>
-      </c>
-      <c r="L106" t="n">
-        <v>0</v>
-      </c>
-      <c r="M106" t="n">
-        <v>0</v>
-      </c>
-      <c r="N106" t="n">
-        <v>0</v>
-      </c>
-      <c r="O106" t="n">
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
         <v>2</v>
       </c>
-      <c r="P106" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q106" t="n">
+      <c r="P107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="n">
         <v>2</v>
       </c>
-      <c r="R106" s="2" t="inlineStr">
+      <c r="R107" s="2" t="inlineStr">
         <is>
           <t>Lunglav
 Skrovellav</t>
         </is>
       </c>
-      <c r="S106">
+      <c r="S107">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 7170-2023.xlsx", "A 7170-2023")</f>
         <v/>
       </c>
-      <c r="T106">
+      <c r="T107">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 7170-2023.png", "A 7170-2023")</f>
         <v/>
       </c>
-      <c r="V106">
+      <c r="V107">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 7170-2023.docx", "A 7170-2023")</f>
         <v/>
       </c>
-      <c r="W106">
+      <c r="W107">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 7170-2023.docx", "A 7170-2023")</f>
         <v/>
       </c>
-      <c r="X106">
+      <c r="X107">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 7170-2023.docx", "A 7170-2023")</f>
         <v/>
       </c>
-      <c r="Y106">
+      <c r="Y107">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 7170-2023.docx", "A 7170-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="107" ht="15" customHeight="1">
-      <c r="A107" t="inlineStr">
+    <row r="108" ht="15" customHeight="1">
+      <c r="A108" t="inlineStr">
         <is>
           <t>A 23706-2023</t>
         </is>
       </c>
-      <c r="B107" s="1" t="n">
+      <c r="B108" s="1" t="n">
         <v>45072</v>
       </c>
-      <c r="C107" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>ÅRE</t>
-        </is>
-      </c>
-      <c r="G107" t="n">
+      <c r="C108" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>ÅRE</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
         <v>8.1</v>
       </c>
-      <c r="H107" t="n">
+      <c r="H108" t="n">
         <v>1</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
         <v>2</v>
       </c>
-      <c r="K107" t="n">
-        <v>0</v>
-      </c>
-      <c r="L107" t="n">
-        <v>0</v>
-      </c>
-      <c r="M107" t="n">
-        <v>0</v>
-      </c>
-      <c r="N107" t="n">
-        <v>0</v>
-      </c>
-      <c r="O107" t="n">
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
         <v>2</v>
       </c>
-      <c r="P107" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q107" t="n">
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="n">
         <v>2</v>
       </c>
-      <c r="R107" s="2" t="inlineStr">
+      <c r="R108" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S107">
+      <c r="S108">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 23706-2023.xlsx", "A 23706-2023")</f>
         <v/>
       </c>
-      <c r="T107">
+      <c r="T108">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 23706-2023.png", "A 23706-2023")</f>
         <v/>
       </c>
-      <c r="V107">
+      <c r="V108">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 23706-2023.docx", "A 23706-2023")</f>
         <v/>
       </c>
-      <c r="W107">
+      <c r="W108">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 23706-2023.docx", "A 23706-2023")</f>
         <v/>
       </c>
-      <c r="X107">
+      <c r="X108">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 23706-2023.docx", "A 23706-2023")</f>
         <v/>
       </c>
-      <c r="Y107">
+      <c r="Y108">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 23706-2023.docx", "A 23706-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="108" ht="15" customHeight="1">
-      <c r="A108" t="inlineStr">
+    <row r="109" ht="15" customHeight="1">
+      <c r="A109" t="inlineStr">
         <is>
           <t>A 26098-2023</t>
         </is>
       </c>
-      <c r="B108" s="1" t="n">
+      <c r="B109" s="1" t="n">
         <v>45091</v>
       </c>
-      <c r="C108" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>ÅRE</t>
-        </is>
-      </c>
-      <c r="G108" t="n">
+      <c r="C109" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>ÅRE</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
         <v>15.7</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
         <v>2</v>
       </c>
-      <c r="K108" t="n">
-        <v>0</v>
-      </c>
-      <c r="L108" t="n">
-        <v>0</v>
-      </c>
-      <c r="M108" t="n">
-        <v>0</v>
-      </c>
-      <c r="N108" t="n">
-        <v>0</v>
-      </c>
-      <c r="O108" t="n">
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="n">
         <v>2</v>
       </c>
-      <c r="P108" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q108" t="n">
+      <c r="P109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="n">
         <v>2</v>
       </c>
-      <c r="R108" s="2" t="inlineStr">
+      <c r="R109" s="2" t="inlineStr">
         <is>
           <t>Lunglav
 Skrovellav</t>
         </is>
       </c>
-      <c r="S108">
+      <c r="S109">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 26098-2023.xlsx", "A 26098-2023")</f>
         <v/>
       </c>
-      <c r="T108">
+      <c r="T109">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 26098-2023.png", "A 26098-2023")</f>
         <v/>
       </c>
-      <c r="V108">
+      <c r="V109">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 26098-2023.docx", "A 26098-2023")</f>
         <v/>
       </c>
-      <c r="W108">
+      <c r="W109">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 26098-2023.docx", "A 26098-2023")</f>
         <v/>
       </c>
-      <c r="X108">
+      <c r="X109">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 26098-2023.docx", "A 26098-2023")</f>
         <v/>
       </c>
-      <c r="Y108">
+      <c r="Y109">
         <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 26098-2023.docx", "A 26098-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="109" ht="15" customHeight="1">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>A 33947-2018</t>
-        </is>
-      </c>
-      <c r="B109" s="1" t="n">
-        <v>43314</v>
-      </c>
-      <c r="C109" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>ÅRE</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G109" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="n">
-        <v>1</v>
-      </c>
-      <c r="L109" t="n">
-        <v>0</v>
-      </c>
-      <c r="M109" t="n">
-        <v>0</v>
-      </c>
-      <c r="N109" t="n">
-        <v>0</v>
-      </c>
-      <c r="O109" t="n">
-        <v>1</v>
-      </c>
-      <c r="P109" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q109" t="n">
-        <v>1</v>
-      </c>
-      <c r="R109" s="2" t="inlineStr">
-        <is>
-          <t>Norsk näverlav</t>
-        </is>
-      </c>
-      <c r="S109">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 33947-2018.xlsx", "A 33947-2018")</f>
-        <v/>
-      </c>
-      <c r="T109">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 33947-2018.png", "A 33947-2018")</f>
-        <v/>
-      </c>
-      <c r="V109">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 33947-2018.docx", "A 33947-2018")</f>
-        <v/>
-      </c>
-      <c r="W109">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 33947-2018.docx", "A 33947-2018")</f>
-        <v/>
-      </c>
-      <c r="X109">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 33947-2018.docx", "A 33947-2018")</f>
-        <v/>
-      </c>
-      <c r="Y109">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 33947-2018.docx", "A 33947-2018")</f>
         <v/>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 64479-2018</t>
+          <t>A 33947-2018</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>43431</v>
+        <v>43314</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10435,20 +10431,25 @@
           <t>ÅRE</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>10.1</v>
+        <v>8.5</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
         <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>1</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
@@ -10463,52 +10464,52 @@
         <v>1</v>
       </c>
       <c r="P110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
       </c>
       <c r="R110" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Norsk näverlav</t>
         </is>
       </c>
       <c r="S110">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 64479-2018.xlsx", "A 64479-2018")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 33947-2018.xlsx", "A 33947-2018")</f>
         <v/>
       </c>
       <c r="T110">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 64479-2018.png", "A 64479-2018")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 33947-2018.png", "A 33947-2018")</f>
         <v/>
       </c>
       <c r="V110">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 64479-2018.docx", "A 64479-2018")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 33947-2018.docx", "A 33947-2018")</f>
         <v/>
       </c>
       <c r="W110">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 64479-2018.docx", "A 64479-2018")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 33947-2018.docx", "A 33947-2018")</f>
         <v/>
       </c>
       <c r="X110">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 64479-2018.docx", "A 64479-2018")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 33947-2018.docx", "A 33947-2018")</f>
         <v/>
       </c>
       <c r="Y110">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 64479-2018.docx", "A 64479-2018")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 33947-2018.docx", "A 33947-2018")</f>
         <v/>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 53603-2019</t>
+          <t>A 64479-2018</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>43749</v>
+        <v>43431</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10520,16 +10521,11 @@
           <t>ÅRE</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>13.6</v>
+        <v>10.1</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -10560,45 +10556,45 @@
       </c>
       <c r="R111" s="2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S111">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 53603-2019.xlsx", "A 53603-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 64479-2018.xlsx", "A 64479-2018")</f>
         <v/>
       </c>
       <c r="T111">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 53603-2019.png", "A 53603-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 64479-2018.png", "A 64479-2018")</f>
         <v/>
       </c>
       <c r="V111">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 53603-2019.docx", "A 53603-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 64479-2018.docx", "A 64479-2018")</f>
         <v/>
       </c>
       <c r="W111">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 53603-2019.docx", "A 53603-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 64479-2018.docx", "A 64479-2018")</f>
         <v/>
       </c>
       <c r="X111">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 53603-2019.docx", "A 53603-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 64479-2018.docx", "A 64479-2018")</f>
         <v/>
       </c>
       <c r="Y111">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 53603-2019.docx", "A 53603-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 64479-2018.docx", "A 64479-2018")</f>
         <v/>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 59825-2019</t>
+          <t>A 53603-2019</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>43774</v>
+        <v>43749</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10610,8 +10606,13 @@
           <t>ÅRE</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>6.8</v>
+        <v>13.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -10645,45 +10646,45 @@
       </c>
       <c r="R112" s="2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="S112">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 59825-2019.xlsx", "A 59825-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 53603-2019.xlsx", "A 53603-2019")</f>
         <v/>
       </c>
       <c r="T112">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 59825-2019.png", "A 59825-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 53603-2019.png", "A 53603-2019")</f>
         <v/>
       </c>
       <c r="V112">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 59825-2019.docx", "A 59825-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 53603-2019.docx", "A 53603-2019")</f>
         <v/>
       </c>
       <c r="W112">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 59825-2019.docx", "A 59825-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 53603-2019.docx", "A 53603-2019")</f>
         <v/>
       </c>
       <c r="X112">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 59825-2019.docx", "A 59825-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 53603-2019.docx", "A 53603-2019")</f>
         <v/>
       </c>
       <c r="Y112">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 59825-2019.docx", "A 59825-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 53603-2019.docx", "A 53603-2019")</f>
         <v/>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 29084-2020</t>
+          <t>A 59825-2019</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44002</v>
+        <v>43774</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10696,7 +10697,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>15.5</v>
+        <v>6.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -10730,45 +10731,45 @@
       </c>
       <c r="R113" s="2" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="S113">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 29084-2020.xlsx", "A 29084-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 59825-2019.xlsx", "A 59825-2019")</f>
         <v/>
       </c>
       <c r="T113">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 29084-2020.png", "A 29084-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 59825-2019.png", "A 59825-2019")</f>
         <v/>
       </c>
       <c r="V113">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 29084-2020.docx", "A 29084-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 59825-2019.docx", "A 59825-2019")</f>
         <v/>
       </c>
       <c r="W113">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 29084-2020.docx", "A 29084-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 59825-2019.docx", "A 59825-2019")</f>
         <v/>
       </c>
       <c r="X113">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 29084-2020.docx", "A 29084-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 59825-2019.docx", "A 59825-2019")</f>
         <v/>
       </c>
       <c r="Y113">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 29084-2020.docx", "A 29084-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 59825-2019.docx", "A 59825-2019")</f>
         <v/>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 46959-2020</t>
+          <t>A 29084-2020</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44090</v>
+        <v>44002</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10781,10 +10782,10 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.7</v>
+        <v>15.5</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -10815,45 +10816,45 @@
       </c>
       <c r="R114" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="S114">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 46959-2020.xlsx", "A 46959-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 29084-2020.xlsx", "A 29084-2020")</f>
         <v/>
       </c>
       <c r="T114">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 46959-2020.png", "A 46959-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 29084-2020.png", "A 29084-2020")</f>
         <v/>
       </c>
       <c r="V114">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 46959-2020.docx", "A 46959-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 29084-2020.docx", "A 29084-2020")</f>
         <v/>
       </c>
       <c r="W114">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 46959-2020.docx", "A 46959-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 29084-2020.docx", "A 29084-2020")</f>
         <v/>
       </c>
       <c r="X114">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 46959-2020.docx", "A 46959-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 29084-2020.docx", "A 29084-2020")</f>
         <v/>
       </c>
       <c r="Y114">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 46959-2020.docx", "A 46959-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 29084-2020.docx", "A 29084-2020")</f>
         <v/>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 46966-2020</t>
+          <t>A 46959-2020</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
         <v>44090</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10866,7 +10867,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>13.7</v>
+        <v>4.7</v>
       </c>
       <c r="H115" t="n">
         <v>1</v>
@@ -10904,41 +10905,41 @@
         </is>
       </c>
       <c r="S115">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 46966-2020.xlsx", "A 46966-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 46959-2020.xlsx", "A 46959-2020")</f>
         <v/>
       </c>
       <c r="T115">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 46966-2020.png", "A 46966-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 46959-2020.png", "A 46959-2020")</f>
         <v/>
       </c>
       <c r="V115">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 46966-2020.docx", "A 46966-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 46959-2020.docx", "A 46959-2020")</f>
         <v/>
       </c>
       <c r="W115">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 46966-2020.docx", "A 46966-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 46959-2020.docx", "A 46959-2020")</f>
         <v/>
       </c>
       <c r="X115">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 46966-2020.docx", "A 46966-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 46959-2020.docx", "A 46959-2020")</f>
         <v/>
       </c>
       <c r="Y115">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 46966-2020.docx", "A 46966-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 46959-2020.docx", "A 46959-2020")</f>
         <v/>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 52542-2020</t>
+          <t>A 46966-2020</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44116</v>
+        <v>44090</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10951,10 +10952,10 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>5.5</v>
+        <v>13.7</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -10985,45 +10986,45 @@
       </c>
       <c r="R116" s="2" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S116">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 52542-2020.xlsx", "A 52542-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 46966-2020.xlsx", "A 46966-2020")</f>
         <v/>
       </c>
       <c r="T116">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 52542-2020.png", "A 52542-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 46966-2020.png", "A 46966-2020")</f>
         <v/>
       </c>
       <c r="V116">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 52542-2020.docx", "A 52542-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 46966-2020.docx", "A 46966-2020")</f>
         <v/>
       </c>
       <c r="W116">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 52542-2020.docx", "A 52542-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 46966-2020.docx", "A 46966-2020")</f>
         <v/>
       </c>
       <c r="X116">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 52542-2020.docx", "A 52542-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 46966-2020.docx", "A 46966-2020")</f>
         <v/>
       </c>
       <c r="Y116">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 52542-2020.docx", "A 52542-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 46966-2020.docx", "A 46966-2020")</f>
         <v/>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 52095-2020</t>
+          <t>A 52542-2020</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44117</v>
+        <v>44116</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11036,7 +11037,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -11070,45 +11071,45 @@
       </c>
       <c r="R117" s="2" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="S117">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 52095-2020.xlsx", "A 52095-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 52542-2020.xlsx", "A 52542-2020")</f>
         <v/>
       </c>
       <c r="T117">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 52095-2020.png", "A 52095-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 52542-2020.png", "A 52542-2020")</f>
         <v/>
       </c>
       <c r="V117">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 52095-2020.docx", "A 52095-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 52542-2020.docx", "A 52542-2020")</f>
         <v/>
       </c>
       <c r="W117">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 52095-2020.docx", "A 52095-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 52542-2020.docx", "A 52542-2020")</f>
         <v/>
       </c>
       <c r="X117">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 52095-2020.docx", "A 52095-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 52542-2020.docx", "A 52542-2020")</f>
         <v/>
       </c>
       <c r="Y117">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 52095-2020.docx", "A 52095-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 52542-2020.docx", "A 52542-2020")</f>
         <v/>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 53598-2020</t>
+          <t>A 52095-2020</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44124</v>
+        <v>44117</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11121,10 +11122,10 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>11.7</v>
+        <v>4.1</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -11155,45 +11156,45 @@
       </c>
       <c r="R118" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="S118">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 53598-2020.xlsx", "A 53598-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 52095-2020.xlsx", "A 52095-2020")</f>
         <v/>
       </c>
       <c r="T118">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 53598-2020.png", "A 53598-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 52095-2020.png", "A 52095-2020")</f>
         <v/>
       </c>
       <c r="V118">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 53598-2020.docx", "A 53598-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 52095-2020.docx", "A 52095-2020")</f>
         <v/>
       </c>
       <c r="W118">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 53598-2020.docx", "A 53598-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 52095-2020.docx", "A 52095-2020")</f>
         <v/>
       </c>
       <c r="X118">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 53598-2020.docx", "A 53598-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 52095-2020.docx", "A 52095-2020")</f>
         <v/>
       </c>
       <c r="Y118">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 53598-2020.docx", "A 53598-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 52095-2020.docx", "A 52095-2020")</f>
         <v/>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 65517-2020</t>
+          <t>A 53598-2020</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44173</v>
+        <v>44124</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11206,10 +11207,10 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.6</v>
+        <v>11.7</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -11240,45 +11241,45 @@
       </c>
       <c r="R119" s="2" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S119">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 65517-2020.xlsx", "A 65517-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 53598-2020.xlsx", "A 53598-2020")</f>
         <v/>
       </c>
       <c r="T119">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 65517-2020.png", "A 65517-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 53598-2020.png", "A 53598-2020")</f>
         <v/>
       </c>
       <c r="V119">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 65517-2020.docx", "A 65517-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 53598-2020.docx", "A 53598-2020")</f>
         <v/>
       </c>
       <c r="W119">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 65517-2020.docx", "A 65517-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 53598-2020.docx", "A 53598-2020")</f>
         <v/>
       </c>
       <c r="X119">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 65517-2020.docx", "A 65517-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 53598-2020.docx", "A 53598-2020")</f>
         <v/>
       </c>
       <c r="Y119">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 65517-2020.docx", "A 65517-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 53598-2020.docx", "A 53598-2020")</f>
         <v/>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 65446-2020</t>
+          <t>A 65517-2020</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
         <v>44173</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11291,7 +11292,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>7.2</v>
+        <v>4.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -11325,45 +11326,45 @@
       </c>
       <c r="R120" s="2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="S120">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 65446-2020.xlsx", "A 65446-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 65517-2020.xlsx", "A 65517-2020")</f>
         <v/>
       </c>
       <c r="T120">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 65446-2020.png", "A 65446-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 65517-2020.png", "A 65517-2020")</f>
         <v/>
       </c>
       <c r="V120">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 65446-2020.docx", "A 65446-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 65517-2020.docx", "A 65517-2020")</f>
         <v/>
       </c>
       <c r="W120">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 65446-2020.docx", "A 65446-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 65517-2020.docx", "A 65517-2020")</f>
         <v/>
       </c>
       <c r="X120">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 65446-2020.docx", "A 65446-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 65517-2020.docx", "A 65517-2020")</f>
         <v/>
       </c>
       <c r="Y120">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 65446-2020.docx", "A 65446-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 65517-2020.docx", "A 65517-2020")</f>
         <v/>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 11781-2021</t>
+          <t>A 65446-2020</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44265</v>
+        <v>44173</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11376,17 +11377,17 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.1</v>
+        <v>7.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
         <v>1</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
       <c r="K121" t="n">
         <v>0</v>
       </c>
@@ -11400,7 +11401,7 @@
         <v>0</v>
       </c>
       <c r="O121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P121" t="n">
         <v>0</v>
@@ -11410,45 +11411,45 @@
       </c>
       <c r="R121" s="2" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="S121">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 11781-2021.xlsx", "A 11781-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 65446-2020.xlsx", "A 65446-2020")</f>
         <v/>
       </c>
       <c r="T121">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 11781-2021.png", "A 11781-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 65446-2020.png", "A 65446-2020")</f>
         <v/>
       </c>
       <c r="V121">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 11781-2021.docx", "A 11781-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 65446-2020.docx", "A 65446-2020")</f>
         <v/>
       </c>
       <c r="W121">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 11781-2021.docx", "A 11781-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 65446-2020.docx", "A 65446-2020")</f>
         <v/>
       </c>
       <c r="X121">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 11781-2021.docx", "A 11781-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 65446-2020.docx", "A 65446-2020")</f>
         <v/>
       </c>
       <c r="Y121">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 11781-2021.docx", "A 11781-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 65446-2020.docx", "A 65446-2020")</f>
         <v/>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 11767-2021</t>
+          <t>A 11781-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
         <v>44265</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11461,16 +11462,16 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>15.4</v>
+        <v>4.1</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>1</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
       <c r="J122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K122" t="n">
         <v>0</v>
@@ -11485,7 +11486,7 @@
         <v>0</v>
       </c>
       <c r="O122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P122" t="n">
         <v>0</v>
@@ -11495,45 +11496,45 @@
       </c>
       <c r="R122" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="S122">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 11767-2021.xlsx", "A 11767-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 11781-2021.xlsx", "A 11781-2021")</f>
         <v/>
       </c>
       <c r="T122">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 11767-2021.png", "A 11767-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 11781-2021.png", "A 11781-2021")</f>
         <v/>
       </c>
       <c r="V122">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 11767-2021.docx", "A 11767-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 11781-2021.docx", "A 11781-2021")</f>
         <v/>
       </c>
       <c r="W122">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 11767-2021.docx", "A 11767-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 11781-2021.docx", "A 11781-2021")</f>
         <v/>
       </c>
       <c r="X122">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 11767-2021.docx", "A 11767-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 11781-2021.docx", "A 11781-2021")</f>
         <v/>
       </c>
       <c r="Y122">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 11767-2021.docx", "A 11767-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 11781-2021.docx", "A 11781-2021")</f>
         <v/>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 12970-2021</t>
+          <t>A 11767-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44271</v>
+        <v>44265</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11546,17 +11547,17 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>20.5</v>
+        <v>15.4</v>
       </c>
       <c r="H123" t="n">
         <v>1</v>
       </c>
       <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
         <v>1</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
       <c r="K123" t="n">
         <v>0</v>
       </c>
@@ -11570,7 +11571,7 @@
         <v>0</v>
       </c>
       <c r="O123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P123" t="n">
         <v>0</v>
@@ -11580,45 +11581,45 @@
       </c>
       <c r="R123" s="2" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S123">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 12970-2021.xlsx", "A 12970-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 11767-2021.xlsx", "A 11767-2021")</f>
         <v/>
       </c>
       <c r="T123">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 12970-2021.png", "A 12970-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 11767-2021.png", "A 11767-2021")</f>
         <v/>
       </c>
       <c r="V123">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 12970-2021.docx", "A 12970-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 11767-2021.docx", "A 11767-2021")</f>
         <v/>
       </c>
       <c r="W123">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 12970-2021.docx", "A 12970-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 11767-2021.docx", "A 11767-2021")</f>
         <v/>
       </c>
       <c r="X123">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 12970-2021.docx", "A 12970-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 11767-2021.docx", "A 11767-2021")</f>
         <v/>
       </c>
       <c r="Y123">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 12970-2021.docx", "A 12970-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 11767-2021.docx", "A 11767-2021")</f>
         <v/>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 18543-2021</t>
+          <t>A 12970-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44306</v>
+        <v>44271</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11631,16 +11632,16 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.7</v>
+        <v>20.5</v>
       </c>
       <c r="H124" t="n">
         <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K124" t="n">
         <v>0</v>
@@ -11655,7 +11656,7 @@
         <v>0</v>
       </c>
       <c r="O124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P124" t="n">
         <v>0</v>
@@ -11665,45 +11666,45 @@
       </c>
       <c r="R124" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="S124">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 18543-2021.xlsx", "A 18543-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 12970-2021.xlsx", "A 12970-2021")</f>
         <v/>
       </c>
       <c r="T124">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 18543-2021.png", "A 18543-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 12970-2021.png", "A 12970-2021")</f>
         <v/>
       </c>
       <c r="V124">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 18543-2021.docx", "A 18543-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 12970-2021.docx", "A 12970-2021")</f>
         <v/>
       </c>
       <c r="W124">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 18543-2021.docx", "A 18543-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 12970-2021.docx", "A 12970-2021")</f>
         <v/>
       </c>
       <c r="X124">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 18543-2021.docx", "A 18543-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 12970-2021.docx", "A 12970-2021")</f>
         <v/>
       </c>
       <c r="Y124">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 18543-2021.docx", "A 18543-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 12970-2021.docx", "A 12970-2021")</f>
         <v/>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 23556-2021</t>
+          <t>A 18543-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44334</v>
+        <v>44306</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11716,17 +11717,17 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>11.1</v>
+        <v>1.7</v>
       </c>
       <c r="H125" t="n">
         <v>1</v>
       </c>
       <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
         <v>1</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
       <c r="K125" t="n">
         <v>0</v>
       </c>
@@ -11740,7 +11741,7 @@
         <v>0</v>
       </c>
       <c r="O125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P125" t="n">
         <v>0</v>
@@ -11750,45 +11751,45 @@
       </c>
       <c r="R125" s="2" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S125">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 23556-2021.xlsx", "A 23556-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 18543-2021.xlsx", "A 18543-2021")</f>
         <v/>
       </c>
       <c r="T125">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 23556-2021.png", "A 23556-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 18543-2021.png", "A 18543-2021")</f>
         <v/>
       </c>
       <c r="V125">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 23556-2021.docx", "A 23556-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 18543-2021.docx", "A 18543-2021")</f>
         <v/>
       </c>
       <c r="W125">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 23556-2021.docx", "A 23556-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 18543-2021.docx", "A 18543-2021")</f>
         <v/>
       </c>
       <c r="X125">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 23556-2021.docx", "A 23556-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 18543-2021.docx", "A 18543-2021")</f>
         <v/>
       </c>
       <c r="Y125">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 23556-2021.docx", "A 23556-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 18543-2021.docx", "A 18543-2021")</f>
         <v/>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 37082-2021</t>
+          <t>A 23556-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44395</v>
+        <v>44334</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11801,16 +11802,16 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>14.6</v>
+        <v>11.1</v>
       </c>
       <c r="H126" t="n">
         <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K126" t="n">
         <v>0</v>
@@ -11825,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="O126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P126" t="n">
         <v>0</v>
@@ -11835,45 +11836,45 @@
       </c>
       <c r="R126" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="S126">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 37082-2021.xlsx", "A 37082-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 23556-2021.xlsx", "A 23556-2021")</f>
         <v/>
       </c>
       <c r="T126">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 37082-2021.png", "A 37082-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 23556-2021.png", "A 23556-2021")</f>
         <v/>
       </c>
       <c r="V126">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 37082-2021.docx", "A 37082-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 23556-2021.docx", "A 23556-2021")</f>
         <v/>
       </c>
       <c r="W126">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 37082-2021.docx", "A 37082-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 23556-2021.docx", "A 23556-2021")</f>
         <v/>
       </c>
       <c r="X126">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 37082-2021.docx", "A 37082-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 23556-2021.docx", "A 23556-2021")</f>
         <v/>
       </c>
       <c r="Y126">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 37082-2021.docx", "A 37082-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 23556-2021.docx", "A 23556-2021")</f>
         <v/>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 56193-2021</t>
+          <t>A 37082-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44477</v>
+        <v>44395</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11885,13 +11886,8 @@
           <t>ÅRE</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>15.5</v>
+        <v>14.6</v>
       </c>
       <c r="H127" t="n">
         <v>1</v>
@@ -11929,41 +11925,41 @@
         </is>
       </c>
       <c r="S127">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 56193-2021.xlsx", "A 56193-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 37082-2021.xlsx", "A 37082-2021")</f>
         <v/>
       </c>
       <c r="T127">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 56193-2021.png", "A 56193-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 37082-2021.png", "A 37082-2021")</f>
         <v/>
       </c>
       <c r="V127">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 56193-2021.docx", "A 56193-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 37082-2021.docx", "A 37082-2021")</f>
         <v/>
       </c>
       <c r="W127">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 56193-2021.docx", "A 56193-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 37082-2021.docx", "A 37082-2021")</f>
         <v/>
       </c>
       <c r="X127">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 56193-2021.docx", "A 56193-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 37082-2021.docx", "A 37082-2021")</f>
         <v/>
       </c>
       <c r="Y127">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 56193-2021.docx", "A 56193-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 37082-2021.docx", "A 37082-2021")</f>
         <v/>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 58239-2021</t>
+          <t>A 56193-2021</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44487</v>
+        <v>44477</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11975,20 +11971,25 @@
           <t>ÅRE</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>25</v>
+        <v>15.5</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
         <v>0</v>
@@ -12003,52 +12004,52 @@
         <v>1</v>
       </c>
       <c r="P128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
       </c>
       <c r="R128" s="2" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S128">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 58239-2021.xlsx", "A 58239-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 56193-2021.xlsx", "A 56193-2021")</f>
         <v/>
       </c>
       <c r="T128">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 58239-2021.png", "A 58239-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 56193-2021.png", "A 56193-2021")</f>
         <v/>
       </c>
       <c r="V128">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 58239-2021.docx", "A 58239-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 56193-2021.docx", "A 56193-2021")</f>
         <v/>
       </c>
       <c r="W128">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 58239-2021.docx", "A 58239-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 56193-2021.docx", "A 56193-2021")</f>
         <v/>
       </c>
       <c r="X128">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 58239-2021.docx", "A 58239-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 56193-2021.docx", "A 56193-2021")</f>
         <v/>
       </c>
       <c r="Y128">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 58239-2021.docx", "A 58239-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 56193-2021.docx", "A 56193-2021")</f>
         <v/>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 58117-2021</t>
+          <t>A 58239-2021</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
         <v>44487</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12061,20 +12062,20 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>40.9</v>
+        <v>25</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
         <v>1</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0</v>
-      </c>
       <c r="L129" t="n">
         <v>0</v>
       </c>
@@ -12085,55 +12086,55 @@
         <v>0</v>
       </c>
       <c r="O129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
       </c>
       <c r="R129" s="2" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="S129">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 58117-2021.xlsx", "A 58117-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 58239-2021.xlsx", "A 58239-2021")</f>
         <v/>
       </c>
       <c r="T129">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 58117-2021.png", "A 58117-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 58239-2021.png", "A 58239-2021")</f>
         <v/>
       </c>
       <c r="V129">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 58117-2021.docx", "A 58117-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 58239-2021.docx", "A 58239-2021")</f>
         <v/>
       </c>
       <c r="W129">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 58117-2021.docx", "A 58117-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 58239-2021.docx", "A 58239-2021")</f>
         <v/>
       </c>
       <c r="X129">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 58117-2021.docx", "A 58117-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 58239-2021.docx", "A 58239-2021")</f>
         <v/>
       </c>
       <c r="Y129">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 58117-2021.docx", "A 58117-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 58239-2021.docx", "A 58239-2021")</f>
         <v/>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 58226-2021</t>
+          <t>A 58117-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
         <v>44487</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12146,7 +12147,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>62.3</v>
+        <v>40.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -12180,45 +12181,45 @@
       </c>
       <c r="R130" s="2" t="inlineStr">
         <is>
-          <t>Kambräken</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="S130">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 58226-2021.xlsx", "A 58226-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 58117-2021.xlsx", "A 58117-2021")</f>
         <v/>
       </c>
       <c r="T130">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 58226-2021.png", "A 58226-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 58117-2021.png", "A 58117-2021")</f>
         <v/>
       </c>
       <c r="V130">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 58226-2021.docx", "A 58226-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 58117-2021.docx", "A 58117-2021")</f>
         <v/>
       </c>
       <c r="W130">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 58226-2021.docx", "A 58226-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 58117-2021.docx", "A 58117-2021")</f>
         <v/>
       </c>
       <c r="X130">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 58226-2021.docx", "A 58226-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 58117-2021.docx", "A 58117-2021")</f>
         <v/>
       </c>
       <c r="Y130">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 58226-2021.docx", "A 58226-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 58117-2021.docx", "A 58117-2021")</f>
         <v/>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 62188-2021</t>
+          <t>A 58226-2021</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44502</v>
+        <v>44487</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12231,7 +12232,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.5</v>
+        <v>62.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -12265,45 +12266,45 @@
       </c>
       <c r="R131" s="2" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Kambräken</t>
         </is>
       </c>
       <c r="S131">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 62188-2021.xlsx", "A 62188-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 58226-2021.xlsx", "A 58226-2021")</f>
         <v/>
       </c>
       <c r="T131">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 62188-2021.png", "A 62188-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 58226-2021.png", "A 58226-2021")</f>
         <v/>
       </c>
       <c r="V131">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 62188-2021.docx", "A 62188-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 58226-2021.docx", "A 58226-2021")</f>
         <v/>
       </c>
       <c r="W131">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 62188-2021.docx", "A 62188-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 58226-2021.docx", "A 58226-2021")</f>
         <v/>
       </c>
       <c r="X131">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 62188-2021.docx", "A 62188-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 58226-2021.docx", "A 58226-2021")</f>
         <v/>
       </c>
       <c r="Y131">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 62188-2021.docx", "A 62188-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 58226-2021.docx", "A 58226-2021")</f>
         <v/>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 63975-2021</t>
+          <t>A 62188-2021</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44509</v>
+        <v>44502</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12316,7 +12317,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -12354,41 +12355,41 @@
         </is>
       </c>
       <c r="S132">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 63975-2021.xlsx", "A 63975-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 62188-2021.xlsx", "A 62188-2021")</f>
         <v/>
       </c>
       <c r="T132">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 63975-2021.png", "A 63975-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 62188-2021.png", "A 62188-2021")</f>
         <v/>
       </c>
       <c r="V132">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 63975-2021.docx", "A 63975-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 62188-2021.docx", "A 62188-2021")</f>
         <v/>
       </c>
       <c r="W132">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 63975-2021.docx", "A 63975-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 62188-2021.docx", "A 62188-2021")</f>
         <v/>
       </c>
       <c r="X132">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 63975-2021.docx", "A 63975-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 62188-2021.docx", "A 62188-2021")</f>
         <v/>
       </c>
       <c r="Y132">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 63975-2021.docx", "A 63975-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 62188-2021.docx", "A 62188-2021")</f>
         <v/>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 74392-2021</t>
+          <t>A 63975-2021</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44559</v>
+        <v>44509</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12401,16 +12402,16 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>11.6</v>
+        <v>2.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K133" t="n">
         <v>0</v>
@@ -12425,7 +12426,7 @@
         <v>0</v>
       </c>
       <c r="O133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P133" t="n">
         <v>0</v>
@@ -12435,45 +12436,45 @@
       </c>
       <c r="R133" s="2" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="S133">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 74392-2021.xlsx", "A 74392-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 63975-2021.xlsx", "A 63975-2021")</f>
         <v/>
       </c>
       <c r="T133">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 74392-2021.png", "A 74392-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 63975-2021.png", "A 63975-2021")</f>
         <v/>
       </c>
       <c r="V133">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 74392-2021.docx", "A 74392-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 63975-2021.docx", "A 63975-2021")</f>
         <v/>
       </c>
       <c r="W133">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 74392-2021.docx", "A 74392-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 63975-2021.docx", "A 63975-2021")</f>
         <v/>
       </c>
       <c r="X133">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 74392-2021.docx", "A 74392-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 63975-2021.docx", "A 63975-2021")</f>
         <v/>
       </c>
       <c r="Y133">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 74392-2021.docx", "A 74392-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 63975-2021.docx", "A 63975-2021")</f>
         <v/>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 12242-2022</t>
+          <t>A 74392-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44637</v>
+        <v>44559</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12486,7 +12487,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>53.4</v>
+        <v>11.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -12520,45 +12521,45 @@
       </c>
       <c r="R134" s="2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="S134">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 12242-2022.xlsx", "A 12242-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 74392-2021.xlsx", "A 74392-2021")</f>
         <v/>
       </c>
       <c r="T134">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 12242-2022.png", "A 12242-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 74392-2021.png", "A 74392-2021")</f>
         <v/>
       </c>
       <c r="V134">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 12242-2022.docx", "A 12242-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 74392-2021.docx", "A 74392-2021")</f>
         <v/>
       </c>
       <c r="W134">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 12242-2022.docx", "A 12242-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 74392-2021.docx", "A 74392-2021")</f>
         <v/>
       </c>
       <c r="X134">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 12242-2022.docx", "A 12242-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 74392-2021.docx", "A 74392-2021")</f>
         <v/>
       </c>
       <c r="Y134">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 12242-2022.docx", "A 12242-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 74392-2021.docx", "A 74392-2021")</f>
         <v/>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 17692-2022</t>
+          <t>A 12242-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44680</v>
+        <v>44637</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12571,10 +12572,10 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.1</v>
+        <v>53.4</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -12605,45 +12606,45 @@
       </c>
       <c r="R135" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="S135">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 17692-2022.xlsx", "A 17692-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 12242-2022.xlsx", "A 12242-2022")</f>
         <v/>
       </c>
       <c r="T135">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 17692-2022.png", "A 17692-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 12242-2022.png", "A 12242-2022")</f>
         <v/>
       </c>
       <c r="V135">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 17692-2022.docx", "A 17692-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 12242-2022.docx", "A 12242-2022")</f>
         <v/>
       </c>
       <c r="W135">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 17692-2022.docx", "A 17692-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 12242-2022.docx", "A 12242-2022")</f>
         <v/>
       </c>
       <c r="X135">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 17692-2022.docx", "A 17692-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 12242-2022.docx", "A 12242-2022")</f>
         <v/>
       </c>
       <c r="Y135">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 17692-2022.docx", "A 17692-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 12242-2022.docx", "A 12242-2022")</f>
         <v/>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 18851-2022</t>
+          <t>A 17692-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44690</v>
+        <v>44680</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12656,10 +12657,10 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>10.4</v>
+        <v>3.1</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -12690,45 +12691,45 @@
       </c>
       <c r="R136" s="2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S136">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 18851-2022.xlsx", "A 18851-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 17692-2022.xlsx", "A 17692-2022")</f>
         <v/>
       </c>
       <c r="T136">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 18851-2022.png", "A 18851-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 17692-2022.png", "A 17692-2022")</f>
         <v/>
       </c>
       <c r="V136">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 18851-2022.docx", "A 18851-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 17692-2022.docx", "A 17692-2022")</f>
         <v/>
       </c>
       <c r="W136">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 18851-2022.docx", "A 18851-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 17692-2022.docx", "A 17692-2022")</f>
         <v/>
       </c>
       <c r="X136">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 18851-2022.docx", "A 18851-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 17692-2022.docx", "A 17692-2022")</f>
         <v/>
       </c>
       <c r="Y136">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 18851-2022.docx", "A 18851-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 17692-2022.docx", "A 17692-2022")</f>
         <v/>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 32216-2022</t>
+          <t>A 18851-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44781</v>
+        <v>44690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12741,10 +12742,10 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>27.3</v>
+        <v>10.4</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -12775,45 +12776,45 @@
       </c>
       <c r="R137" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="S137">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 32216-2022.xlsx", "A 32216-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 18851-2022.xlsx", "A 18851-2022")</f>
         <v/>
       </c>
       <c r="T137">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 32216-2022.png", "A 32216-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 18851-2022.png", "A 18851-2022")</f>
         <v/>
       </c>
       <c r="V137">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 32216-2022.docx", "A 32216-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 18851-2022.docx", "A 18851-2022")</f>
         <v/>
       </c>
       <c r="W137">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 32216-2022.docx", "A 32216-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 18851-2022.docx", "A 18851-2022")</f>
         <v/>
       </c>
       <c r="X137">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 32216-2022.docx", "A 32216-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 18851-2022.docx", "A 18851-2022")</f>
         <v/>
       </c>
       <c r="Y137">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 32216-2022.docx", "A 32216-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 18851-2022.docx", "A 18851-2022")</f>
         <v/>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 55805-2022</t>
+          <t>A 32216-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44888</v>
+        <v>44781</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12825,13 +12826,8 @@
           <t>ÅRE</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>17.7</v>
+        <v>27.3</v>
       </c>
       <c r="H138" t="n">
         <v>1</v>
@@ -12869,41 +12865,41 @@
         </is>
       </c>
       <c r="S138">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 55805-2022.xlsx", "A 55805-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 32216-2022.xlsx", "A 32216-2022")</f>
         <v/>
       </c>
       <c r="T138">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 55805-2022.png", "A 55805-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 32216-2022.png", "A 32216-2022")</f>
         <v/>
       </c>
       <c r="V138">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 55805-2022.docx", "A 55805-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 32216-2022.docx", "A 32216-2022")</f>
         <v/>
       </c>
       <c r="W138">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 55805-2022.docx", "A 55805-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 32216-2022.docx", "A 32216-2022")</f>
         <v/>
       </c>
       <c r="X138">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 55805-2022.docx", "A 55805-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 32216-2022.docx", "A 32216-2022")</f>
         <v/>
       </c>
       <c r="Y138">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 55805-2022.docx", "A 55805-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 32216-2022.docx", "A 32216-2022")</f>
         <v/>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 56603-2022</t>
+          <t>A 55805-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44893</v>
+        <v>44888</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12921,7 +12917,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>14.3</v>
+        <v>17.7</v>
       </c>
       <c r="H139" t="n">
         <v>1</v>
@@ -12955,45 +12951,45 @@
       </c>
       <c r="R139" s="2" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S139">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 56603-2022.xlsx", "A 56603-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 55805-2022.xlsx", "A 55805-2022")</f>
         <v/>
       </c>
       <c r="T139">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 56603-2022.png", "A 56603-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 55805-2022.png", "A 55805-2022")</f>
         <v/>
       </c>
       <c r="V139">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 56603-2022.docx", "A 56603-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 55805-2022.docx", "A 55805-2022")</f>
         <v/>
       </c>
       <c r="W139">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 56603-2022.docx", "A 56603-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 55805-2022.docx", "A 55805-2022")</f>
         <v/>
       </c>
       <c r="X139">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 56603-2022.docx", "A 56603-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 55805-2022.docx", "A 55805-2022")</f>
         <v/>
       </c>
       <c r="Y139">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 56603-2022.docx", "A 56603-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 55805-2022.docx", "A 55805-2022")</f>
         <v/>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 60544-2022</t>
+          <t>A 56603-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44904</v>
+        <v>44893</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13005,8 +13001,13 @@
           <t>ÅRE</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>1.2</v>
+        <v>14.3</v>
       </c>
       <c r="H140" t="n">
         <v>1</v>
@@ -13040,45 +13041,45 @@
       </c>
       <c r="R140" s="2" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="S140">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 60544-2022.xlsx", "A 60544-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 56603-2022.xlsx", "A 56603-2022")</f>
         <v/>
       </c>
       <c r="T140">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 60544-2022.png", "A 60544-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 56603-2022.png", "A 56603-2022")</f>
         <v/>
       </c>
       <c r="V140">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 60544-2022.docx", "A 60544-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 56603-2022.docx", "A 56603-2022")</f>
         <v/>
       </c>
       <c r="W140">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 60544-2022.docx", "A 60544-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 56603-2022.docx", "A 56603-2022")</f>
         <v/>
       </c>
       <c r="X140">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 60544-2022.docx", "A 60544-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 56603-2022.docx", "A 56603-2022")</f>
         <v/>
       </c>
       <c r="Y140">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 60544-2022.docx", "A 60544-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 56603-2022.docx", "A 56603-2022")</f>
         <v/>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 60533-2022</t>
+          <t>A 60544-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
         <v>44904</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13091,7 +13092,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H141" t="n">
         <v>1</v>
@@ -13125,31 +13126,31 @@
       </c>
       <c r="R141" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="S141">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 60533-2022.xlsx", "A 60533-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/artfynd/A 60544-2022.xlsx", "A 60544-2022")</f>
         <v/>
       </c>
       <c r="T141">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 60533-2022.png", "A 60533-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/kartor/A 60544-2022.png", "A 60544-2022")</f>
         <v/>
       </c>
       <c r="V141">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 60533-2022.docx", "A 60533-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomål/A 60544-2022.docx", "A 60544-2022")</f>
         <v/>
       </c>
       <c r="W141">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 60533-2022.docx", "A 60533-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/klagomålsmail/A 60544-2022.docx", "A 60544-2022")</f>
         <v/>
       </c>
       <c r="X141">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 60533-2022.docx", "A 60533-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsyn/A 60544-2022.docx", "A 60544-2022")</f>
         <v/>
       </c>
       <c r="Y141">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 60533-2022.docx", "A 60533-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARE/tillsynsmail/A 60544-2022.docx", "A 60544-2022")</f>
         <v/>
       </c>
     </row>
@@ -13163,7 +13164,7 @@
         <v>44911</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13253,7 +13254,7 @@
         <v>44957</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13338,7 +13339,7 @@
         <v>44984</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13423,7 +13424,7 @@
         <v>45006</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13508,7 +13509,7 @@
         <v>43328</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13565,7 +13566,7 @@
         <v>43353</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13627,7 +13628,7 @@
         <v>43355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13684,7 +13685,7 @@
         <v>43355</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13741,7 +13742,7 @@
         <v>43357</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13803,7 +13804,7 @@
         <v>43368</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13860,7 +13861,7 @@
         <v>43369</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13917,7 +13918,7 @@
         <v>43375</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13974,7 +13975,7 @@
         <v>43383</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14031,7 +14032,7 @@
         <v>43384</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14088,7 +14089,7 @@
         <v>43388</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14145,7 +14146,7 @@
         <v>43389</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14207,7 +14208,7 @@
         <v>43391</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14264,7 +14265,7 @@
         <v>43396</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14321,7 +14322,7 @@
         <v>43397</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14378,7 +14379,7 @@
         <v>43402</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14435,7 +14436,7 @@
         <v>43423</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14492,7 +14493,7 @@
         <v>43423</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14549,7 +14550,7 @@
         <v>43423</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14606,7 +14607,7 @@
         <v>43423</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14663,7 +14664,7 @@
         <v>43423</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14720,7 +14721,7 @@
         <v>43423</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14777,7 +14778,7 @@
         <v>43424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14834,7 +14835,7 @@
         <v>43424</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14891,7 +14892,7 @@
         <v>43425</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14948,7 +14949,7 @@
         <v>43425</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15005,7 +15006,7 @@
         <v>43428</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15062,7 +15063,7 @@
         <v>43428</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15119,7 +15120,7 @@
         <v>43428</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15176,7 +15177,7 @@
         <v>43428</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15233,7 +15234,7 @@
         <v>43428</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15290,7 +15291,7 @@
         <v>43431</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15347,7 +15348,7 @@
         <v>43432</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15404,7 +15405,7 @@
         <v>43432</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15461,7 +15462,7 @@
         <v>43439</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15518,7 +15519,7 @@
         <v>43444</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15575,7 +15576,7 @@
         <v>43444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15632,7 +15633,7 @@
         <v>43444</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15689,7 +15690,7 @@
         <v>43446</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15746,7 +15747,7 @@
         <v>43467</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15803,7 +15804,7 @@
         <v>43467</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15860,7 +15861,7 @@
         <v>43468</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15917,7 +15918,7 @@
         <v>43469</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15974,7 +15975,7 @@
         <v>43475</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16031,7 +16032,7 @@
         <v>43490</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16088,7 +16089,7 @@
         <v>43490</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16145,7 +16146,7 @@
         <v>43490</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16202,7 +16203,7 @@
         <v>43496</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16259,7 +16260,7 @@
         <v>43501</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16316,7 +16317,7 @@
         <v>43501</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16373,7 +16374,7 @@
         <v>43503</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16430,7 +16431,7 @@
         <v>43503</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16487,7 +16488,7 @@
         <v>43510</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16544,7 +16545,7 @@
         <v>43510</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16601,7 +16602,7 @@
         <v>43521</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16658,7 +16659,7 @@
         <v>43536</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16715,7 +16716,7 @@
         <v>43552</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16772,7 +16773,7 @@
         <v>43580</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16829,7 +16830,7 @@
         <v>43584</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16886,7 +16887,7 @@
         <v>43587</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16943,7 +16944,7 @@
         <v>43605</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17000,7 +17001,7 @@
         <v>43612</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17057,7 +17058,7 @@
         <v>43612</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17114,7 +17115,7 @@
         <v>43620</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17171,7 +17172,7 @@
         <v>43627</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17228,7 +17229,7 @@
         <v>43629</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17285,7 +17286,7 @@
         <v>43632</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17342,7 +17343,7 @@
         <v>43633</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17399,7 +17400,7 @@
         <v>43634</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17456,7 +17457,7 @@
         <v>43652</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17513,7 +17514,7 @@
         <v>43661</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17570,7 +17571,7 @@
         <v>43661</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17627,7 +17628,7 @@
         <v>43676</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17689,7 +17690,7 @@
         <v>43698</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17746,7 +17747,7 @@
         <v>43699</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17803,7 +17804,7 @@
         <v>43707</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17860,7 +17861,7 @@
         <v>43707</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17917,7 +17918,7 @@
         <v>43710</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17974,7 +17975,7 @@
         <v>43717</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18031,7 +18032,7 @@
         <v>43717</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18088,7 +18089,7 @@
         <v>43721</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18145,7 +18146,7 @@
         <v>43726</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18202,7 +18203,7 @@
         <v>43733</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18259,7 +18260,7 @@
         <v>43733</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18316,7 +18317,7 @@
         <v>43733</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18373,7 +18374,7 @@
         <v>43733</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18430,7 +18431,7 @@
         <v>43734</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18487,7 +18488,7 @@
         <v>43734</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18544,7 +18545,7 @@
         <v>43756</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18601,7 +18602,7 @@
         <v>43768</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18658,7 +18659,7 @@
         <v>43774</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18715,7 +18716,7 @@
         <v>43777</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18772,7 +18773,7 @@
         <v>43788</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18829,7 +18830,7 @@
         <v>43788</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18891,7 +18892,7 @@
         <v>43788</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18953,7 +18954,7 @@
         <v>43801</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19010,7 +19011,7 @@
         <v>43808</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19067,7 +19068,7 @@
         <v>43810</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19124,7 +19125,7 @@
         <v>43810</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19181,7 +19182,7 @@
         <v>43811</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19238,7 +19239,7 @@
         <v>43816</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19295,7 +19296,7 @@
         <v>43817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19352,7 +19353,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19409,7 +19410,7 @@
         <v>43832</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19466,7 +19467,7 @@
         <v>43832</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19523,7 +19524,7 @@
         <v>43832</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19580,7 +19581,7 @@
         <v>43833</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19637,7 +19638,7 @@
         <v>43851</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19694,7 +19695,7 @@
         <v>43854</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19751,7 +19752,7 @@
         <v>43902</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19808,7 +19809,7 @@
         <v>43902</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19865,7 +19866,7 @@
         <v>43909</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19922,7 +19923,7 @@
         <v>43948</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19979,7 +19980,7 @@
         <v>43956</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20036,7 +20037,7 @@
         <v>43968</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20093,7 +20094,7 @@
         <v>43976</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20150,7 +20151,7 @@
         <v>43983</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20207,7 +20208,7 @@
         <v>43983</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20264,7 +20265,7 @@
         <v>43992</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20321,7 +20322,7 @@
         <v>43992</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20378,7 +20379,7 @@
         <v>43998</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20435,7 +20436,7 @@
         <v>43998</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20492,7 +20493,7 @@
         <v>44000</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20554,7 +20555,7 @@
         <v>44002</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20611,7 +20612,7 @@
         <v>44002</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20668,7 +20669,7 @@
         <v>44022</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20725,7 +20726,7 @@
         <v>44025</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20782,7 +20783,7 @@
         <v>44028</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20839,7 +20840,7 @@
         <v>44029</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20896,7 +20897,7 @@
         <v>44033</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20953,7 +20954,7 @@
         <v>44034</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21010,7 +21011,7 @@
         <v>44047</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21067,7 +21068,7 @@
         <v>44050</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21124,7 +21125,7 @@
         <v>44050</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21181,7 +21182,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21238,7 +21239,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21295,7 +21296,7 @@
         <v>44068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21352,7 +21353,7 @@
         <v>44076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21409,7 +21410,7 @@
         <v>44077</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21466,7 +21467,7 @@
         <v>44077</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21523,7 +21524,7 @@
         <v>44077</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21580,7 +21581,7 @@
         <v>44077</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21637,7 +21638,7 @@
         <v>44096</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21694,7 +21695,7 @@
         <v>44102</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21751,7 +21752,7 @@
         <v>44105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21813,7 +21814,7 @@
         <v>44106</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21870,7 +21871,7 @@
         <v>44106</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21927,7 +21928,7 @@
         <v>44106</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21984,7 +21985,7 @@
         <v>44116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22041,7 +22042,7 @@
         <v>44120</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22098,7 +22099,7 @@
         <v>44125</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22160,7 +22161,7 @@
         <v>44129</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22217,7 +22218,7 @@
         <v>44129</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22274,7 +22275,7 @@
         <v>44135</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22331,7 +22332,7 @@
         <v>44140</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22388,7 +22389,7 @@
         <v>44140</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22445,7 +22446,7 @@
         <v>44140</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22502,7 +22503,7 @@
         <v>44146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22559,7 +22560,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22616,7 +22617,7 @@
         <v>44155</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22673,7 +22674,7 @@
         <v>44158</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22735,7 +22736,7 @@
         <v>44161</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22797,7 +22798,7 @@
         <v>44168</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22854,7 +22855,7 @@
         <v>44172</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22911,7 +22912,7 @@
         <v>44173</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22968,7 +22969,7 @@
         <v>44173</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23025,7 +23026,7 @@
         <v>44173</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23082,7 +23083,7 @@
         <v>44179</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23139,7 +23140,7 @@
         <v>44179</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23196,7 +23197,7 @@
         <v>44179</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23253,7 +23254,7 @@
         <v>44182</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23310,7 +23311,7 @@
         <v>44186</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23367,7 +23368,7 @@
         <v>44186</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23424,7 +23425,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23481,7 +23482,7 @@
         <v>44186</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23538,7 +23539,7 @@
         <v>44208</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23595,7 +23596,7 @@
         <v>44214</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23652,7 +23653,7 @@
         <v>44225</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23709,7 +23710,7 @@
         <v>44225</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23766,7 +23767,7 @@
         <v>44225</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23823,7 +23824,7 @@
         <v>44229</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23880,7 +23881,7 @@
         <v>44230</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23937,7 +23938,7 @@
         <v>44231</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23994,7 +23995,7 @@
         <v>44231</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24051,7 +24052,7 @@
         <v>44243</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24108,7 +24109,7 @@
         <v>44244</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24165,7 +24166,7 @@
         <v>44246</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24222,7 +24223,7 @@
         <v>44251</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24279,7 +24280,7 @@
         <v>44252</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24336,7 +24337,7 @@
         <v>44256</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24393,7 +24394,7 @@
         <v>44257</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24450,7 +24451,7 @@
         <v>44257</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24507,7 +24508,7 @@
         <v>44267</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24564,7 +24565,7 @@
         <v>44270</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24626,7 +24627,7 @@
         <v>44271</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24683,7 +24684,7 @@
         <v>44278</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24740,7 +24741,7 @@
         <v>44278</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24797,7 +24798,7 @@
         <v>44280</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24854,7 +24855,7 @@
         <v>44284</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24911,7 +24912,7 @@
         <v>44294</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24973,7 +24974,7 @@
         <v>44301</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25035,7 +25036,7 @@
         <v>44305</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25092,7 +25093,7 @@
         <v>44306</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25149,7 +25150,7 @@
         <v>44307</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25206,7 +25207,7 @@
         <v>44309</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25263,7 +25264,7 @@
         <v>44322</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25320,7 +25321,7 @@
         <v>44322</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25377,7 +25378,7 @@
         <v>44323</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25434,7 +25435,7 @@
         <v>44326</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25491,7 +25492,7 @@
         <v>44334</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25548,7 +25549,7 @@
         <v>44337</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25605,7 +25606,7 @@
         <v>44349</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25662,7 +25663,7 @@
         <v>44351</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25719,7 +25720,7 @@
         <v>44351</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25776,7 +25777,7 @@
         <v>44354</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25833,7 +25834,7 @@
         <v>44357</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25890,7 +25891,7 @@
         <v>44357</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25947,7 +25948,7 @@
         <v>44369</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26004,7 +26005,7 @@
         <v>44371</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26061,7 +26062,7 @@
         <v>44379</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26118,7 +26119,7 @@
         <v>44393</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26175,7 +26176,7 @@
         <v>44395</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26232,7 +26233,7 @@
         <v>44396</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26289,7 +26290,7 @@
         <v>44398</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26346,7 +26347,7 @@
         <v>44406</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26403,7 +26404,7 @@
         <v>44406</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26460,7 +26461,7 @@
         <v>44419</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26517,7 +26518,7 @@
         <v>44419</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26574,7 +26575,7 @@
         <v>44419</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26631,7 +26632,7 @@
         <v>44456</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26688,7 +26689,7 @@
         <v>44461</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26745,7 +26746,7 @@
         <v>44461</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26802,7 +26803,7 @@
         <v>44477</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26864,7 +26865,7 @@
         <v>44482</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26921,7 +26922,7 @@
         <v>44482</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26978,7 +26979,7 @@
         <v>44484</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27035,7 +27036,7 @@
         <v>44487</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27092,7 +27093,7 @@
         <v>44487</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27149,7 +27150,7 @@
         <v>44487</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27206,7 +27207,7 @@
         <v>44489</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27263,7 +27264,7 @@
         <v>44490</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27320,7 +27321,7 @@
         <v>44491</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27382,7 +27383,7 @@
         <v>44495</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27439,7 +27440,7 @@
         <v>44495</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27496,7 +27497,7 @@
         <v>44496</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27558,7 +27559,7 @@
         <v>44496</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27620,7 +27621,7 @@
         <v>44498</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27677,7 +27678,7 @@
         <v>44498</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27734,7 +27735,7 @@
         <v>44498</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27791,7 +27792,7 @@
         <v>44498</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27848,7 +27849,7 @@
         <v>44499</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27905,7 +27906,7 @@
         <v>44502</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27962,7 +27963,7 @@
         <v>44502</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28024,7 +28025,7 @@
         <v>44504</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28081,7 +28082,7 @@
         <v>44510</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28138,7 +28139,7 @@
         <v>44510</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28195,7 +28196,7 @@
         <v>44510</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28252,7 +28253,7 @@
         <v>44510</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28309,7 +28310,7 @@
         <v>44515</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28366,7 +28367,7 @@
         <v>44515</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28423,7 +28424,7 @@
         <v>44516</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28480,7 +28481,7 @@
         <v>44524</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28537,7 +28538,7 @@
         <v>44529</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28594,7 +28595,7 @@
         <v>44531</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28651,7 +28652,7 @@
         <v>44531</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28708,7 +28709,7 @@
         <v>44532</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28765,7 +28766,7 @@
         <v>44538</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28822,7 +28823,7 @@
         <v>44540</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28879,7 +28880,7 @@
         <v>44543</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28936,7 +28937,7 @@
         <v>44544</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28993,7 +28994,7 @@
         <v>44550</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29050,7 +29051,7 @@
         <v>44551</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29107,7 +29108,7 @@
         <v>44552</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29164,7 +29165,7 @@
         <v>44552</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29221,7 +29222,7 @@
         <v>44552</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29278,7 +29279,7 @@
         <v>44553</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29335,7 +29336,7 @@
         <v>44570</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29392,7 +29393,7 @@
         <v>44578</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29449,7 +29450,7 @@
         <v>44580</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29506,7 +29507,7 @@
         <v>44593</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29563,7 +29564,7 @@
         <v>44594</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29620,7 +29621,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29677,7 +29678,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29734,7 +29735,7 @@
         <v>44631</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29791,7 +29792,7 @@
         <v>44637</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29848,7 +29849,7 @@
         <v>44644</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29910,7 +29911,7 @@
         <v>44690</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29967,7 +29968,7 @@
         <v>44698</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30024,7 +30025,7 @@
         <v>44700</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30081,7 +30082,7 @@
         <v>44700</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30138,7 +30139,7 @@
         <v>44706</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30195,7 +30196,7 @@
         <v>44713</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30257,7 +30258,7 @@
         <v>44727</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30314,7 +30315,7 @@
         <v>44729</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30371,7 +30372,7 @@
         <v>44729</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30428,7 +30429,7 @@
         <v>44743</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30485,7 +30486,7 @@
         <v>44753</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30547,7 +30548,7 @@
         <v>44753</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30609,7 +30610,7 @@
         <v>44781</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30666,7 +30667,7 @@
         <v>44781</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30723,7 +30724,7 @@
         <v>44783</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30780,7 +30781,7 @@
         <v>44784</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30837,7 +30838,7 @@
         <v>44784</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30894,7 +30895,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30951,7 +30952,7 @@
         <v>44788</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31013,7 +31014,7 @@
         <v>44788</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31075,7 +31076,7 @@
         <v>44789</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31132,7 +31133,7 @@
         <v>44789</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31189,7 +31190,7 @@
         <v>44790</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31246,7 +31247,7 @@
         <v>44796</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31303,7 +31304,7 @@
         <v>44803</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31360,7 +31361,7 @@
         <v>44810</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31417,7 +31418,7 @@
         <v>44812</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31474,7 +31475,7 @@
         <v>44818</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31531,7 +31532,7 @@
         <v>44818</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31588,7 +31589,7 @@
         <v>44820</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31650,7 +31651,7 @@
         <v>44825</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31707,7 +31708,7 @@
         <v>44827</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31764,7 +31765,7 @@
         <v>44827</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31821,7 +31822,7 @@
         <v>44830</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31883,7 +31884,7 @@
         <v>44830</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31945,7 +31946,7 @@
         <v>44833</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32002,7 +32003,7 @@
         <v>44834</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32064,7 +32065,7 @@
         <v>44834</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32121,7 +32122,7 @@
         <v>44834</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32178,7 +32179,7 @@
         <v>44835</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32235,7 +32236,7 @@
         <v>44840</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32292,7 +32293,7 @@
         <v>44841</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32349,7 +32350,7 @@
         <v>44845</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32411,7 +32412,7 @@
         <v>44848</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32468,7 +32469,7 @@
         <v>44851</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32530,7 +32531,7 @@
         <v>44851</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32587,7 +32588,7 @@
         <v>44852</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32649,7 +32650,7 @@
         <v>44855</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32706,7 +32707,7 @@
         <v>44859</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32763,7 +32764,7 @@
         <v>44859</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32825,7 +32826,7 @@
         <v>44859</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32882,7 +32883,7 @@
         <v>44862</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32939,7 +32940,7 @@
         <v>44874</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33001,7 +33002,7 @@
         <v>44874</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33058,7 +33059,7 @@
         <v>44883</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33120,7 +33121,7 @@
         <v>44886</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33182,7 +33183,7 @@
         <v>44886</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33244,7 +33245,7 @@
         <v>44889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33301,7 +33302,7 @@
         <v>44889</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33358,7 +33359,7 @@
         <v>44893</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33420,7 +33421,7 @@
         <v>44893</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33477,7 +33478,7 @@
         <v>44894</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33539,7 +33540,7 @@
         <v>44896</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33596,7 +33597,7 @@
         <v>44896</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33653,7 +33654,7 @@
         <v>44896</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33710,7 +33711,7 @@
         <v>44902</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33767,7 +33768,7 @@
         <v>44902</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33824,7 +33825,7 @@
         <v>44903</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33886,7 +33887,7 @@
         <v>44903</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33948,7 +33949,7 @@
         <v>44903</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34010,7 +34011,7 @@
         <v>44904</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34067,7 +34068,7 @@
         <v>44904</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34124,7 +34125,7 @@
         <v>44904</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34181,7 +34182,7 @@
         <v>44904</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34238,7 +34239,7 @@
         <v>44904</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34295,7 +34296,7 @@
         <v>44905</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34352,7 +34353,7 @@
         <v>44908</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34409,7 +34410,7 @@
         <v>44908</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34466,7 +34467,7 @@
         <v>44908</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34523,7 +34524,7 @@
         <v>44908</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34580,7 +34581,7 @@
         <v>44908</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34637,7 +34638,7 @@
         <v>44909</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34694,7 +34695,7 @@
         <v>44910</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34751,7 +34752,7 @@
         <v>44917</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34808,7 +34809,7 @@
         <v>44917</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34865,7 +34866,7 @@
         <v>44917</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34922,7 +34923,7 @@
         <v>44917</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34979,7 +34980,7 @@
         <v>44924</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35036,7 +35037,7 @@
         <v>44924</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35098,7 +35099,7 @@
         <v>44924</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35155,7 +35156,7 @@
         <v>44928</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35212,7 +35213,7 @@
         <v>44930</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35269,7 +35270,7 @@
         <v>44931</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35331,7 +35332,7 @@
         <v>44936</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35388,7 +35389,7 @@
         <v>44938</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35445,7 +35446,7 @@
         <v>44942</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35502,7 +35503,7 @@
         <v>44946</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35559,7 +35560,7 @@
         <v>44946</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35616,7 +35617,7 @@
         <v>44946</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35673,7 +35674,7 @@
         <v>44946</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35730,7 +35731,7 @@
         <v>44958</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35787,7 +35788,7 @@
         <v>44958</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35844,7 +35845,7 @@
         <v>44958</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35901,7 +35902,7 @@
         <v>44960</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35958,7 +35959,7 @@
         <v>44966</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36015,7 +36016,7 @@
         <v>44967</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36072,7 +36073,7 @@
         <v>44967</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36129,7 +36130,7 @@
         <v>44970</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36186,7 +36187,7 @@
         <v>44970</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36243,7 +36244,7 @@
         <v>44977</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36305,7 +36306,7 @@
         <v>44980</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36362,7 +36363,7 @@
         <v>44994</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36424,7 +36425,7 @@
         <v>44998</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36481,7 +36482,7 @@
         <v>44998</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36538,7 +36539,7 @@
         <v>44998</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36595,7 +36596,7 @@
         <v>44998</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36652,7 +36653,7 @@
         <v>44998</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36709,7 +36710,7 @@
         <v>44998</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36766,7 +36767,7 @@
         <v>44998</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36823,7 +36824,7 @@
         <v>45000</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36885,7 +36886,7 @@
         <v>45000</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36942,7 +36943,7 @@
         <v>45000</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37004,7 +37005,7 @@
         <v>45006</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37066,7 +37067,7 @@
         <v>45006</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37123,7 +37124,7 @@
         <v>45006</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37180,7 +37181,7 @@
         <v>45013</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37237,7 +37238,7 @@
         <v>45022</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37294,7 +37295,7 @@
         <v>45022</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37351,7 +37352,7 @@
         <v>45034</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37408,7 +37409,7 @@
         <v>45037</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37465,7 +37466,7 @@
         <v>45040</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37522,7 +37523,7 @@
         <v>45041</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37579,7 +37580,7 @@
         <v>45051</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37636,7 +37637,7 @@
         <v>45051</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37693,7 +37694,7 @@
         <v>45056</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37750,7 +37751,7 @@
         <v>45075</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37807,7 +37808,7 @@
         <v>45085</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37864,7 +37865,7 @@
         <v>45086</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37921,7 +37922,7 @@
         <v>45086</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37978,7 +37979,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38035,7 +38036,7 @@
         <v>45098</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38092,7 +38093,7 @@
         <v>45098</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38149,7 +38150,7 @@
         <v>45098</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38206,7 +38207,7 @@
         <v>45098</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38263,7 +38264,7 @@
         <v>45098</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38320,7 +38321,7 @@
         <v>45098</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38377,7 +38378,7 @@
         <v>45099</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38434,7 +38435,7 @@
         <v>45120</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38491,7 +38492,7 @@
         <v>45126</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38553,7 +38554,7 @@
         <v>45126</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38615,7 +38616,7 @@
         <v>45126</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38677,7 +38678,7 @@
         <v>45127</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38734,7 +38735,7 @@
         <v>45150</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38791,7 +38792,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38848,7 +38849,7 @@
         <v>45159</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38905,7 +38906,7 @@
         <v>45159</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38962,7 +38963,7 @@
         <v>45159</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39019,7 +39020,7 @@
         <v>45169</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>

--- a/Översikt ÅRE.xlsx
+++ b/Översikt ÅRE.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>44162</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>44116</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>44984</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44301</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44998</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44162</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44278</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43794</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44761</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>44984</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44515</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44887</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44002</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>44278</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>44487</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44316</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>44049</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44259</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>44750</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43391</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44316</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44510</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>44984</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>44122</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>44231</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44306</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44370</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>44977</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>44034</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44165</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>44278</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>44733</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>44894</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>44946</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43605</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44077</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>44271</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44278</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>44495</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>44700</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>44882</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44977</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43643</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43657</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43844</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43916</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>44090</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>44193</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44231</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>44309</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>44316</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>44575</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44637</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>43598</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>44002</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44127</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>44130</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>44155</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44278</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>44334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44547</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>44637</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44862</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>44889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>44900</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>44904</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44977</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>44977</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>44984</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>45055</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>45072</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>45072</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45082</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>43661</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43718</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44018</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44046</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44119</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>44229</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>44334</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>44446</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>44512</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>44701</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44712</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44716</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>44716</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44781</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>44893</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44904</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44946</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>44957</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>44957</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10070,7 +10070,7 @@
         <v>44964</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>44970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>45072</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>45091</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>43314</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>43431</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43749</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>43774</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>44002</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>44090</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44090</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44116</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>44117</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44124</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44173</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>44173</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44265</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44265</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44271</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>44306</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44334</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>44395</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44477</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>44487</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>44487</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>44487</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12304,7 +12304,7 @@
         <v>44502</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44509</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12474,7 +12474,7 @@
         <v>44559</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>44637</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>44680</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44781</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44888</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44893</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44904</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>44911</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>44957</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44984</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45006</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>43328</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>43353</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13628,7 +13628,7 @@
         <v>43355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>43355</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>43357</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>43368</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13861,7 +13861,7 @@
         <v>43369</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13918,7 +13918,7 @@
         <v>43375</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>43383</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>43384</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>43388</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>43389</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>43391</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>43396</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>43397</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>43402</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>43423</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>43423</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>43423</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>43423</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>43423</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>43423</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>43424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>43424</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>43425</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>43425</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>43428</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>43428</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>43428</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>43428</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>43428</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>43431</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>43432</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>43432</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>43439</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>43444</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>43444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>43444</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>43446</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>43467</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>43467</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>43468</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>43469</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>43475</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>43490</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>43490</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>43490</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>43496</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>43501</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>43501</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>43503</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>43503</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>43510</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>43510</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>43521</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>43536</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>43552</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>43580</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16830,7 +16830,7 @@
         <v>43584</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>43587</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>43605</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17001,7 +17001,7 @@
         <v>43612</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>43612</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17115,7 +17115,7 @@
         <v>43620</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43627</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17229,7 +17229,7 @@
         <v>43629</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17286,7 +17286,7 @@
         <v>43632</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17343,7 +17343,7 @@
         <v>43633</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17400,7 +17400,7 @@
         <v>43634</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17457,7 +17457,7 @@
         <v>43652</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43661</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43661</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43676</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>43698</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17747,7 +17747,7 @@
         <v>43699</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17804,7 +17804,7 @@
         <v>43707</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>43707</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>43710</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43717</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43717</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43721</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>43726</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>43733</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>43733</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18317,7 +18317,7 @@
         <v>43733</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18374,7 +18374,7 @@
         <v>43733</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18431,7 +18431,7 @@
         <v>43734</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>43734</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>43756</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18602,7 +18602,7 @@
         <v>43768</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>43774</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>43777</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>43788</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>43788</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>43788</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>43801</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>43808</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19068,7 +19068,7 @@
         <v>43810</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>43810</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>43811</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>43816</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>43817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19410,7 +19410,7 @@
         <v>43832</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19467,7 +19467,7 @@
         <v>43832</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19524,7 +19524,7 @@
         <v>43832</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>43833</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>43851</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19695,7 +19695,7 @@
         <v>43854</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19752,7 +19752,7 @@
         <v>43902</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19809,7 +19809,7 @@
         <v>43902</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19866,7 +19866,7 @@
         <v>43909</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19923,7 +19923,7 @@
         <v>43948</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19980,7 +19980,7 @@
         <v>43956</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>43968</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>43976</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>43983</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20208,7 +20208,7 @@
         <v>43983</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20265,7 +20265,7 @@
         <v>43992</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>43992</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20379,7 +20379,7 @@
         <v>43998</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20436,7 +20436,7 @@
         <v>43998</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         <v>44000</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20555,7 +20555,7 @@
         <v>44002</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20612,7 +20612,7 @@
         <v>44002</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>44022</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>44025</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>44028</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20840,7 +20840,7 @@
         <v>44029</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20897,7 +20897,7 @@
         <v>44033</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>44034</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>44047</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>44050</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>44050</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21239,7 +21239,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>44068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21353,7 +21353,7 @@
         <v>44076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21410,7 +21410,7 @@
         <v>44077</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21467,7 +21467,7 @@
         <v>44077</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21524,7 +21524,7 @@
         <v>44077</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>44077</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44096</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44102</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21752,7 +21752,7 @@
         <v>44105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21814,7 +21814,7 @@
         <v>44106</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21871,7 +21871,7 @@
         <v>44106</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21928,7 +21928,7 @@
         <v>44106</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>44116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44120</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44125</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>44129</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>44129</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>44135</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>44140</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>44140</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>44140</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>44146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>44155</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22674,7 +22674,7 @@
         <v>44158</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22736,7 +22736,7 @@
         <v>44161</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>44168</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>44172</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>44173</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>44173</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>44173</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23083,7 +23083,7 @@
         <v>44179</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         <v>44179</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23197,7 +23197,7 @@
         <v>44179</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23254,7 +23254,7 @@
         <v>44182</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>44186</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>44186</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>44186</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44208</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>44214</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44225</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23710,7 +23710,7 @@
         <v>44225</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>44225</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         <v>44229</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44230</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44231</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>44231</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>44243</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
         <v>44244</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24166,7 +24166,7 @@
         <v>44246</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24223,7 +24223,7 @@
         <v>44251</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24280,7 +24280,7 @@
         <v>44252</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>44256</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>44257</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>44257</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24508,7 +24508,7 @@
         <v>44267</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24565,7 +24565,7 @@
         <v>44270</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>44271</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>44278</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>44278</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>44280</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44284</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>44294</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>44301</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>44305</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>44306</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>44307</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>44309</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25264,7 +25264,7 @@
         <v>44322</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25321,7 +25321,7 @@
         <v>44322</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>44323</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         <v>44326</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25492,7 +25492,7 @@
         <v>44334</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25549,7 +25549,7 @@
         <v>44337</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         <v>44349</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25663,7 +25663,7 @@
         <v>44351</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25720,7 +25720,7 @@
         <v>44351</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25777,7 +25777,7 @@
         <v>44354</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>44357</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25891,7 +25891,7 @@
         <v>44357</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25948,7 +25948,7 @@
         <v>44369</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>44371</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26062,7 +26062,7 @@
         <v>44379</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>44393</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26176,7 +26176,7 @@
         <v>44395</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26233,7 +26233,7 @@
         <v>44396</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26290,7 +26290,7 @@
         <v>44398</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>44406</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26404,7 +26404,7 @@
         <v>44406</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26461,7 +26461,7 @@
         <v>44419</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26518,7 +26518,7 @@
         <v>44419</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26575,7 +26575,7 @@
         <v>44419</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26632,7 +26632,7 @@
         <v>44456</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26689,7 +26689,7 @@
         <v>44461</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26746,7 +26746,7 @@
         <v>44461</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         <v>44477</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26865,7 +26865,7 @@
         <v>44482</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26922,7 +26922,7 @@
         <v>44482</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26979,7 +26979,7 @@
         <v>44484</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27036,7 +27036,7 @@
         <v>44487</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27093,7 +27093,7 @@
         <v>44487</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27150,7 +27150,7 @@
         <v>44487</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>44489</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27264,7 +27264,7 @@
         <v>44490</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27321,7 +27321,7 @@
         <v>44491</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27383,7 +27383,7 @@
         <v>44495</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27440,7 +27440,7 @@
         <v>44495</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27497,7 +27497,7 @@
         <v>44496</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27559,7 +27559,7 @@
         <v>44496</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>44498</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27678,7 +27678,7 @@
         <v>44498</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
         <v>44498</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27792,7 +27792,7 @@
         <v>44498</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27849,7 +27849,7 @@
         <v>44499</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         <v>44502</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27963,7 +27963,7 @@
         <v>44502</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>44504</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>44510</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>44510</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>44510</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44510</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44515</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44515</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>44516</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>44524</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44529</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44531</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44531</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>44532</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>44538</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>44540</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>44543</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44544</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44550</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29051,7 +29051,7 @@
         <v>44551</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29108,7 +29108,7 @@
         <v>44552</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29165,7 +29165,7 @@
         <v>44552</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29222,7 +29222,7 @@
         <v>44552</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29279,7 +29279,7 @@
         <v>44553</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>44570</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>44578</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>44580</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29507,7 +29507,7 @@
         <v>44593</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29564,7 +29564,7 @@
         <v>44594</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29621,7 +29621,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29678,7 +29678,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29735,7 +29735,7 @@
         <v>44631</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29792,7 +29792,7 @@
         <v>44637</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29849,7 +29849,7 @@
         <v>44644</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>44690</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44698</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44700</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44700</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>44706</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44713</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44727</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>44729</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>44729</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         <v>44743</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>44753</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30548,7 +30548,7 @@
         <v>44753</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>44781</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44781</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30724,7 +30724,7 @@
         <v>44783</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30781,7 +30781,7 @@
         <v>44784</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30838,7 +30838,7 @@
         <v>44784</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>44788</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31014,7 +31014,7 @@
         <v>44788</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31076,7 +31076,7 @@
         <v>44789</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31133,7 +31133,7 @@
         <v>44789</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31190,7 +31190,7 @@
         <v>44790</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31247,7 +31247,7 @@
         <v>44796</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>44803</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>44810</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>44812</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>44818</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>44818</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31589,7 +31589,7 @@
         <v>44820</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>44825</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>44827</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>44827</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>44830</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>44830</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>44833</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>44834</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>44834</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>44834</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>44835</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32236,7 +32236,7 @@
         <v>44840</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>44841</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>44845</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32412,7 +32412,7 @@
         <v>44848</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32469,7 +32469,7 @@
         <v>44851</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32531,7 +32531,7 @@
         <v>44851</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32588,7 +32588,7 @@
         <v>44852</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32650,7 +32650,7 @@
         <v>44855</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         <v>44859</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32764,7 +32764,7 @@
         <v>44859</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32826,7 +32826,7 @@
         <v>44859</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32883,7 +32883,7 @@
         <v>44862</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32940,7 +32940,7 @@
         <v>44874</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33002,7 +33002,7 @@
         <v>44874</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33059,7 +33059,7 @@
         <v>44883</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33121,7 +33121,7 @@
         <v>44886</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33183,7 +33183,7 @@
         <v>44886</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33245,7 +33245,7 @@
         <v>44889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33302,7 +33302,7 @@
         <v>44889</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33359,7 +33359,7 @@
         <v>44893</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33421,7 +33421,7 @@
         <v>44893</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33478,7 +33478,7 @@
         <v>44894</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33540,7 +33540,7 @@
         <v>44896</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         <v>44896</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33654,7 +33654,7 @@
         <v>44896</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33711,7 +33711,7 @@
         <v>44902</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33768,7 +33768,7 @@
         <v>44902</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33825,7 +33825,7 @@
         <v>44903</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33887,7 +33887,7 @@
         <v>44903</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33949,7 +33949,7 @@
         <v>44903</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>44904</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>44904</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>44904</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>44904</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>44904</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34296,7 +34296,7 @@
         <v>44905</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34353,7 +34353,7 @@
         <v>44908</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34410,7 +34410,7 @@
         <v>44908</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34467,7 +34467,7 @@
         <v>44908</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>44908</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>44908</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>44909</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>44910</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34752,7 +34752,7 @@
         <v>44917</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34809,7 +34809,7 @@
         <v>44917</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         <v>44917</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34923,7 +34923,7 @@
         <v>44917</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34980,7 +34980,7 @@
         <v>44924</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>44924</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35099,7 +35099,7 @@
         <v>44924</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35156,7 +35156,7 @@
         <v>44928</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35213,7 +35213,7 @@
         <v>44930</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35270,7 +35270,7 @@
         <v>44931</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35332,7 +35332,7 @@
         <v>44936</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35389,7 +35389,7 @@
         <v>44938</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35446,7 +35446,7 @@
         <v>44942</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>44946</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>44946</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>44946</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>44946</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         <v>44958</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35788,7 +35788,7 @@
         <v>44958</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35845,7 +35845,7 @@
         <v>44958</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35902,7 +35902,7 @@
         <v>44960</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35959,7 +35959,7 @@
         <v>44966</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36016,7 +36016,7 @@
         <v>44967</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36073,7 +36073,7 @@
         <v>44967</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36130,7 +36130,7 @@
         <v>44970</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36187,7 +36187,7 @@
         <v>44970</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36244,7 +36244,7 @@
         <v>44977</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         <v>44980</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36363,7 +36363,7 @@
         <v>44994</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>44998</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>44998</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>44998</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>44998</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36653,7 +36653,7 @@
         <v>44998</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>44998</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36767,7 +36767,7 @@
         <v>44998</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36824,7 +36824,7 @@
         <v>45000</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36886,7 +36886,7 @@
         <v>45000</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36943,7 +36943,7 @@
         <v>45000</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37005,7 +37005,7 @@
         <v>45006</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37067,7 +37067,7 @@
         <v>45006</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37124,7 +37124,7 @@
         <v>45006</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37181,7 +37181,7 @@
         <v>45013</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37238,7 +37238,7 @@
         <v>45022</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37295,7 +37295,7 @@
         <v>45022</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37352,7 +37352,7 @@
         <v>45034</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37409,7 +37409,7 @@
         <v>45037</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37466,7 +37466,7 @@
         <v>45040</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37523,7 +37523,7 @@
         <v>45041</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37580,7 +37580,7 @@
         <v>45051</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37637,7 +37637,7 @@
         <v>45051</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37694,7 +37694,7 @@
         <v>45056</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37751,7 +37751,7 @@
         <v>45075</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37808,7 +37808,7 @@
         <v>45085</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37865,7 +37865,7 @@
         <v>45086</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37922,7 +37922,7 @@
         <v>45086</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37979,7 +37979,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38036,7 +38036,7 @@
         <v>45098</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38093,7 +38093,7 @@
         <v>45098</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38150,7 +38150,7 @@
         <v>45098</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38207,7 +38207,7 @@
         <v>45098</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38264,7 +38264,7 @@
         <v>45098</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38321,7 +38321,7 @@
         <v>45098</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38378,7 +38378,7 @@
         <v>45099</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38435,7 +38435,7 @@
         <v>45120</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38492,7 +38492,7 @@
         <v>45126</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38554,7 +38554,7 @@
         <v>45126</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38616,7 +38616,7 @@
         <v>45126</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38678,7 +38678,7 @@
         <v>45127</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38735,7 +38735,7 @@
         <v>45150</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38792,7 +38792,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38849,7 +38849,7 @@
         <v>45159</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38906,7 +38906,7 @@
         <v>45159</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38963,7 +38963,7 @@
         <v>45159</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39020,7 +39020,7 @@
         <v>45169</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>

--- a/Översikt ÅRE.xlsx
+++ b/Översikt ÅRE.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>44162</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>44116</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>44984</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44301</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44998</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44162</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44278</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43794</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44761</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>44984</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44515</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44887</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44002</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>44278</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>44487</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44316</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>44049</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44259</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>44750</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43391</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44316</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44510</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>44984</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>44122</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>44231</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44306</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44370</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>44977</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>44034</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44165</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>44278</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>44733</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>44894</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>44946</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43605</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44077</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>44271</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44278</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>44495</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>44700</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>44882</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44977</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43643</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43657</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43844</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43916</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>44090</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>44193</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44231</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>44309</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>44316</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>44575</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44637</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>43598</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>44002</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44127</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>44130</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>44155</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44278</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>44334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44547</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>44637</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44862</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>44889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>44900</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>44904</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44977</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>44977</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>44984</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>45055</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>45072</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>45072</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45082</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>43661</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43718</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44018</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44046</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44119</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>44229</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>44334</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>44446</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>44512</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>44701</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44712</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44716</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>44716</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44781</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>44893</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44904</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44946</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>44957</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>44957</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10070,7 +10070,7 @@
         <v>44964</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>44970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>45072</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>45091</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>43314</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>43431</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43749</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>43774</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>44002</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>44090</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44090</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44116</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>44117</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44124</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44173</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>44173</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44265</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44265</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44271</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>44306</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44334</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>44395</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44477</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>44487</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>44487</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>44487</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12304,7 +12304,7 @@
         <v>44502</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44509</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12474,7 +12474,7 @@
         <v>44559</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>44637</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>44680</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44781</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44888</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44893</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44904</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>44911</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>44957</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44984</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45006</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>43328</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>43353</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13628,7 +13628,7 @@
         <v>43355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>43355</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>43357</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>43368</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13861,7 +13861,7 @@
         <v>43369</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13918,7 +13918,7 @@
         <v>43375</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>43383</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>43384</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>43388</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>43389</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>43391</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>43396</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>43397</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>43402</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>43423</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>43423</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>43423</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>43423</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>43423</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>43423</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>43424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>43424</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>43425</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>43425</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>43428</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>43428</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>43428</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>43428</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>43428</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>43431</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>43432</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>43432</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>43439</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>43444</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>43444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>43444</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>43446</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>43467</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>43467</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>43468</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>43469</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>43475</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>43490</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>43490</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>43490</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>43496</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>43501</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>43501</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>43503</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>43503</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>43510</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>43510</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>43521</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>43536</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>43552</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>43580</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16830,7 +16830,7 @@
         <v>43584</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>43587</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>43605</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17001,7 +17001,7 @@
         <v>43612</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>43612</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17115,7 +17115,7 @@
         <v>43620</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43627</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17229,7 +17229,7 @@
         <v>43629</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17286,7 +17286,7 @@
         <v>43632</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17343,7 +17343,7 @@
         <v>43633</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17400,7 +17400,7 @@
         <v>43634</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17457,7 +17457,7 @@
         <v>43652</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43661</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43661</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43676</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>43698</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17747,7 +17747,7 @@
         <v>43699</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17804,7 +17804,7 @@
         <v>43707</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>43707</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>43710</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43717</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43717</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43721</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>43726</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>43733</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>43733</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18317,7 +18317,7 @@
         <v>43733</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18374,7 +18374,7 @@
         <v>43733</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18431,7 +18431,7 @@
         <v>43734</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>43734</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>43756</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18602,7 +18602,7 @@
         <v>43768</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>43774</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>43777</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>43788</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>43788</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>43788</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>43801</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>43808</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19068,7 +19068,7 @@
         <v>43810</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>43810</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>43811</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>43816</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>43817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19410,7 +19410,7 @@
         <v>43832</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19467,7 +19467,7 @@
         <v>43832</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19524,7 +19524,7 @@
         <v>43832</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>43833</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>43851</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19695,7 +19695,7 @@
         <v>43854</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19752,7 +19752,7 @@
         <v>43902</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19809,7 +19809,7 @@
         <v>43902</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19866,7 +19866,7 @@
         <v>43909</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19923,7 +19923,7 @@
         <v>43948</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19980,7 +19980,7 @@
         <v>43956</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>43968</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>43976</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>43983</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20208,7 +20208,7 @@
         <v>43983</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20265,7 +20265,7 @@
         <v>43992</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>43992</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20379,7 +20379,7 @@
         <v>43998</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20436,7 +20436,7 @@
         <v>43998</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         <v>44000</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20555,7 +20555,7 @@
         <v>44002</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20612,7 +20612,7 @@
         <v>44002</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>44022</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>44025</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>44028</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20840,7 +20840,7 @@
         <v>44029</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20897,7 +20897,7 @@
         <v>44033</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>44034</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>44047</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>44050</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>44050</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21239,7 +21239,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>44068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21353,7 +21353,7 @@
         <v>44076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21410,7 +21410,7 @@
         <v>44077</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21467,7 +21467,7 @@
         <v>44077</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21524,7 +21524,7 @@
         <v>44077</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>44077</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44096</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44102</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21752,7 +21752,7 @@
         <v>44105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21814,7 +21814,7 @@
         <v>44106</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21871,7 +21871,7 @@
         <v>44106</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21928,7 +21928,7 @@
         <v>44106</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>44116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44120</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44125</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>44129</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>44129</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>44135</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>44140</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>44140</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>44140</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>44146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>44155</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22674,7 +22674,7 @@
         <v>44158</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22736,7 +22736,7 @@
         <v>44161</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>44168</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>44172</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>44173</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>44173</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>44173</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23083,7 +23083,7 @@
         <v>44179</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         <v>44179</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23197,7 +23197,7 @@
         <v>44179</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23254,7 +23254,7 @@
         <v>44182</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>44186</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>44186</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>44186</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44208</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>44214</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44225</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23710,7 +23710,7 @@
         <v>44225</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>44225</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         <v>44229</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44230</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44231</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>44231</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>44243</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
         <v>44244</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24166,7 +24166,7 @@
         <v>44246</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24223,7 +24223,7 @@
         <v>44251</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24280,7 +24280,7 @@
         <v>44252</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>44256</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>44257</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>44257</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24508,7 +24508,7 @@
         <v>44267</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24565,7 +24565,7 @@
         <v>44270</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>44271</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>44278</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>44278</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>44280</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44284</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>44294</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>44301</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>44305</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>44306</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>44307</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>44309</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25264,7 +25264,7 @@
         <v>44322</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25321,7 +25321,7 @@
         <v>44322</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>44323</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         <v>44326</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25492,7 +25492,7 @@
         <v>44334</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25549,7 +25549,7 @@
         <v>44337</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         <v>44349</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25663,7 +25663,7 @@
         <v>44351</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25720,7 +25720,7 @@
         <v>44351</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25777,7 +25777,7 @@
         <v>44354</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>44357</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25891,7 +25891,7 @@
         <v>44357</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25948,7 +25948,7 @@
         <v>44369</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>44371</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26062,7 +26062,7 @@
         <v>44379</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>44393</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26176,7 +26176,7 @@
         <v>44395</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26233,7 +26233,7 @@
         <v>44396</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26290,7 +26290,7 @@
         <v>44398</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>44406</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26404,7 +26404,7 @@
         <v>44406</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26461,7 +26461,7 @@
         <v>44419</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26518,7 +26518,7 @@
         <v>44419</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26575,7 +26575,7 @@
         <v>44419</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26632,7 +26632,7 @@
         <v>44456</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26689,7 +26689,7 @@
         <v>44461</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26746,7 +26746,7 @@
         <v>44461</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         <v>44477</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26865,7 +26865,7 @@
         <v>44482</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26922,7 +26922,7 @@
         <v>44482</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26979,7 +26979,7 @@
         <v>44484</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27036,7 +27036,7 @@
         <v>44487</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27093,7 +27093,7 @@
         <v>44487</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27150,7 +27150,7 @@
         <v>44487</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>44489</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27264,7 +27264,7 @@
         <v>44490</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27321,7 +27321,7 @@
         <v>44491</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27383,7 +27383,7 @@
         <v>44495</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27440,7 +27440,7 @@
         <v>44495</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27497,7 +27497,7 @@
         <v>44496</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27559,7 +27559,7 @@
         <v>44496</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>44498</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27678,7 +27678,7 @@
         <v>44498</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
         <v>44498</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27792,7 +27792,7 @@
         <v>44498</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27849,7 +27849,7 @@
         <v>44499</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         <v>44502</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27963,7 +27963,7 @@
         <v>44502</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>44504</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>44510</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>44510</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>44510</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44510</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44515</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44515</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>44516</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>44524</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44529</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44531</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44531</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>44532</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>44538</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>44540</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>44543</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44544</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44550</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29051,7 +29051,7 @@
         <v>44551</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29108,7 +29108,7 @@
         <v>44552</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29165,7 +29165,7 @@
         <v>44552</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29222,7 +29222,7 @@
         <v>44552</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29279,7 +29279,7 @@
         <v>44553</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>44570</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>44578</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>44580</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29507,7 +29507,7 @@
         <v>44593</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29564,7 +29564,7 @@
         <v>44594</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29621,7 +29621,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29678,7 +29678,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29735,7 +29735,7 @@
         <v>44631</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29792,7 +29792,7 @@
         <v>44637</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29849,7 +29849,7 @@
         <v>44644</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>44690</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44698</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44700</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44700</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>44706</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44713</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44727</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>44729</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>44729</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         <v>44743</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>44753</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30548,7 +30548,7 @@
         <v>44753</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>44781</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44781</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30724,7 +30724,7 @@
         <v>44783</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30781,7 +30781,7 @@
         <v>44784</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30838,7 +30838,7 @@
         <v>44784</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>44788</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31014,7 +31014,7 @@
         <v>44788</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31076,7 +31076,7 @@
         <v>44789</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31133,7 +31133,7 @@
         <v>44789</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31190,7 +31190,7 @@
         <v>44790</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31247,7 +31247,7 @@
         <v>44796</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>44803</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>44810</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>44812</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>44818</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>44818</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31589,7 +31589,7 @@
         <v>44820</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>44825</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>44827</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>44827</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>44830</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>44830</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>44833</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>44834</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>44834</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>44834</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>44835</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32236,7 +32236,7 @@
         <v>44840</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>44841</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>44845</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32412,7 +32412,7 @@
         <v>44848</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32469,7 +32469,7 @@
         <v>44851</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32531,7 +32531,7 @@
         <v>44851</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32588,7 +32588,7 @@
         <v>44852</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32650,7 +32650,7 @@
         <v>44855</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         <v>44859</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32764,7 +32764,7 @@
         <v>44859</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32826,7 +32826,7 @@
         <v>44859</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32883,7 +32883,7 @@
         <v>44862</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32940,7 +32940,7 @@
         <v>44874</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33002,7 +33002,7 @@
         <v>44874</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33059,7 +33059,7 @@
         <v>44883</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33121,7 +33121,7 @@
         <v>44886</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33183,7 +33183,7 @@
         <v>44886</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33245,7 +33245,7 @@
         <v>44889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33302,7 +33302,7 @@
         <v>44889</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33359,7 +33359,7 @@
         <v>44893</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33421,7 +33421,7 @@
         <v>44893</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33478,7 +33478,7 @@
         <v>44894</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33540,7 +33540,7 @@
         <v>44896</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         <v>44896</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33654,7 +33654,7 @@
         <v>44896</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33711,7 +33711,7 @@
         <v>44902</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33768,7 +33768,7 @@
         <v>44902</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33825,7 +33825,7 @@
         <v>44903</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33887,7 +33887,7 @@
         <v>44903</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33949,7 +33949,7 @@
         <v>44903</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>44904</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>44904</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>44904</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>44904</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>44904</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34296,7 +34296,7 @@
         <v>44905</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34353,7 +34353,7 @@
         <v>44908</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34410,7 +34410,7 @@
         <v>44908</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34467,7 +34467,7 @@
         <v>44908</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>44908</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>44908</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>44909</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>44910</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34752,7 +34752,7 @@
         <v>44917</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34809,7 +34809,7 @@
         <v>44917</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         <v>44917</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34923,7 +34923,7 @@
         <v>44917</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34980,7 +34980,7 @@
         <v>44924</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>44924</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35099,7 +35099,7 @@
         <v>44924</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35156,7 +35156,7 @@
         <v>44928</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35213,7 +35213,7 @@
         <v>44930</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35270,7 +35270,7 @@
         <v>44931</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35332,7 +35332,7 @@
         <v>44936</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35389,7 +35389,7 @@
         <v>44938</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35446,7 +35446,7 @@
         <v>44942</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>44946</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>44946</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>44946</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>44946</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         <v>44958</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35788,7 +35788,7 @@
         <v>44958</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35845,7 +35845,7 @@
         <v>44958</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35902,7 +35902,7 @@
         <v>44960</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35959,7 +35959,7 @@
         <v>44966</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36016,7 +36016,7 @@
         <v>44967</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36073,7 +36073,7 @@
         <v>44967</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36130,7 +36130,7 @@
         <v>44970</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36187,7 +36187,7 @@
         <v>44970</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36244,7 +36244,7 @@
         <v>44977</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         <v>44980</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36363,7 +36363,7 @@
         <v>44994</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>44998</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>44998</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>44998</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>44998</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36653,7 +36653,7 @@
         <v>44998</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>44998</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36767,7 +36767,7 @@
         <v>44998</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36824,7 +36824,7 @@
         <v>45000</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36886,7 +36886,7 @@
         <v>45000</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36943,7 +36943,7 @@
         <v>45000</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37005,7 +37005,7 @@
         <v>45006</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37067,7 +37067,7 @@
         <v>45006</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37124,7 +37124,7 @@
         <v>45006</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37181,7 +37181,7 @@
         <v>45013</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37238,7 +37238,7 @@
         <v>45022</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37295,7 +37295,7 @@
         <v>45022</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37352,7 +37352,7 @@
         <v>45034</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37409,7 +37409,7 @@
         <v>45037</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37466,7 +37466,7 @@
         <v>45040</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37523,7 +37523,7 @@
         <v>45041</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37580,7 +37580,7 @@
         <v>45051</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37637,7 +37637,7 @@
         <v>45051</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37694,7 +37694,7 @@
         <v>45056</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37751,7 +37751,7 @@
         <v>45075</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37808,7 +37808,7 @@
         <v>45085</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37865,7 +37865,7 @@
         <v>45086</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37922,7 +37922,7 @@
         <v>45086</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37979,7 +37979,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38036,7 +38036,7 @@
         <v>45098</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38093,7 +38093,7 @@
         <v>45098</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38150,7 +38150,7 @@
         <v>45098</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38207,7 +38207,7 @@
         <v>45098</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38264,7 +38264,7 @@
         <v>45098</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38321,7 +38321,7 @@
         <v>45098</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38378,7 +38378,7 @@
         <v>45099</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38435,7 +38435,7 @@
         <v>45120</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38492,7 +38492,7 @@
         <v>45126</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38554,7 +38554,7 @@
         <v>45126</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38616,7 +38616,7 @@
         <v>45126</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38678,7 +38678,7 @@
         <v>45127</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38735,7 +38735,7 @@
         <v>45150</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38792,7 +38792,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38849,7 +38849,7 @@
         <v>45159</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38906,7 +38906,7 @@
         <v>45159</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38963,7 +38963,7 @@
         <v>45159</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39020,7 +39020,7 @@
         <v>45169</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>

--- a/Översikt ÅRE.xlsx
+++ b/Översikt ÅRE.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>44162</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>44116</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>44984</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44301</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44998</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44162</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44278</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43794</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44761</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>44984</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44515</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44887</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44002</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>44278</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>44487</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44316</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>44049</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44259</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>44750</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43391</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44316</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44510</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>44984</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>44122</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>44231</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44306</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44370</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>44977</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>44034</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44165</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>44278</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>44733</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>44894</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>44946</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43605</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44077</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>44271</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44278</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>44495</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>44700</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>44882</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44977</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43643</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43657</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43844</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43916</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>44090</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>44193</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44231</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>44309</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>44316</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>44575</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44637</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>43598</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>44002</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44127</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>44130</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>44155</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44278</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>44334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44547</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>44637</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44862</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>44889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>44900</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>44904</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44977</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>44977</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>44984</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>45055</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>45072</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>45072</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45082</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>43661</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43718</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44018</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44046</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44119</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>44229</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>44334</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>44446</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>44512</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>44701</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44712</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44716</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>44716</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44781</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>44893</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44904</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44946</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>44957</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>44957</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10070,7 +10070,7 @@
         <v>44964</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>44970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>45072</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>45091</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>43314</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>43431</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43749</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>43774</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>44002</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>44090</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44090</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44116</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>44117</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44124</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44173</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>44173</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44265</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44265</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44271</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>44306</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44334</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>44395</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44477</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>44487</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>44487</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>44487</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12304,7 +12304,7 @@
         <v>44502</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44509</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12474,7 +12474,7 @@
         <v>44559</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>44637</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>44680</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44781</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44888</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44893</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44904</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>44911</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>44957</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44984</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45006</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>43328</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>43353</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13628,7 +13628,7 @@
         <v>43355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>43355</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>43357</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>43368</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13861,7 +13861,7 @@
         <v>43369</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13918,7 +13918,7 @@
         <v>43375</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>43383</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>43384</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>43388</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>43389</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>43391</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>43396</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>43397</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>43402</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>43423</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>43423</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>43423</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>43423</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>43423</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>43423</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>43424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>43424</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>43425</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>43425</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>43428</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>43428</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>43428</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>43428</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>43428</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>43431</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>43432</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>43432</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>43439</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>43444</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>43444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>43444</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>43446</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>43467</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>43467</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>43468</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>43469</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>43475</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>43490</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>43490</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>43490</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>43496</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>43501</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>43501</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>43503</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>43503</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>43510</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>43510</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>43521</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>43536</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>43552</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>43580</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16830,7 +16830,7 @@
         <v>43584</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>43587</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>43605</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17001,7 +17001,7 @@
         <v>43612</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>43612</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17115,7 +17115,7 @@
         <v>43620</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43627</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17229,7 +17229,7 @@
         <v>43629</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17286,7 +17286,7 @@
         <v>43632</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17343,7 +17343,7 @@
         <v>43633</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17400,7 +17400,7 @@
         <v>43634</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17457,7 +17457,7 @@
         <v>43652</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43661</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43661</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43676</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>43698</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17747,7 +17747,7 @@
         <v>43699</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17804,7 +17804,7 @@
         <v>43707</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>43707</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>43710</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43717</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43717</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43721</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>43726</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>43733</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>43733</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18317,7 +18317,7 @@
         <v>43733</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18374,7 +18374,7 @@
         <v>43733</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18431,7 +18431,7 @@
         <v>43734</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>43734</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>43756</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18602,7 +18602,7 @@
         <v>43768</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>43774</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>43777</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>43788</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>43788</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>43788</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>43801</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>43808</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19068,7 +19068,7 @@
         <v>43810</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>43810</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>43811</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>43816</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>43817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19410,7 +19410,7 @@
         <v>43832</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19467,7 +19467,7 @@
         <v>43832</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19524,7 +19524,7 @@
         <v>43832</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>43833</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>43851</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19695,7 +19695,7 @@
         <v>43854</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19752,7 +19752,7 @@
         <v>43902</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19809,7 +19809,7 @@
         <v>43902</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19866,7 +19866,7 @@
         <v>43909</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19923,7 +19923,7 @@
         <v>43948</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19980,7 +19980,7 @@
         <v>43956</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>43968</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>43976</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>43983</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20208,7 +20208,7 @@
         <v>43983</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20265,7 +20265,7 @@
         <v>43992</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>43992</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20379,7 +20379,7 @@
         <v>43998</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20436,7 +20436,7 @@
         <v>43998</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         <v>44000</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20555,7 +20555,7 @@
         <v>44002</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20612,7 +20612,7 @@
         <v>44002</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>44022</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>44025</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>44028</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20840,7 +20840,7 @@
         <v>44029</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20897,7 +20897,7 @@
         <v>44033</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>44034</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>44047</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>44050</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>44050</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21239,7 +21239,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>44068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21353,7 +21353,7 @@
         <v>44076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21410,7 +21410,7 @@
         <v>44077</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21467,7 +21467,7 @@
         <v>44077</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21524,7 +21524,7 @@
         <v>44077</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>44077</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44096</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44102</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21752,7 +21752,7 @@
         <v>44105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21814,7 +21814,7 @@
         <v>44106</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21871,7 +21871,7 @@
         <v>44106</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21928,7 +21928,7 @@
         <v>44106</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>44116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44120</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44125</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>44129</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>44129</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>44135</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>44140</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>44140</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>44140</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>44146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>44155</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22674,7 +22674,7 @@
         <v>44158</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22736,7 +22736,7 @@
         <v>44161</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>44168</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>44172</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>44173</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>44173</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>44173</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23083,7 +23083,7 @@
         <v>44179</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         <v>44179</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23197,7 +23197,7 @@
         <v>44179</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23254,7 +23254,7 @@
         <v>44182</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>44186</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>44186</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>44186</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44208</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>44214</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44225</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23710,7 +23710,7 @@
         <v>44225</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>44225</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         <v>44229</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44230</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44231</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>44231</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>44243</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
         <v>44244</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24166,7 +24166,7 @@
         <v>44246</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24223,7 +24223,7 @@
         <v>44251</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24280,7 +24280,7 @@
         <v>44252</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>44256</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>44257</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>44257</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24508,7 +24508,7 @@
         <v>44267</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24565,7 +24565,7 @@
         <v>44270</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>44271</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>44278</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>44278</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>44280</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44284</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>44294</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>44301</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>44305</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>44306</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>44307</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>44309</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25264,7 +25264,7 @@
         <v>44322</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25321,7 +25321,7 @@
         <v>44322</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>44323</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         <v>44326</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25492,7 +25492,7 @@
         <v>44334</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25549,7 +25549,7 @@
         <v>44337</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         <v>44349</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25663,7 +25663,7 @@
         <v>44351</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25720,7 +25720,7 @@
         <v>44351</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25777,7 +25777,7 @@
         <v>44354</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>44357</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25891,7 +25891,7 @@
         <v>44357</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25948,7 +25948,7 @@
         <v>44369</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>44371</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26062,7 +26062,7 @@
         <v>44379</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>44393</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26176,7 +26176,7 @@
         <v>44395</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26233,7 +26233,7 @@
         <v>44396</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26290,7 +26290,7 @@
         <v>44398</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>44406</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26404,7 +26404,7 @@
         <v>44406</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26461,7 +26461,7 @@
         <v>44419</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26518,7 +26518,7 @@
         <v>44419</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26575,7 +26575,7 @@
         <v>44419</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26632,7 +26632,7 @@
         <v>44456</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26689,7 +26689,7 @@
         <v>44461</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26746,7 +26746,7 @@
         <v>44461</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         <v>44477</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26865,7 +26865,7 @@
         <v>44482</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26922,7 +26922,7 @@
         <v>44482</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26979,7 +26979,7 @@
         <v>44484</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27036,7 +27036,7 @@
         <v>44487</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27093,7 +27093,7 @@
         <v>44487</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27150,7 +27150,7 @@
         <v>44487</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>44489</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27264,7 +27264,7 @@
         <v>44490</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27321,7 +27321,7 @@
         <v>44491</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27383,7 +27383,7 @@
         <v>44495</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27440,7 +27440,7 @@
         <v>44495</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27497,7 +27497,7 @@
         <v>44496</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27559,7 +27559,7 @@
         <v>44496</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>44498</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27678,7 +27678,7 @@
         <v>44498</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
         <v>44498</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27792,7 +27792,7 @@
         <v>44498</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27849,7 +27849,7 @@
         <v>44499</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         <v>44502</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27963,7 +27963,7 @@
         <v>44502</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>44504</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>44510</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>44510</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>44510</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44510</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44515</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44515</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>44516</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>44524</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44529</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44531</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44531</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>44532</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>44538</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>44540</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>44543</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44544</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44550</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29051,7 +29051,7 @@
         <v>44551</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29108,7 +29108,7 @@
         <v>44552</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29165,7 +29165,7 @@
         <v>44552</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29222,7 +29222,7 @@
         <v>44552</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29279,7 +29279,7 @@
         <v>44553</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>44570</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>44578</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>44580</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29507,7 +29507,7 @@
         <v>44593</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29564,7 +29564,7 @@
         <v>44594</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29621,7 +29621,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29678,7 +29678,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29735,7 +29735,7 @@
         <v>44631</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29792,7 +29792,7 @@
         <v>44637</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29849,7 +29849,7 @@
         <v>44644</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>44690</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44698</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44700</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44700</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>44706</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44713</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44727</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>44729</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>44729</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         <v>44743</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>44753</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30548,7 +30548,7 @@
         <v>44753</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>44781</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44781</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30724,7 +30724,7 @@
         <v>44783</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30781,7 +30781,7 @@
         <v>44784</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30838,7 +30838,7 @@
         <v>44784</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>44788</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31014,7 +31014,7 @@
         <v>44788</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31076,7 +31076,7 @@
         <v>44789</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31133,7 +31133,7 @@
         <v>44789</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31190,7 +31190,7 @@
         <v>44790</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31247,7 +31247,7 @@
         <v>44796</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>44803</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>44810</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>44812</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>44818</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>44818</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31589,7 +31589,7 @@
         <v>44820</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>44825</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>44827</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>44827</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>44830</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>44830</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>44833</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>44834</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>44834</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>44834</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>44835</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32236,7 +32236,7 @@
         <v>44840</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>44841</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>44845</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32412,7 +32412,7 @@
         <v>44848</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32469,7 +32469,7 @@
         <v>44851</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32531,7 +32531,7 @@
         <v>44851</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32588,7 +32588,7 @@
         <v>44852</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32650,7 +32650,7 @@
         <v>44855</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         <v>44859</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32764,7 +32764,7 @@
         <v>44859</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32826,7 +32826,7 @@
         <v>44859</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32883,7 +32883,7 @@
         <v>44862</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32940,7 +32940,7 @@
         <v>44874</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33002,7 +33002,7 @@
         <v>44874</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33059,7 +33059,7 @@
         <v>44883</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33121,7 +33121,7 @@
         <v>44886</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33183,7 +33183,7 @@
         <v>44886</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33245,7 +33245,7 @@
         <v>44889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33302,7 +33302,7 @@
         <v>44889</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33359,7 +33359,7 @@
         <v>44893</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33421,7 +33421,7 @@
         <v>44893</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33478,7 +33478,7 @@
         <v>44894</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33540,7 +33540,7 @@
         <v>44896</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         <v>44896</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33654,7 +33654,7 @@
         <v>44896</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33711,7 +33711,7 @@
         <v>44902</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33768,7 +33768,7 @@
         <v>44902</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33825,7 +33825,7 @@
         <v>44903</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33887,7 +33887,7 @@
         <v>44903</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33949,7 +33949,7 @@
         <v>44903</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>44904</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>44904</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>44904</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>44904</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>44904</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34296,7 +34296,7 @@
         <v>44905</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34353,7 +34353,7 @@
         <v>44908</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34410,7 +34410,7 @@
         <v>44908</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34467,7 +34467,7 @@
         <v>44908</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>44908</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>44908</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>44909</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>44910</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34752,7 +34752,7 @@
         <v>44917</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34809,7 +34809,7 @@
         <v>44917</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         <v>44917</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34923,7 +34923,7 @@
         <v>44917</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34980,7 +34980,7 @@
         <v>44924</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>44924</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35099,7 +35099,7 @@
         <v>44924</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35156,7 +35156,7 @@
         <v>44928</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35213,7 +35213,7 @@
         <v>44930</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35270,7 +35270,7 @@
         <v>44931</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35332,7 +35332,7 @@
         <v>44936</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35389,7 +35389,7 @@
         <v>44938</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35446,7 +35446,7 @@
         <v>44942</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>44946</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>44946</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>44946</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>44946</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         <v>44958</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35788,7 +35788,7 @@
         <v>44958</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35845,7 +35845,7 @@
         <v>44958</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35902,7 +35902,7 @@
         <v>44960</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35959,7 +35959,7 @@
         <v>44966</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36016,7 +36016,7 @@
         <v>44967</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36073,7 +36073,7 @@
         <v>44967</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36130,7 +36130,7 @@
         <v>44970</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36187,7 +36187,7 @@
         <v>44970</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36244,7 +36244,7 @@
         <v>44977</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         <v>44980</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36363,7 +36363,7 @@
         <v>44994</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>44998</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>44998</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>44998</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>44998</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36653,7 +36653,7 @@
         <v>44998</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>44998</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36767,7 +36767,7 @@
         <v>44998</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36824,7 +36824,7 @@
         <v>45000</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36886,7 +36886,7 @@
         <v>45000</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36943,7 +36943,7 @@
         <v>45000</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37005,7 +37005,7 @@
         <v>45006</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37067,7 +37067,7 @@
         <v>45006</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37124,7 +37124,7 @@
         <v>45006</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37181,7 +37181,7 @@
         <v>45013</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37238,7 +37238,7 @@
         <v>45022</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37295,7 +37295,7 @@
         <v>45022</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37352,7 +37352,7 @@
         <v>45034</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37409,7 +37409,7 @@
         <v>45037</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37466,7 +37466,7 @@
         <v>45040</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37523,7 +37523,7 @@
         <v>45041</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37580,7 +37580,7 @@
         <v>45051</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37637,7 +37637,7 @@
         <v>45051</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37694,7 +37694,7 @@
         <v>45056</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37751,7 +37751,7 @@
         <v>45075</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37808,7 +37808,7 @@
         <v>45085</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37865,7 +37865,7 @@
         <v>45086</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37922,7 +37922,7 @@
         <v>45086</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37979,7 +37979,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38036,7 +38036,7 @@
         <v>45098</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38093,7 +38093,7 @@
         <v>45098</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38150,7 +38150,7 @@
         <v>45098</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38207,7 +38207,7 @@
         <v>45098</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38264,7 +38264,7 @@
         <v>45098</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38321,7 +38321,7 @@
         <v>45098</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38378,7 +38378,7 @@
         <v>45099</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38435,7 +38435,7 @@
         <v>45120</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38492,7 +38492,7 @@
         <v>45126</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38554,7 +38554,7 @@
         <v>45126</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38616,7 +38616,7 @@
         <v>45126</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38678,7 +38678,7 @@
         <v>45127</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38735,7 +38735,7 @@
         <v>45150</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38792,7 +38792,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38849,7 +38849,7 @@
         <v>45159</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38906,7 +38906,7 @@
         <v>45159</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38963,7 +38963,7 @@
         <v>45159</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39020,7 +39020,7 @@
         <v>45169</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>

--- a/Översikt ÅRE.xlsx
+++ b/Översikt ÅRE.xlsx
@@ -572,7 +572,7 @@
         <v>44090</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>44162</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>44116</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>44984</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44301</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>44998</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43543</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44162</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44278</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>43794</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44761</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>44984</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>44515</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>44887</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44002</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>44278</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>44487</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43783</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44316</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>44049</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44259</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>44750</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43391</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43418</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44316</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44510</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>44984</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>44122</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>44231</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44306</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44370</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>44977</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>44034</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44165</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>44278</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>44733</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>44894</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>44946</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43605</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44077</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>44145</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>44271</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44278</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>44495</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>44700</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>44882</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44977</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>43643</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>43657</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>43844</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43916</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>44090</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>44193</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44231</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>44309</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>44316</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>44575</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44637</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>43598</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>44002</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>44127</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>44130</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>44155</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44278</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>44334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>44547</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>44637</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44862</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>44889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>44900</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>44904</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44977</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>44977</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>44984</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>45055</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>45072</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>45072</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45082</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>43661</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43718</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44018</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44046</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44119</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>44229</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>44334</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>44446</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44512</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>44512</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>44701</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44712</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44716</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>44716</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44781</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>44893</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44904</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44946</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>44957</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>44957</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44964</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10070,7 +10070,7 @@
         <v>44964</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>44970</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>45072</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>45091</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>43314</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>43431</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43749</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>43774</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>44002</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>44090</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44090</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44116</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>44117</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44124</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44173</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>44173</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44265</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44265</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44271</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>44306</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44334</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>44395</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44477</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>44487</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>44487</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>44487</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12304,7 +12304,7 @@
         <v>44502</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>44509</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12474,7 +12474,7 @@
         <v>44559</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>44637</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>44680</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>44781</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44888</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44893</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44904</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>44911</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>44957</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44984</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45006</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>43328</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>43353</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13628,7 +13628,7 @@
         <v>43355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>43355</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>43357</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>43368</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13861,7 +13861,7 @@
         <v>43369</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13918,7 +13918,7 @@
         <v>43375</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>43383</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>43384</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>43388</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>43389</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>43391</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>43396</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>43397</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>43402</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>43423</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>43423</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>43423</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>43423</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>43423</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>43423</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>43424</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>43424</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>43425</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>43425</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>43428</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>43428</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>43428</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>43428</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>43428</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>43431</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>43432</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>43432</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>43439</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>43444</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>43444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>43444</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>43446</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>43467</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>43467</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>43468</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>43469</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>43475</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>43490</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>43490</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>43490</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>43496</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>43501</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>43501</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>43503</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>43503</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>43510</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>43510</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>43521</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>43536</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>43552</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>43580</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16830,7 +16830,7 @@
         <v>43584</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>43587</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>43605</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17001,7 +17001,7 @@
         <v>43612</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>43612</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17115,7 +17115,7 @@
         <v>43620</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>43627</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17229,7 +17229,7 @@
         <v>43629</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17286,7 +17286,7 @@
         <v>43632</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17343,7 +17343,7 @@
         <v>43633</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17400,7 +17400,7 @@
         <v>43634</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17457,7 +17457,7 @@
         <v>43652</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43661</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43661</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43676</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>43698</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17747,7 +17747,7 @@
         <v>43699</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17804,7 +17804,7 @@
         <v>43707</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>43707</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>43710</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43717</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43717</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43721</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>43726</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>43733</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>43733</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18317,7 +18317,7 @@
         <v>43733</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18374,7 +18374,7 @@
         <v>43733</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18431,7 +18431,7 @@
         <v>43734</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>43734</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>43756</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18602,7 +18602,7 @@
         <v>43768</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>43774</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>43777</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>43788</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>43788</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>43788</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>43801</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>43808</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19068,7 +19068,7 @@
         <v>43810</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>43810</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>43811</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>43816</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>43817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19410,7 +19410,7 @@
         <v>43832</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19467,7 +19467,7 @@
         <v>43832</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19524,7 +19524,7 @@
         <v>43832</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>43833</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>43851</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19695,7 +19695,7 @@
         <v>43854</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19752,7 +19752,7 @@
         <v>43902</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19809,7 +19809,7 @@
         <v>43902</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19866,7 +19866,7 @@
         <v>43909</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19923,7 +19923,7 @@
         <v>43948</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19980,7 +19980,7 @@
         <v>43956</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>43968</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>43976</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>43983</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20208,7 +20208,7 @@
         <v>43983</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20265,7 +20265,7 @@
         <v>43992</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>43992</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20379,7 +20379,7 @@
         <v>43998</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20436,7 +20436,7 @@
         <v>43998</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         <v>44000</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20555,7 +20555,7 @@
         <v>44002</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20612,7 +20612,7 @@
         <v>44002</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>44022</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>44025</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>44028</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20840,7 +20840,7 @@
         <v>44029</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20897,7 +20897,7 @@
         <v>44033</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>44034</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>44047</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>44050</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>44050</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>44060</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21239,7 +21239,7 @@
         <v>44060</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>44068</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21353,7 +21353,7 @@
         <v>44076</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21410,7 +21410,7 @@
         <v>44077</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21467,7 +21467,7 @@
         <v>44077</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21524,7 +21524,7 @@
         <v>44077</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>44077</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44096</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44102</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21752,7 +21752,7 @@
         <v>44105</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21814,7 +21814,7 @@
         <v>44106</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21871,7 +21871,7 @@
         <v>44106</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21928,7 +21928,7 @@
         <v>44106</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>44116</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44120</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44125</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>44129</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>44129</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>44135</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>44140</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>44140</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>44140</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>44146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>44151</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>44155</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22674,7 +22674,7 @@
         <v>44158</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22736,7 +22736,7 @@
         <v>44161</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>44168</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>44172</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>44173</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>44173</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>44173</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23083,7 +23083,7 @@
         <v>44179</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         <v>44179</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23197,7 +23197,7 @@
         <v>44179</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23254,7 +23254,7 @@
         <v>44182</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>44186</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>44186</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>44186</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>44186</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44208</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>44214</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44225</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23710,7 +23710,7 @@
         <v>44225</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>44225</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         <v>44229</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44230</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44231</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>44231</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>44243</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
         <v>44244</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24166,7 +24166,7 @@
         <v>44246</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24223,7 +24223,7 @@
         <v>44251</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24280,7 +24280,7 @@
         <v>44252</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>44256</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>44257</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>44257</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24508,7 +24508,7 @@
         <v>44267</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24565,7 +24565,7 @@
         <v>44270</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>44271</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>44278</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>44278</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>44280</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44284</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>44294</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>44301</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>44305</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>44306</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>44307</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25207,7 +25207,7 @@
         <v>44309</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25264,7 +25264,7 @@
         <v>44322</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25321,7 +25321,7 @@
         <v>44322</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>44323</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         <v>44326</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25492,7 +25492,7 @@
         <v>44334</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25549,7 +25549,7 @@
         <v>44337</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         <v>44349</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25663,7 +25663,7 @@
         <v>44351</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25720,7 +25720,7 @@
         <v>44351</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25777,7 +25777,7 @@
         <v>44354</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>44357</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25891,7 +25891,7 @@
         <v>44357</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25948,7 +25948,7 @@
         <v>44369</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>44371</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26062,7 +26062,7 @@
         <v>44379</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>44393</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26176,7 +26176,7 @@
         <v>44395</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26233,7 +26233,7 @@
         <v>44396</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26290,7 +26290,7 @@
         <v>44398</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>44406</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26404,7 +26404,7 @@
         <v>44406</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26461,7 +26461,7 @@
         <v>44419</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26518,7 +26518,7 @@
         <v>44419</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26575,7 +26575,7 @@
         <v>44419</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26632,7 +26632,7 @@
         <v>44456</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26689,7 +26689,7 @@
         <v>44461</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26746,7 +26746,7 @@
         <v>44461</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         <v>44477</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26865,7 +26865,7 @@
         <v>44482</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26922,7 +26922,7 @@
         <v>44482</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26979,7 +26979,7 @@
         <v>44484</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27036,7 +27036,7 @@
         <v>44487</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27093,7 +27093,7 @@
         <v>44487</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27150,7 +27150,7 @@
         <v>44487</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>44489</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27264,7 +27264,7 @@
         <v>44490</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27321,7 +27321,7 @@
         <v>44491</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27383,7 +27383,7 @@
         <v>44495</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27440,7 +27440,7 @@
         <v>44495</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27497,7 +27497,7 @@
         <v>44496</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27559,7 +27559,7 @@
         <v>44496</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>44498</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27678,7 +27678,7 @@
         <v>44498</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
         <v>44498</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27792,7 +27792,7 @@
         <v>44498</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27849,7 +27849,7 @@
         <v>44499</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         <v>44502</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27963,7 +27963,7 @@
         <v>44502</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>44504</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>44510</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>44510</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>44510</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44510</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44515</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44515</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>44516</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>44524</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44529</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44531</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44531</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>44532</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>44538</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>44540</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>44543</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44544</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44550</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29051,7 +29051,7 @@
         <v>44551</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29108,7 +29108,7 @@
         <v>44552</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29165,7 +29165,7 @@
         <v>44552</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29222,7 +29222,7 @@
         <v>44552</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29279,7 +29279,7 @@
         <v>44553</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>44570</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>44578</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>44580</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29507,7 +29507,7 @@
         <v>44593</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29564,7 +29564,7 @@
         <v>44594</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29621,7 +29621,7 @@
         <v>44628</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29678,7 +29678,7 @@
         <v>44628</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29735,7 +29735,7 @@
         <v>44631</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29792,7 +29792,7 @@
         <v>44637</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29849,7 +29849,7 @@
         <v>44644</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>44690</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44698</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44700</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44700</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>44706</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44713</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44727</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>44729</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>44729</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         <v>44743</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>44753</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30548,7 +30548,7 @@
         <v>44753</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>44781</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44781</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30724,7 +30724,7 @@
         <v>44783</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30781,7 +30781,7 @@
         <v>44784</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30838,7 +30838,7 @@
         <v>44784</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>44784</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>44788</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31014,7 +31014,7 @@
         <v>44788</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31076,7 +31076,7 @@
         <v>44789</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31133,7 +31133,7 @@
         <v>44789</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31190,7 +31190,7 @@
         <v>44790</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31247,7 +31247,7 @@
         <v>44796</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>44803</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>44810</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>44812</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>44818</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>44818</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31589,7 +31589,7 @@
         <v>44820</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>44825</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>44827</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>44827</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>44830</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>44830</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>44833</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>44834</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>44834</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>44834</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>44835</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32236,7 +32236,7 @@
         <v>44840</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>44841</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>44845</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32412,7 +32412,7 @@
         <v>44848</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32469,7 +32469,7 @@
         <v>44851</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32531,7 +32531,7 @@
         <v>44851</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32588,7 +32588,7 @@
         <v>44852</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32650,7 +32650,7 @@
         <v>44855</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         <v>44859</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32764,7 +32764,7 @@
         <v>44859</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32826,7 +32826,7 @@
         <v>44859</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32883,7 +32883,7 @@
         <v>44862</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32940,7 +32940,7 @@
         <v>44874</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33002,7 +33002,7 @@
         <v>44874</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33059,7 +33059,7 @@
         <v>44883</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33121,7 +33121,7 @@
         <v>44886</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33183,7 +33183,7 @@
         <v>44886</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33245,7 +33245,7 @@
         <v>44889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33302,7 +33302,7 @@
         <v>44889</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33359,7 +33359,7 @@
         <v>44893</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33421,7 +33421,7 @@
         <v>44893</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33478,7 +33478,7 @@
         <v>44894</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33540,7 +33540,7 @@
         <v>44896</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         <v>44896</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33654,7 +33654,7 @@
         <v>44896</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33711,7 +33711,7 @@
         <v>44902</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33768,7 +33768,7 @@
         <v>44902</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33825,7 +33825,7 @@
         <v>44903</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33887,7 +33887,7 @@
         <v>44903</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33949,7 +33949,7 @@
         <v>44903</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>44904</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>44904</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>44904</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>44904</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>44904</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34296,7 +34296,7 @@
         <v>44905</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34353,7 +34353,7 @@
         <v>44908</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34410,7 +34410,7 @@
         <v>44908</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34467,7 +34467,7 @@
         <v>44908</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>44908</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>44908</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>44909</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>44910</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34752,7 +34752,7 @@
         <v>44917</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34809,7 +34809,7 @@
         <v>44917</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         <v>44917</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34923,7 +34923,7 @@
         <v>44917</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34980,7 +34980,7 @@
         <v>44924</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>44924</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35099,7 +35099,7 @@
         <v>44924</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35156,7 +35156,7 @@
         <v>44928</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35213,7 +35213,7 @@
         <v>44930</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35270,7 +35270,7 @@
         <v>44931</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35332,7 +35332,7 @@
         <v>44936</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35389,7 +35389,7 @@
         <v>44938</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35446,7 +35446,7 @@
         <v>44942</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>44946</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>44946</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>44946</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>44946</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         <v>44958</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35788,7 +35788,7 @@
         <v>44958</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35845,7 +35845,7 @@
         <v>44958</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35902,7 +35902,7 @@
         <v>44960</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35959,7 +35959,7 @@
         <v>44966</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36016,7 +36016,7 @@
         <v>44967</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36073,7 +36073,7 @@
         <v>44967</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36130,7 +36130,7 @@
         <v>44970</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36187,7 +36187,7 @@
         <v>44970</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36244,7 +36244,7 @@
         <v>44977</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         <v>44980</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36363,7 +36363,7 @@
         <v>44994</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>44998</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>44998</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>44998</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>44998</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36653,7 +36653,7 @@
         <v>44998</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>44998</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36767,7 +36767,7 @@
         <v>44998</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36824,7 +36824,7 @@
         <v>45000</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36886,7 +36886,7 @@
         <v>45000</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36943,7 +36943,7 @@
         <v>45000</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37005,7 +37005,7 @@
         <v>45006</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37067,7 +37067,7 @@
         <v>45006</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37124,7 +37124,7 @@
         <v>45006</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37181,7 +37181,7 @@
         <v>45013</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37238,7 +37238,7 @@
         <v>45022</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37295,7 +37295,7 @@
         <v>45022</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37352,7 +37352,7 @@
         <v>45034</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37409,7 +37409,7 @@
         <v>45037</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37466,7 +37466,7 @@
         <v>45040</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37523,7 +37523,7 @@
         <v>45041</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37580,7 +37580,7 @@
         <v>45051</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37637,7 +37637,7 @@
         <v>45051</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37694,7 +37694,7 @@
         <v>45056</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37751,7 +37751,7 @@
         <v>45075</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37808,7 +37808,7 @@
         <v>45085</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37865,7 +37865,7 @@
         <v>45086</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37922,7 +37922,7 @@
         <v>45086</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37979,7 +37979,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38036,7 +38036,7 @@
         <v>45098</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38093,7 +38093,7 @@
         <v>45098</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38150,7 +38150,7 @@
         <v>45098</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38207,7 +38207,7 @@
         <v>45098</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38264,7 +38264,7 @@
         <v>45098</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38321,7 +38321,7 @@
         <v>45098</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38378,7 +38378,7 @@
         <v>45099</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38435,7 +38435,7 @@
         <v>45120</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38492,7 +38492,7 @@
         <v>45126</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38554,7 +38554,7 @@
         <v>45126</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38616,7 +38616,7 @@
         <v>45126</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38678,7 +38678,7 @@
         <v>45127</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38735,7 +38735,7 @@
         <v>45150</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38792,7 +38792,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38849,7 +38849,7 @@
         <v>45159</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38906,7 +38906,7 @@
         <v>45159</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38963,7 +38963,7 @@
         <v>45159</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39020,7 +39020,7 @@
         <v>45169</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
